--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="204">
   <si>
     <t>Doi</t>
   </si>
@@ -711,6 +711,75 @@
   </si>
   <si>
     <t>[Ahmad%Jabbar%coreGivesNoEmail%1,  Alaa%Boulad%coreGivesNoEmail%1,  Anand%Irimpen%coreGivesNoEmail%1,  Bradley%Deere%coreGivesNoEmail%1,  Christopher%Westley%coreGivesNoEmail%1,  Hassan%Baydoun%coreGivesNoEmail%1,  Holly%Gonzales%coreGivesNoEmail%1,  Indrajeet%Mahata%coreGivesNoEmail%1,  John%C. Moscona%coreGivesNoEmail%1,  Kapil%Yadav%coreGivesNoEmail%1,  Matthew%N. Peters%coreGivesNoEmail%1,  Patrick%Ters%coreGivesNoEmail%1,  Paul%Katigbak%coreGivesNoEmail%1,  Rohit%Maini%coreGivesNoEmail%1,  Ryan%Nelson%coreGivesNoEmail%1,  Sudesh%Srivastav%coreGivesNoEmail%1,  Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%2,     Elsie%Yan%null%1,     Sally%Jowett%null%1,  Thanos%Karatzias%null%0,  Elsie%Yan%null%1,  Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,    Alan%Cohen%NULL%1,    Josiane%Courteau%NULL%1,    Patrick%Bergeron%NULL%1,    Roxanne%Dault%NULL%1,    Pierre%Gosselin%NULL%1,    Claudia%Blais%NULL%1,    Diane%Bélanger%NULL%1,    Louis%Rochette%NULL%1,    Fateh%Chebana%NULL%1,    Jan%Semenza%NULL%2,    Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%2,     Tony T.%Koshy%null%1,     Joseph%Gilbert%null%1,     Lauren K.%Burdine%null%1,     Michael%Marmor%null%1,     Xiaoxia%Han%null%1,     Yongzhao%Shao%null%1,     Claude%Chemtob%null%1,     Teresa M.%Attina%null%1,     Elaine M.%Urbina%null%1,  Leonardo%Trasande%null%0,  Tony T.%Koshy%null%1,  Joseph%Gilbert%null%1,  Lauren K.%Burdine%null%1,  Michael%Marmor%null%1,  Xiaoxia%Han%null%1,  Yongzhao%Shao%null%1,  Claude%Chemtob%null%1,  Teresa M.%Attina%null%1,  Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,    Elena N.%Naumova%NULL%1,    Gitanjali%Singh%NULL%1,    Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,    Steven D.%Stellman%NULL%1,    Alfredo%Morabia%NULL%1,    Sara A.%Miller‐Archie%NULL%1,    Howard%Alper%NULL%1,    Zoey%Laskaris%NULL%1,    Robert M.%Brackbill%NULL%1,    James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,   Karen%A. Matthews%coreGivesNoEmail%1,   Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%2,     Chris%Houser%null%1,     Klaus%Meyer-Arendt%null%1,  Nathan%McKinney%null%0,  Chris%Houser%null%1,  Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%2,     Socrates V.%Kakoulides%null%1,     John%Moscona%null%1,     Jabar%Whittier%null%1,     Sudesh%Srivastav%null%1,     Patrice%Delafontaine%null%2,     Anand%Irimpen%null%1,  Zhen%Jiao%null%0,  Socrates V.%Kakoulides%null%1,  John%Moscona%null%1,  Jabar%Whittier%null%1,  Sudesh%Srivastav%null%1,  Patrice%Delafontaine%null%2,  Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%2,     Shinya%Yumoto%null%1,     Kazuhisa%Sakaguchi%null%1,     Chiharu%Shudo%null%1,     Shiro%Takino%null%1,     Motohiro%Hashiyama%null%1,     Yutaka%Kai%null%1,     Yutaka%Kuroda%null%1,     Hiroaki%Kawano%null%1,     Hisao%Ogawa%null%2,  Yasuhiro%Nagayoshi%null%0,  Shinya%Yumoto%null%1,  Kazuhisa%Sakaguchi%null%1,  Chiharu%Shudo%null%1,  Shiro%Takino%null%1,  Motohiro%Hashiyama%null%1,  Yutaka%Kai%null%1,  Yutaka%Kuroda%null%1,  Hiroaki%Kawano%null%1,  Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%2,     Sara A.%Miller-Archie%null%1,     James E.%Cone%null%1,     Alfredo%Morabia%null%1,     Steven D.%Stellman%null%1,  Hannah T.%Jordan%null%0,  Sara A.%Miller-Archie%null%1,  James E.%Cone%null%1,  Alfredo%Morabia%null%1,  Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,    Hayden%Smith%NULL%1,    Nitesh%Kuhadiya%NULL%1,    Sharice M.%Leger%NULL%1,    C. Lillian%Yau%NULL%1,    Kristi%Reynolds%NULL%1,    Lizheng%Shi%NULL%1,    Roberta H.%McDuffie%NULL%1,    Tina%Thethi%NULL%1,    Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%2,     Ana Isabel%Casanegra%null%1,     Alan%Shapiro%null%1,     Minh%Phan%null%1,     Beau%Hawkins%null%1,     Ji%Li%null%1,     Julie%Stoner%null%1,     Alfonso%Tafur%null%1,  Federico%Silva-Palacios%null%0,  Ana Isabel%Casanegra%null%1,  Alan%Shapiro%null%1,  Minh%Phan%null%1,  Beau%Hawkins%null%1,  Ji%Li%null%1,  Julie%Stoner%null%1,  Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,    La Ngoc%Quang%NULL%1,    Le Thi%Thanh Ha%NULL%1,    Tran Thi%Duc Hanh%NULL%1,    Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,   Bouter%L M%coreGivesNoEmail%1,   Bramsen%I%coreGivesNoEmail%1,   Huizink%A C%coreGivesNoEmail%1,   Slottje%P%coreGivesNoEmail%1,   Smid%T%coreGivesNoEmail%1,   Smidt%N%coreGivesNoEmail%1,   Twisk%J W R%coreGivesNoEmail%1,   van%der Ploeg H M%coreGivesNoEmail%1,   van%Mechelen W%coreGivesNoEmail%1,   Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%2,     Robert M%Brackbill%null%1,     James E%Cone%null%1,     Indira%Debchoudhury%null%1,     Mark R%Farfel%null%1,     Carolyn M%Greene%null%1,     James L%Hadler%null%1,     Joseph%Kennedy%null%1,     Jiehui%Li%null%1,     Jonathan%Liff%null%1,     Leslie%Stayner%null%1,     Steven D%Stellman%null%1,  Hannah T%Jordan%null%0,  Robert M%Brackbill%null%1,  James E%Cone%null%1,  Indira%Debchoudhury%null%1,  Mark R%Farfel%null%1,  Carolyn M%Greene%null%1,  James L%Hadler%null%1,  Joseph%Kennedy%null%1,  Jiehui%Li%null%1,  Jonathan%Liff%null%1,  Leslie%Stayner%null%1,  Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%2,     Morgan J.%Katz%null%1,     John C.%Moscona%null%1,     Mohi E.%Alkadri%null%1,     Rashad H.%Khazi Syed%null%1,     Thomas A.%Turnage%null%1,     Vikram S.%Nijjar%null%1,     Mohannad B.%Bisharat%null%1,     Patrice%Delafontaine%null%0,     Anand M.%Irimpen%null%1,  Matthew N.%Peters%null%0,  Morgan J.%Katz%null%1,  John C.%Moscona%null%1,  Mohi E.%Alkadri%null%1,  Rashad H.%Khazi Syed%null%1,  Thomas A.%Turnage%null%1,  Vikram S.%Nijjar%null%1,  Mohannad B.%Bisharat%null%1,  Patrice%Delafontaine%null%0,  Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,    Dena%Javadi%NULL%2,    Dena%Javadi%NULL%0,    Katrina%Hann%NULL%5,    Anthony D%Harries%NULL%2,    Anthony D%Harries%NULL%0,    Francis%Smart%NULL%2,    Francis%Smart%NULL%0,    Thomas%Samba%NULL%1,    Jeffery%Edwards%NULL%4,    Jeffery%Edwards%NULL%0,    Priyakanta%Nayak%NULL%2,    Priyakanta%Nayak%NULL%0,    Katrina%Hann%NULL%0,    Katrina%Hann%NULL%0,    Jeffery%Edwards%NULL%0,    Jeffery%Edwards%NULL%0,    Katrina%Hann%NULL%0,    Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%2,     Renée%El-Gabalawy%null%1,     Sarvesh%Logsetty%null%1,     Jitender%Sareen%null%1,  M. Natalie%Husarewycz%null%0,  Renée%El-Gabalawy%null%1,  Sarvesh%Logsetty%null%1,  Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%2,     Eric%Jougla%null%1,     Anne%Fouillet%null%1,     Gérard%Pavillon%null%1,     Pierre%Bessemoulin%null%1,     Philippe%Frayssinet%null%1,     Jacqueline%Clavel%null%1,     Denis%Hémon%null%1,  Grégoire%Rey%null%0,  Eric%Jougla%null%1,  Anne%Fouillet%null%1,  Gérard%Pavillon%null%1,  Pierre%Bessemoulin%null%1,  Philippe%Frayssinet%null%1,  Jacqueline%Clavel%null%1,  Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,   Alaa%Boulad%coreGivesNoEmail%1,   Anand%Irimpen%coreGivesNoEmail%1,   Bradley%Deere%coreGivesNoEmail%1,   Christopher%Westley%coreGivesNoEmail%1,   Hassan%Baydoun%coreGivesNoEmail%1,   Holly%Gonzales%coreGivesNoEmail%1,   Indrajeet%Mahata%coreGivesNoEmail%1,   John%C. Moscona%coreGivesNoEmail%1,   Kapil%Yadav%coreGivesNoEmail%1,   Matthew%N. Peters%coreGivesNoEmail%1,   Patrick%Ters%coreGivesNoEmail%1,   Paul%Katigbak%coreGivesNoEmail%1,   Rohit%Maini%coreGivesNoEmail%1,   Ryan%Nelson%coreGivesNoEmail%1,   Sudesh%Srivastav%coreGivesNoEmail%1,   Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -1030,6 +1099,9 @@
       <c r="H1" t="s">
         <v>48</v>
       </c>
+      <c r="I1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1045,7 +1117,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -1055,6 +1127,9 @@
       </c>
       <c r="H2" t="s">
         <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3">
@@ -1082,6 +1157,9 @@
       <c r="H3" t="s">
         <v>55</v>
       </c>
+      <c r="I3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1097,7 +1175,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -1107,6 +1185,9 @@
       </c>
       <c r="H4" t="s">
         <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5">
@@ -1123,7 +1204,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -1133,6 +1214,9 @@
       </c>
       <c r="H5" t="s">
         <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6">
@@ -1149,7 +1233,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -1159,6 +1243,9 @@
       </c>
       <c r="H6" t="s">
         <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -1175,7 +1262,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -1185,6 +1272,9 @@
       </c>
       <c r="H7" t="s">
         <v>76</v>
+      </c>
+      <c r="I7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -1212,6 +1302,9 @@
       <c r="H8" t="s">
         <v>55</v>
       </c>
+      <c r="I8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -1227,16 +1320,19 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
         <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1349,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1263,6 +1359,9 @@
       </c>
       <c r="H10" t="s">
         <v>81</v>
+      </c>
+      <c r="I10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="11">
@@ -1290,6 +1389,9 @@
       <c r="H11" t="s">
         <v>55</v>
       </c>
+      <c r="I11" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -1305,7 +1407,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1315,6 +1417,9 @@
       </c>
       <c r="H12" t="s">
         <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13">
@@ -1342,6 +1447,9 @@
       <c r="H13" t="s">
         <v>55</v>
       </c>
+      <c r="I13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1357,7 +1465,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1367,6 +1475,9 @@
       </c>
       <c r="H14" t="s">
         <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="15">
@@ -1383,7 +1494,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -1393,6 +1504,9 @@
       </c>
       <c r="H15" t="s">
         <v>95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="16">
@@ -1420,6 +1534,9 @@
       <c r="H16" t="s">
         <v>55</v>
       </c>
+      <c r="I16" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -1435,7 +1552,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -1445,6 +1562,9 @@
       </c>
       <c r="H17" t="s">
         <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="18">
@@ -1461,7 +1581,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -1471,6 +1591,9 @@
       </c>
       <c r="H18" t="s">
         <v>105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="19">
@@ -1487,7 +1610,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -1497,6 +1620,9 @@
       </c>
       <c r="H19" t="s">
         <v>110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="20">
@@ -1513,16 +1639,19 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
         <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21">
@@ -1539,7 +1668,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -1549,6 +1678,9 @@
       </c>
       <c r="H21" t="s">
         <v>115</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22">
@@ -1576,6 +1708,9 @@
       <c r="H22" t="s">
         <v>55</v>
       </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -1591,7 +1726,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -1601,6 +1736,9 @@
       </c>
       <c r="H23" t="s">
         <v>120</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -1617,7 +1755,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -1627,6 +1765,9 @@
       </c>
       <c r="H24" t="s">
         <v>125</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="25">
@@ -1654,6 +1795,9 @@
       <c r="H25" t="s">
         <v>55</v>
       </c>
+      <c r="I25" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -1680,6 +1824,9 @@
       <c r="H26" t="s">
         <v>55</v>
       </c>
+      <c r="I26" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -1706,6 +1853,9 @@
       <c r="H27" t="s">
         <v>55</v>
       </c>
+      <c r="I27" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -1732,6 +1882,9 @@
       <c r="H28" t="s">
         <v>55</v>
       </c>
+      <c r="I28" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -1747,7 +1900,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -1757,6 +1910,9 @@
       </c>
       <c r="H29" t="s">
         <v>130</v>
+      </c>
+      <c r="I29" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="30">
@@ -1776,13 +1932,16 @@
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
         <v>55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="31">
@@ -1799,7 +1958,7 @@
         <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -1809,6 +1968,9 @@
       </c>
       <c r="H31" t="s">
         <v>134</v>
+      </c>
+      <c r="I31" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="32">
@@ -1825,16 +1987,19 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
         <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="33">
@@ -1861,6 +2026,9 @@
       </c>
       <c r="H33" t="s">
         <v>55</v>
+      </c>
+      <c r="I33" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="264">
   <si>
     <t>Doi</t>
   </si>
@@ -780,6 +780,186 @@
   </si>
   <si>
     <t>[Ahmad%Jabbar%coreGivesNoEmail%1,   Alaa%Boulad%coreGivesNoEmail%1,   Anand%Irimpen%coreGivesNoEmail%1,   Bradley%Deere%coreGivesNoEmail%1,   Christopher%Westley%coreGivesNoEmail%1,   Hassan%Baydoun%coreGivesNoEmail%1,   Holly%Gonzales%coreGivesNoEmail%1,   Indrajeet%Mahata%coreGivesNoEmail%1,   John%C. Moscona%coreGivesNoEmail%1,   Kapil%Yadav%coreGivesNoEmail%1,   Matthew%N. Peters%coreGivesNoEmail%1,   Patrick%Ters%coreGivesNoEmail%1,   Paul%Katigbak%coreGivesNoEmail%1,   Rohit%Maini%coreGivesNoEmail%1,   Ryan%Nelson%coreGivesNoEmail%1,   Sudesh%Srivastav%coreGivesNoEmail%1,   Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,      Elsie%Yan%null%1,      Sally%Jowett%null%1,   Thanos%Karatzias%null%1,   Elsie%Yan%null%1,   Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,     Alan%Cohen%NULL%1,     Josiane%Courteau%NULL%1,     Patrick%Bergeron%NULL%1,     Roxanne%Dault%NULL%1,     Pierre%Gosselin%NULL%1,     Claudia%Blais%NULL%1,     Diane%Bélanger%NULL%1,     Louis%Rochette%NULL%1,     Fateh%Chebana%NULL%1,     Jan%Semenza%NULL%2,     Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,      Tony T.%Koshy%null%1,      Joseph%Gilbert%null%1,      Lauren K.%Burdine%null%1,      Michael%Marmor%null%1,      Xiaoxia%Han%null%1,      Yongzhao%Shao%null%1,      Claude%Chemtob%null%1,      Teresa M.%Attina%null%1,      Elaine M.%Urbina%null%1,   Leonardo%Trasande%null%1,   Tony T.%Koshy%null%1,   Joseph%Gilbert%null%1,   Lauren K.%Burdine%null%1,   Michael%Marmor%null%1,   Xiaoxia%Han%null%1,   Yongzhao%Shao%null%1,   Claude%Chemtob%null%1,   Teresa M.%Attina%null%1,   Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,     Elena N.%Naumova%NULL%1,     Gitanjali%Singh%NULL%1,     Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,     Steven D.%Stellman%NULL%1,     Alfredo%Morabia%NULL%1,     Sara A.%Miller‐Archie%NULL%1,     Howard%Alper%NULL%1,     Zoey%Laskaris%NULL%1,     Robert M.%Brackbill%NULL%1,     James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,    Karen%A. Matthews%coreGivesNoEmail%1,    Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,      Chris%Houser%null%1,      Klaus%Meyer-Arendt%null%1,   Nathan%McKinney%null%1,   Chris%Houser%null%1,   Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,      Socrates V.%Kakoulides%null%1,      John%Moscona%null%1,      Jabar%Whittier%null%1,      Sudesh%Srivastav%null%1,      Patrice%Delafontaine%null%2,      Anand%Irimpen%null%1,   Zhen%Jiao%null%1,   Socrates V.%Kakoulides%null%1,   John%Moscona%null%1,   Jabar%Whittier%null%1,   Sudesh%Srivastav%null%1,   Patrice%Delafontaine%null%2,   Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,      Shinya%Yumoto%null%1,      Kazuhisa%Sakaguchi%null%1,      Chiharu%Shudo%null%1,      Shiro%Takino%null%1,      Motohiro%Hashiyama%null%1,      Yutaka%Kai%null%1,      Yutaka%Kuroda%null%1,      Hiroaki%Kawano%null%1,      Hisao%Ogawa%null%2,   Yasuhiro%Nagayoshi%null%1,   Shinya%Yumoto%null%1,   Kazuhisa%Sakaguchi%null%1,   Chiharu%Shudo%null%1,   Shiro%Takino%null%1,   Motohiro%Hashiyama%null%1,   Yutaka%Kai%null%1,   Yutaka%Kuroda%null%1,   Hiroaki%Kawano%null%1,   Hisao%Ogawa%null%2]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,      Sara A.%Miller-Archie%null%1,      James E.%Cone%null%1,      Alfredo%Morabia%null%1,      Steven D.%Stellman%null%1,   Hannah T.%Jordan%null%1,   Sara A.%Miller-Archie%null%1,   James E.%Cone%null%1,   Alfredo%Morabia%null%1,   Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,     Hayden%Smith%NULL%1,     Nitesh%Kuhadiya%NULL%1,     Sharice M.%Leger%NULL%1,     C. Lillian%Yau%NULL%1,     Kristi%Reynolds%NULL%1,     Lizheng%Shi%NULL%1,     Roberta H.%McDuffie%NULL%1,     Tina%Thethi%NULL%1,     Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,      Ana Isabel%Casanegra%null%1,      Alan%Shapiro%null%1,      Minh%Phan%null%1,      Beau%Hawkins%null%1,      Ji%Li%null%1,      Julie%Stoner%null%1,      Alfonso%Tafur%null%1,   Federico%Silva-Palacios%null%1,   Ana Isabel%Casanegra%null%1,   Alan%Shapiro%null%1,   Minh%Phan%null%1,   Beau%Hawkins%null%1,   Ji%Li%null%1,   Julie%Stoner%null%1,   Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,     La Ngoc%Quang%NULL%1,     Le Thi%Thanh Ha%NULL%1,     Tran Thi%Duc Hanh%NULL%1,     Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,    Bouter%L M%coreGivesNoEmail%1,    Bramsen%I%coreGivesNoEmail%1,    Huizink%A C%coreGivesNoEmail%1,    Slottje%P%coreGivesNoEmail%1,    Smid%T%coreGivesNoEmail%1,    Smidt%N%coreGivesNoEmail%1,    Twisk%J W R%coreGivesNoEmail%1,    van%der Ploeg H M%coreGivesNoEmail%1,    van%Mechelen W%coreGivesNoEmail%1,    Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,      Robert M%Brackbill%null%1,      James E%Cone%null%1,      Indira%Debchoudhury%null%1,      Mark R%Farfel%null%1,      Carolyn M%Greene%null%1,      James L%Hadler%null%1,      Joseph%Kennedy%null%1,      Jiehui%Li%null%1,      Jonathan%Liff%null%1,      Leslie%Stayner%null%1,      Steven D%Stellman%null%1,   Hannah T%Jordan%null%1,   Robert M%Brackbill%null%1,   James E%Cone%null%1,   Indira%Debchoudhury%null%1,   Mark R%Farfel%null%1,   Carolyn M%Greene%null%1,   James L%Hadler%null%1,   Joseph%Kennedy%null%1,   Jiehui%Li%null%1,   Jonathan%Liff%null%1,   Leslie%Stayner%null%1,   Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,      Morgan J.%Katz%null%1,      John C.%Moscona%null%1,      Mohi E.%Alkadri%null%1,      Rashad H.%Khazi Syed%null%1,      Thomas A.%Turnage%null%1,      Vikram S.%Nijjar%null%1,      Mohannad B.%Bisharat%null%1,      Patrice%Delafontaine%null%0,      Anand M.%Irimpen%null%1,   Matthew N.%Peters%null%1,   Morgan J.%Katz%null%1,   John C.%Moscona%null%1,   Mohi E.%Alkadri%null%1,   Rashad H.%Khazi Syed%null%1,   Thomas A.%Turnage%null%1,   Vikram S.%Nijjar%null%1,   Mohannad B.%Bisharat%null%1,   Patrice%Delafontaine%null%0,   Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,     Dena%Javadi%NULL%2,     Dena%Javadi%NULL%0,     Katrina%Hann%NULL%5,     Anthony D%Harries%NULL%2,     Anthony D%Harries%NULL%0,     Francis%Smart%NULL%2,     Francis%Smart%NULL%0,     Thomas%Samba%NULL%1,     Jeffery%Edwards%NULL%4,     Jeffery%Edwards%NULL%0,     Priyakanta%Nayak%NULL%2,     Priyakanta%Nayak%NULL%0,     Katrina%Hann%NULL%0,     Katrina%Hann%NULL%0,     Jeffery%Edwards%NULL%0,     Jeffery%Edwards%NULL%0,     Katrina%Hann%NULL%0,     Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,      Renée%El-Gabalawy%null%1,      Sarvesh%Logsetty%null%1,      Jitender%Sareen%null%1,   M. Natalie%Husarewycz%null%1,   Renée%El-Gabalawy%null%1,   Sarvesh%Logsetty%null%1,   Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,      Eric%Jougla%null%1,      Anne%Fouillet%null%1,      Gérard%Pavillon%null%1,      Pierre%Bessemoulin%null%1,      Philippe%Frayssinet%null%1,      Jacqueline%Clavel%null%1,      Denis%Hémon%null%1,   Grégoire%Rey%null%1,   Eric%Jougla%null%1,   Anne%Fouillet%null%1,   Gérard%Pavillon%null%1,   Pierre%Bessemoulin%null%1,   Philippe%Frayssinet%null%1,   Jacqueline%Clavel%null%1,   Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,    Alaa%Boulad%coreGivesNoEmail%1,    Anand%Irimpen%coreGivesNoEmail%1,    Bradley%Deere%coreGivesNoEmail%1,    Christopher%Westley%coreGivesNoEmail%1,    Hassan%Baydoun%coreGivesNoEmail%1,    Holly%Gonzales%coreGivesNoEmail%1,    Indrajeet%Mahata%coreGivesNoEmail%1,    John%C. Moscona%coreGivesNoEmail%1,    Kapil%Yadav%coreGivesNoEmail%1,    Matthew%N. Peters%coreGivesNoEmail%1,    Patrick%Ters%coreGivesNoEmail%1,    Paul%Katigbak%coreGivesNoEmail%1,    Rohit%Maini%coreGivesNoEmail%1,    Ryan%Nelson%coreGivesNoEmail%1,    Sudesh%Srivastav%coreGivesNoEmail%1,    Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,       Elsie%Yan%null%1,       Sally%Jowett%null%1,    Thanos%Karatzias%null%1,    Elsie%Yan%null%1,    Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,      Alan%Cohen%NULL%1,      Josiane%Courteau%NULL%1,      Patrick%Bergeron%NULL%1,      Roxanne%Dault%NULL%1,      Pierre%Gosselin%NULL%1,      Claudia%Blais%NULL%1,      Diane%Bélanger%NULL%1,      Louis%Rochette%NULL%1,      Fateh%Chebana%NULL%1,      Jan%Semenza%NULL%2,      Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,       Tony T.%Koshy%null%1,       Joseph%Gilbert%null%1,       Lauren K.%Burdine%null%1,       Michael%Marmor%null%1,       Xiaoxia%Han%null%1,       Yongzhao%Shao%null%1,       Claude%Chemtob%null%1,       Teresa M.%Attina%null%1,       Elaine M.%Urbina%null%1,    Leonardo%Trasande%null%1,    Tony T.%Koshy%null%1,    Joseph%Gilbert%null%1,    Lauren K.%Burdine%null%1,    Michael%Marmor%null%1,    Xiaoxia%Han%null%1,    Yongzhao%Shao%null%1,    Claude%Chemtob%null%1,    Teresa M.%Attina%null%1,    Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,      Elena N.%Naumova%NULL%1,      Gitanjali%Singh%NULL%1,      Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,      Steven D.%Stellman%NULL%1,      Alfredo%Morabia%NULL%1,      Sara A.%Miller‐Archie%NULL%1,      Howard%Alper%NULL%1,      Zoey%Laskaris%NULL%1,      Robert M.%Brackbill%NULL%1,      James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,     Karen%A. Matthews%coreGivesNoEmail%1,     Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,       Chris%Houser%null%1,       Klaus%Meyer-Arendt%null%1,    Nathan%McKinney%null%1,    Chris%Houser%null%1,    Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,       Socrates V.%Kakoulides%null%1,       John%Moscona%null%1,       Jabar%Whittier%null%1,       Sudesh%Srivastav%null%1,       Patrice%Delafontaine%null%2,       Anand%Irimpen%null%1,    Zhen%Jiao%null%1,    Socrates V.%Kakoulides%null%1,    John%Moscona%null%1,    Jabar%Whittier%null%1,    Sudesh%Srivastav%null%1,    Patrice%Delafontaine%null%2,    Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,       Shinya%Yumoto%null%1,       Kazuhisa%Sakaguchi%null%1,       Chiharu%Shudo%null%1,       Shiro%Takino%null%1,       Motohiro%Hashiyama%null%1,       Yutaka%Kai%null%1,       Yutaka%Kuroda%null%1,       Hiroaki%Kawano%null%1,       Hisao%Ogawa%null%2,    Yasuhiro%Nagayoshi%null%1,    Shinya%Yumoto%null%1,    Kazuhisa%Sakaguchi%null%1,    Chiharu%Shudo%null%1,    Shiro%Takino%null%1,    Motohiro%Hashiyama%null%1,    Yutaka%Kai%null%1,    Yutaka%Kuroda%null%1,    Hiroaki%Kawano%null%1,    Hisao%Ogawa%null%2]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,       Sara A.%Miller-Archie%null%1,       James E.%Cone%null%1,       Alfredo%Morabia%null%1,       Steven D.%Stellman%null%1,    Hannah T.%Jordan%null%1,    Sara A.%Miller-Archie%null%1,    James E.%Cone%null%1,    Alfredo%Morabia%null%1,    Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,      Hayden%Smith%NULL%1,      Nitesh%Kuhadiya%NULL%1,      Sharice M.%Leger%NULL%1,      C. Lillian%Yau%NULL%1,      Kristi%Reynolds%NULL%1,      Lizheng%Shi%NULL%1,      Roberta H.%McDuffie%NULL%1,      Tina%Thethi%NULL%1,      Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,       Ana Isabel%Casanegra%null%1,       Alan%Shapiro%null%1,       Minh%Phan%null%1,       Beau%Hawkins%null%1,       Ji%Li%null%1,       Julie%Stoner%null%1,       Alfonso%Tafur%null%1,    Federico%Silva-Palacios%null%1,    Ana Isabel%Casanegra%null%1,    Alan%Shapiro%null%1,    Minh%Phan%null%1,    Beau%Hawkins%null%1,    Ji%Li%null%1,    Julie%Stoner%null%1,    Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,      La Ngoc%Quang%NULL%1,      Le Thi%Thanh Ha%NULL%1,      Tran Thi%Duc Hanh%NULL%1,      Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,     Bouter%L M%coreGivesNoEmail%1,     Bramsen%I%coreGivesNoEmail%1,     Huizink%A C%coreGivesNoEmail%1,     Slottje%P%coreGivesNoEmail%1,     Smid%T%coreGivesNoEmail%1,     Smidt%N%coreGivesNoEmail%1,     Twisk%J W R%coreGivesNoEmail%1,     van%der Ploeg H M%coreGivesNoEmail%1,     van%Mechelen W%coreGivesNoEmail%1,     Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,       Robert M%Brackbill%null%1,       James E%Cone%null%1,       Indira%Debchoudhury%null%1,       Mark R%Farfel%null%1,       Carolyn M%Greene%null%1,       James L%Hadler%null%1,       Joseph%Kennedy%null%1,       Jiehui%Li%null%1,       Jonathan%Liff%null%1,       Leslie%Stayner%null%1,       Steven D%Stellman%null%1,    Hannah T%Jordan%null%1,    Robert M%Brackbill%null%1,    James E%Cone%null%1,    Indira%Debchoudhury%null%1,    Mark R%Farfel%null%1,    Carolyn M%Greene%null%1,    James L%Hadler%null%1,    Joseph%Kennedy%null%1,    Jiehui%Li%null%1,    Jonathan%Liff%null%1,    Leslie%Stayner%null%1,    Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,       Morgan J.%Katz%null%1,       John C.%Moscona%null%1,       Mohi E.%Alkadri%null%1,       Rashad H.%Khazi Syed%null%1,       Thomas A.%Turnage%null%1,       Vikram S.%Nijjar%null%1,       Mohannad B.%Bisharat%null%1,       Patrice%Delafontaine%null%0,       Anand M.%Irimpen%null%1,    Matthew N.%Peters%null%1,    Morgan J.%Katz%null%1,    John C.%Moscona%null%1,    Mohi E.%Alkadri%null%1,    Rashad H.%Khazi Syed%null%1,    Thomas A.%Turnage%null%1,    Vikram S.%Nijjar%null%1,    Mohannad B.%Bisharat%null%1,    Patrice%Delafontaine%null%0,    Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,      Dena%Javadi%NULL%2,      Dena%Javadi%NULL%0,      Katrina%Hann%NULL%5,      Anthony D%Harries%NULL%2,      Anthony D%Harries%NULL%0,      Francis%Smart%NULL%2,      Francis%Smart%NULL%0,      Thomas%Samba%NULL%1,      Jeffery%Edwards%NULL%4,      Jeffery%Edwards%NULL%0,      Priyakanta%Nayak%NULL%2,      Priyakanta%Nayak%NULL%0,      Katrina%Hann%NULL%0,      Katrina%Hann%NULL%0,      Jeffery%Edwards%NULL%0,      Jeffery%Edwards%NULL%0,      Katrina%Hann%NULL%0,      Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,       Renée%El-Gabalawy%null%1,       Sarvesh%Logsetty%null%1,       Jitender%Sareen%null%1,    M. Natalie%Husarewycz%null%1,    Renée%El-Gabalawy%null%1,    Sarvesh%Logsetty%null%1,    Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,       Eric%Jougla%null%1,       Anne%Fouillet%null%1,       Gérard%Pavillon%null%1,       Pierre%Bessemoulin%null%1,       Philippe%Frayssinet%null%1,       Jacqueline%Clavel%null%1,       Denis%Hémon%null%1,    Grégoire%Rey%null%1,    Eric%Jougla%null%1,    Anne%Fouillet%null%1,    Gérard%Pavillon%null%1,    Pierre%Bessemoulin%null%1,    Philippe%Frayssinet%null%1,    Jacqueline%Clavel%null%1,    Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,     Alaa%Boulad%coreGivesNoEmail%1,     Anand%Irimpen%coreGivesNoEmail%1,     Bradley%Deere%coreGivesNoEmail%1,     Christopher%Westley%coreGivesNoEmail%1,     Hassan%Baydoun%coreGivesNoEmail%1,     Holly%Gonzales%coreGivesNoEmail%1,     Indrajeet%Mahata%coreGivesNoEmail%1,     John%C. Moscona%coreGivesNoEmail%1,     Kapil%Yadav%coreGivesNoEmail%1,     Matthew%N. Peters%coreGivesNoEmail%1,     Patrick%Ters%coreGivesNoEmail%1,     Paul%Katigbak%coreGivesNoEmail%1,     Rohit%Maini%coreGivesNoEmail%1,     Ryan%Nelson%coreGivesNoEmail%1,     Sudesh%Srivastav%coreGivesNoEmail%1,     Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,        Elsie%Yan%null%1,        Sally%Jowett%null%1,     Thanos%Karatzias%null%1,     Elsie%Yan%null%1,     Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,       Alan%Cohen%NULL%1,       Josiane%Courteau%NULL%1,       Patrick%Bergeron%NULL%1,       Roxanne%Dault%NULL%1,       Pierre%Gosselin%NULL%1,       Claudia%Blais%NULL%1,       Diane%Bélanger%NULL%1,       Louis%Rochette%NULL%1,       Fateh%Chebana%NULL%1,       Jan%Semenza%NULL%2,       Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,        Tony T.%Koshy%null%1,        Joseph%Gilbert%null%1,        Lauren K.%Burdine%null%1,        Michael%Marmor%null%1,        Xiaoxia%Han%null%1,        Yongzhao%Shao%null%1,        Claude%Chemtob%null%1,        Teresa M.%Attina%null%1,        Elaine M.%Urbina%null%1,     Leonardo%Trasande%null%1,     Tony T.%Koshy%null%1,     Joseph%Gilbert%null%1,     Lauren K.%Burdine%null%1,     Michael%Marmor%null%1,     Xiaoxia%Han%null%1,     Yongzhao%Shao%null%1,     Claude%Chemtob%null%1,     Teresa M.%Attina%null%1,     Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,       Elena N.%Naumova%NULL%1,       Gitanjali%Singh%NULL%1,       Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,       Steven D.%Stellman%NULL%1,       Alfredo%Morabia%NULL%1,       Sara A.%Miller‐Archie%NULL%1,       Howard%Alper%NULL%1,       Zoey%Laskaris%NULL%1,       Robert M.%Brackbill%NULL%1,       James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,      Karen%A. Matthews%coreGivesNoEmail%1,      Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,        Chris%Houser%null%1,        Klaus%Meyer-Arendt%null%1,     Nathan%McKinney%null%1,     Chris%Houser%null%1,     Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,        Socrates V.%Kakoulides%null%1,        John%Moscona%null%1,        Jabar%Whittier%null%1,        Sudesh%Srivastav%null%1,        Patrice%Delafontaine%null%2,        Anand%Irimpen%null%1,     Zhen%Jiao%null%1,     Socrates V.%Kakoulides%null%1,     John%Moscona%null%1,     Jabar%Whittier%null%1,     Sudesh%Srivastav%null%1,     Patrice%Delafontaine%null%2,     Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,        Shinya%Yumoto%null%1,        Kazuhisa%Sakaguchi%null%1,        Chiharu%Shudo%null%1,        Shiro%Takino%null%1,        Motohiro%Hashiyama%null%1,        Yutaka%Kai%null%1,        Yutaka%Kuroda%null%1,        Hiroaki%Kawano%null%1,        Hisao%Ogawa%null%2,     Yasuhiro%Nagayoshi%null%1,     Shinya%Yumoto%null%1,     Kazuhisa%Sakaguchi%null%1,     Chiharu%Shudo%null%1,     Shiro%Takino%null%1,     Motohiro%Hashiyama%null%1,     Yutaka%Kai%null%1,     Yutaka%Kuroda%null%1,     Hiroaki%Kawano%null%1,     Hisao%Ogawa%null%2]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,        Sara A.%Miller-Archie%null%1,        James E.%Cone%null%1,        Alfredo%Morabia%null%1,        Steven D.%Stellman%null%1,     Hannah T.%Jordan%null%1,     Sara A.%Miller-Archie%null%1,     James E.%Cone%null%1,     Alfredo%Morabia%null%1,     Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,       Hayden%Smith%NULL%1,       Nitesh%Kuhadiya%NULL%1,       Sharice M.%Leger%NULL%1,       C. Lillian%Yau%NULL%1,       Kristi%Reynolds%NULL%1,       Lizheng%Shi%NULL%1,       Roberta H.%McDuffie%NULL%1,       Tina%Thethi%NULL%1,       Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,        Ana Isabel%Casanegra%null%1,        Alan%Shapiro%null%1,        Minh%Phan%null%1,        Beau%Hawkins%null%1,        Ji%Li%null%1,        Julie%Stoner%null%1,        Alfonso%Tafur%null%1,     Federico%Silva-Palacios%null%1,     Ana Isabel%Casanegra%null%1,     Alan%Shapiro%null%1,     Minh%Phan%null%1,     Beau%Hawkins%null%1,     Ji%Li%null%1,     Julie%Stoner%null%1,     Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,       La Ngoc%Quang%NULL%1,       Le Thi%Thanh Ha%NULL%1,       Tran Thi%Duc Hanh%NULL%1,       Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,      Bouter%L M%coreGivesNoEmail%1,      Bramsen%I%coreGivesNoEmail%1,      Huizink%A C%coreGivesNoEmail%1,      Slottje%P%coreGivesNoEmail%1,      Smid%T%coreGivesNoEmail%1,      Smidt%N%coreGivesNoEmail%1,      Twisk%J W R%coreGivesNoEmail%1,      van%der Ploeg H M%coreGivesNoEmail%1,      van%Mechelen W%coreGivesNoEmail%1,      Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,        Robert M%Brackbill%null%1,        James E%Cone%null%1,        Indira%Debchoudhury%null%1,        Mark R%Farfel%null%1,        Carolyn M%Greene%null%1,        James L%Hadler%null%1,        Joseph%Kennedy%null%1,        Jiehui%Li%null%1,        Jonathan%Liff%null%1,        Leslie%Stayner%null%1,        Steven D%Stellman%null%1,     Hannah T%Jordan%null%1,     Robert M%Brackbill%null%1,     James E%Cone%null%1,     Indira%Debchoudhury%null%1,     Mark R%Farfel%null%1,     Carolyn M%Greene%null%1,     James L%Hadler%null%1,     Joseph%Kennedy%null%1,     Jiehui%Li%null%1,     Jonathan%Liff%null%1,     Leslie%Stayner%null%1,     Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,        Morgan J.%Katz%null%1,        John C.%Moscona%null%1,        Mohi E.%Alkadri%null%1,        Rashad H.%Khazi Syed%null%1,        Thomas A.%Turnage%null%1,        Vikram S.%Nijjar%null%1,        Mohannad B.%Bisharat%null%1,        Patrice%Delafontaine%null%0,        Anand M.%Irimpen%null%1,     Matthew N.%Peters%null%1,     Morgan J.%Katz%null%1,     John C.%Moscona%null%1,     Mohi E.%Alkadri%null%1,     Rashad H.%Khazi Syed%null%1,     Thomas A.%Turnage%null%1,     Vikram S.%Nijjar%null%1,     Mohannad B.%Bisharat%null%1,     Patrice%Delafontaine%null%0,     Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,       Dena%Javadi%NULL%2,       Dena%Javadi%NULL%0,       Katrina%Hann%NULL%5,       Anthony D%Harries%NULL%2,       Anthony D%Harries%NULL%0,       Francis%Smart%NULL%2,       Francis%Smart%NULL%0,       Thomas%Samba%NULL%1,       Jeffery%Edwards%NULL%4,       Jeffery%Edwards%NULL%0,       Priyakanta%Nayak%NULL%2,       Priyakanta%Nayak%NULL%0,       Katrina%Hann%NULL%0,       Katrina%Hann%NULL%0,       Jeffery%Edwards%NULL%0,       Jeffery%Edwards%NULL%0,       Katrina%Hann%NULL%0,       Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,        Renée%El-Gabalawy%null%1,        Sarvesh%Logsetty%null%1,        Jitender%Sareen%null%1,     M. Natalie%Husarewycz%null%1,     Renée%El-Gabalawy%null%1,     Sarvesh%Logsetty%null%1,     Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,        Eric%Jougla%null%1,        Anne%Fouillet%null%1,        Gérard%Pavillon%null%1,        Pierre%Bessemoulin%null%1,        Philippe%Frayssinet%null%1,        Jacqueline%Clavel%null%1,        Denis%Hémon%null%1,     Grégoire%Rey%null%1,     Eric%Jougla%null%1,     Anne%Fouillet%null%1,     Gérard%Pavillon%null%1,     Pierre%Bessemoulin%null%1,     Philippe%Frayssinet%null%1,     Jacqueline%Clavel%null%1,     Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,      Alaa%Boulad%coreGivesNoEmail%1,      Anand%Irimpen%coreGivesNoEmail%1,      Bradley%Deere%coreGivesNoEmail%1,      Christopher%Westley%coreGivesNoEmail%1,      Hassan%Baydoun%coreGivesNoEmail%1,      Holly%Gonzales%coreGivesNoEmail%1,      Indrajeet%Mahata%coreGivesNoEmail%1,      John%C. Moscona%coreGivesNoEmail%1,      Kapil%Yadav%coreGivesNoEmail%1,      Matthew%N. Peters%coreGivesNoEmail%1,      Patrick%Ters%coreGivesNoEmail%1,      Paul%Katigbak%coreGivesNoEmail%1,      Rohit%Maini%coreGivesNoEmail%1,      Ryan%Nelson%coreGivesNoEmail%1,      Sudesh%Srivastav%coreGivesNoEmail%1,      Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1297,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -1175,7 +1355,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -1204,7 +1384,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -1233,7 +1413,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -1262,7 +1442,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -1320,13 +1500,13 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="H9" t="s">
         <v>55</v>
@@ -1349,7 +1529,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1407,7 +1587,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1465,7 +1645,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1494,7 +1674,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -1552,7 +1732,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -1581,7 +1761,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -1610,7 +1790,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -1639,13 +1819,13 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="H20" t="s">
         <v>55</v>
@@ -1668,7 +1848,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -1726,7 +1906,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -1755,7 +1935,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -1900,7 +2080,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -1958,7 +2138,7 @@
         <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -1987,13 +2167,13 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="H32" t="s">
         <v>55</v>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="354">
   <si>
     <t>Doi</t>
   </si>
@@ -960,6 +960,350 @@
   </si>
   <si>
     <t>[Ahmad%Jabbar%coreGivesNoEmail%1,      Alaa%Boulad%coreGivesNoEmail%1,      Anand%Irimpen%coreGivesNoEmail%1,      Bradley%Deere%coreGivesNoEmail%1,      Christopher%Westley%coreGivesNoEmail%1,      Hassan%Baydoun%coreGivesNoEmail%1,      Holly%Gonzales%coreGivesNoEmail%1,      Indrajeet%Mahata%coreGivesNoEmail%1,      John%C. Moscona%coreGivesNoEmail%1,      Kapil%Yadav%coreGivesNoEmail%1,      Matthew%N. Peters%coreGivesNoEmail%1,      Patrick%Ters%coreGivesNoEmail%1,      Paul%Katigbak%coreGivesNoEmail%1,      Rohit%Maini%coreGivesNoEmail%1,      Ryan%Nelson%coreGivesNoEmail%1,      Sudesh%Srivastav%coreGivesNoEmail%1,      Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,         Elsie%Yan%null%1,         Sally%Jowett%null%1,      Thanos%Karatzias%null%1,      Elsie%Yan%null%1,      Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>"After the Storm: Short-term and Long-term Health Effects Following Superstorm Sandy among the Elderly"</t>
+  </si>
+  <si>
+    <t>"ABSTRACTObjectiveInvestigate short- and long-term effects of Superstorm Sandy on multiple morbidities among the elderly.
+MethodsWe examined emergency department visits; outpatient visits; and hospital admissions for cardiovascular disease (CVD), respiratory disease, and injury among residents residing in 8 affected counties immediately, 4 months, and 12 months following Superstorm Sandy.
+ Control groups were defined as visits\/admissions during the identical time window in the 5 years before (2007-2011) and 1 year after (2013-2014) the storm in affected and nonaffected counties in New York.
+ We performed Poisson regression to test whether there was an association of increased visits\/admissions for periods following Superstorm Sandy while controlling for covariates.
+ResultsWe found that the risk for CVD, respiratory disease, and injury visits\/admissions was more than twice as high immediately, 4 months, and 12 months after the storm than it was in the control periods.
+ Women were at greater risk at all time periods for CVD (risk ratio [RR], 2.04) and respiratory disease (RRs: 1.89 to 1.92).
+ Whites had higher risk for CVD, respiratory disease, and injury than other racial groups during each period.
+ConclusionWe observed increases in CVD, respiratory disease, and injury up to a year following Superstorm Sandy.
+ Findings demonstrate the need to incorporate short- and long-term health effects into public health recovery.
+ (Disaster Med Public Health Preparedness.
+ 2019;13:28-32)</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1, Ziqiang%Lin%xref no email%1, Emily A.%Lipton%xref no email%1, Guthrie%Birkhead%xref no email%1, Michael%Primeau%xref no email%1, Guang-Hui%Dong%xref no email%1, Shao%Lin%xref no email%2]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,        Alan%Cohen%NULL%1,        Josiane%Courteau%NULL%1,        Patrick%Bergeron%NULL%1,        Roxanne%Dault%NULL%1,        Pierre%Gosselin%NULL%1,        Claudia%Blais%NULL%1,        Diane%Bélanger%NULL%1,        Louis%Rochette%NULL%1,        Fateh%Chebana%NULL%1,        Jan%Semenza%NULL%2,        Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,         Tony T.%Koshy%null%1,         Joseph%Gilbert%null%1,         Lauren K.%Burdine%null%1,         Michael%Marmor%null%1,         Xiaoxia%Han%null%1,         Yongzhao%Shao%null%1,         Claude%Chemtob%null%1,         Teresa M.%Attina%null%1,         Elaine M.%Urbina%null%1,      Leonardo%Trasande%null%1,      Tony T.%Koshy%null%1,      Joseph%Gilbert%null%1,      Lauren K.%Burdine%null%1,      Michael%Marmor%null%1,      Xiaoxia%Han%null%1,      Yongzhao%Shao%null%1,      Claude%Chemtob%null%1,      Teresa M.%Attina%null%1,      Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,        Elena N.%Naumova%NULL%1,        Gitanjali%Singh%NULL%1,        Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,        Steven D.%Stellman%NULL%1,        Alfredo%Morabia%NULL%1,        Sara A.%Miller‐Archie%NULL%1,        Howard%Alper%NULL%1,        Zoey%Laskaris%NULL%1,        Robert M.%Brackbill%NULL%1,        James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Cardiovascular Events after the Sewol Ferry Disaster, South Korea"</t>
+  </si>
+  <si>
+    <t>"Background:Major incidents affecting large numbers of people may increase the rate of acute cardiovascular events, even among those who are not directly involved in the incident.
+ It is hypothesized that the MV Sewol ferry disaster (South Korea) would increase the incidence of cardiovascular events nation-wide.
+Methods:Data on all adult patients (&amp;amp;gt;18 years) who were diagnosed with acute cardiovascular events, including acute myocardial infarction (MI), angina, and cardiac arrhythmias, were extracted from the National Emergency Department Information System (NEDIS) from March 15 through June 17, during the years 2011-2014 (four weeks before to eight weeks after the event date).
+ Poisson regression models were used to calculate the incidence rate ratios (IRRs) comparing the weekly changes in the occurrences of cardiovascular events from the week of the Sewol event (April 16-22, 2014) to eight weeks after the disaster (June 11-17, 2014), using the one-month period before Sewol as a reference period (March 15-April 15), adjusting for calendar years (years 2011-2014) and environmental factors.
+Results:During the study periods, cardiovascular events were identified in 73,823 patients.
+ Compared to the reference period, the week of the Sewol disaster and the three weeks after the disaster showed a significant increase in the number of acute cardiovascular events, IRRs of 1.09 (95% CI, 1.03-1.15) and 1.08 (95% CI, 1.02-1.15), respectively (P &amp;amp;lt;.
+01 for both).
+ In particular, there was 21% increase in incidence of arrhythmia (IRR = 1.21; 95% CI, 1.02-1.44; P = .
+03) during the week of the Sewol disaster compared with the reference period.
+Conclusion:This study showed a significant increase in the incidence of acute cardiovascular events during the week of, and the three weeks after, the Sewol ferry disaster in 2014. These additional cardiac emergencies may be triggered by emotional stressors related to the event, highlighting the public health importance of indirect exposure to a tragic catastrophe.
+Kong SY, Song KJ, Shin SD, Ro YS.
+ Cardiovascular events after the Sewol ferry disaster, South Korea.
+ Prehosp Disaster Med.
+ 2019;34(2):142\u2013148</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1, Kyoung Jun%Song%xref no email%1, Sang Do%Shin%xref no email%1, Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-04-02</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,       Karen%A. Matthews%coreGivesNoEmail%1,       Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,         Chris%Houser%null%1,         Klaus%Meyer-Arendt%null%1,      Nathan%McKinney%null%1,      Chris%Houser%null%1,      Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>"Disaster-Related Posttraumatic Stress Disorder and Physical Health"</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1, Peter G.%van der Velden%xref no email%1, Linda%Grievink%xref no email%1, C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,         Socrates V.%Kakoulides%null%1,         John%Moscona%null%1,         Jabar%Whittier%null%1,         Sudesh%Srivastav%null%1,         Patrice%Delafontaine%null%2,         Anand%Irimpen%null%1,      Zhen%Jiao%null%1,      Socrates V.%Kakoulides%null%1,      John%Moscona%null%1,      Jabar%Whittier%null%1,      Sudesh%Srivastav%null%1,      Patrice%Delafontaine%null%2,      Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>"Effect of Hurricane Katrina on the Incidence of Acute Coronary Syndrome at a Primary Angioplasty Center in New Orleans"</t>
+  </si>
+  <si>
+    <t>"ABSTRACTBackground: In August 2005, New Orleans was hit by Hurricane Katrina, the costliest natural disaster in US history.
+ Previous studies have shown an increase in acute myocardial infarction (AMI) in the immediate hours to weeks after natural disasters.
+ The goals of our study were to detect any long-term increase in the incidence of AMI after Katrina and to investigate any pertinent contributing factors.
+Methods: This was a single-center retrospective cohort observational study.
+ Patients admitted with AMI to Tulane Health Sciences Center hospital in the 2 years before Katrina and in the 2 years after the hospital reopened (5 months after Katrina) were identified from hospital records.
+ The 2 groups (pre- and post-Katrina) were compared for prespecified demographic and clinical data.
+Results: In the post-Katrina group, there were 246 admissions for AMI, out of a total census of 11,282 patients (2.18%), as compared with 150 AMI admissions out of a total of 21,229 patients (0.71%) in the pre-Katrina group (P &amp;lt; 0.0001).
+ The post-Katrina group had a significantly higher prevalence of unemployment (P = 0.0003), lack of medical insurance (P &amp;lt; 0.0001), medication noncompliance (P = 0.0001), smoking (P = 0.001), substance abuse (P = 0.03), first-time hospitalization (P &amp;lt; 0.001), local residents rather than visitors affected (P &amp;lt; 0.0001), and people living in temporary housing (P = 0.003).
+Discussion: The role of chronic stress in the pathogenesis of AMI is poorly understood, especially in the aftermath of natural disasters.
+ Our data suggest that Katrina was associated with prolonged loss of employment and insurance, decreased access to preventive health services, and an increased incidence of AMI.
+ In addition, it appears that chronic stress after a natural disaster can be associated with tobacco abuse and medication and therapeutic noncompliance.
+Conclusions: We found a 3-fold increased incidence of AMI more than 2 years after Hurricane Katrina.
+ Even allowing for the loss of some local hospitals after the disaster, this represents a significant change in overall health of the study population and supports the need for further study into the health effects of chronic stress.
+ (Disaster Med Public Health Preparedness.
+ 2009;3:144\u2013150)</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1, Jonathan%Menachem%xref no email%1, Sudesh K.%Srivastav%xref no email%1, Patrice%Delafontaine%xref no email%1, Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-17</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,         Shinya%Yumoto%null%1,         Kazuhisa%Sakaguchi%null%1,         Chiharu%Shudo%null%1,         Shiro%Takino%null%1,         Motohiro%Hashiyama%null%1,         Yutaka%Kai%null%1,         Yutaka%Kuroda%null%1,         Hiroaki%Kawano%null%1,         Hisao%Ogawa%null%2,      Yasuhiro%Nagayoshi%null%1,      Shinya%Yumoto%null%1,      Kazuhisa%Sakaguchi%null%1,      Chiharu%Shudo%null%1,      Shiro%Takino%null%1,      Motohiro%Hashiyama%null%1,      Yutaka%Kai%null%1,      Yutaka%Kuroda%null%1,      Hiroaki%Kawano%null%1,      Hisao%Ogawa%null%2]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,         Sara A.%Miller-Archie%null%1,         James E.%Cone%null%1,         Alfredo%Morabia%null%1,         Steven D.%Stellman%null%1,      Hannah T.%Jordan%null%1,      Sara A.%Miller-Archie%null%1,      James E.%Cone%null%1,      Alfredo%Morabia%null%1,      Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>"Hurricane Sandy (New Jersey): Mortality Rates in the Following Month and Quarter"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Objectives.
+ To describe changes in mortality after Hurricane Sandy made landfall in New Jersey on October 29, 2012.  Methods.
+ We used electronic death records to describe changes in all-cause and cause-specific mortality overall, in persons aged 76 years or older, and by 3 Sandy impact levels for the month and quarter following Hurricane Sandy compared with the same periods in earlier years adjusted for trends.
+  Results.
+ All-cause mortality increased 6% (95% confidence interval [CI]\u2009=\u20092%, 11%) for the month, 5%, 8%, and 12% by increasing Sandy impact level; and 7% (95% CI\u2009=\u20095%, 10%) for the quarter, 5%, 8%, and 15% by increasing Sandy impact level.
+ In elderly persons, all-cause mortality rates increased 10% (95% CI\u2009=\u20095%, 15%) and 13% (95% CI\u2009=\u200910%, 16%) in the month and quarter, respectively.
+ Deaths that were cardiovascular disease\u2013related increased by 6% in both periods, noninfectious respiratory disease\u2013related by 24% in the quarter, infection-related by 20% in the quarter, and unintentional injury\u2013related by 23% in the month.
+  Conclusions.
+ Mortality increased, heterogeneous by cause, for both periods after Hurricane Sandy, particularly in communities more severely affected and in the elderly, who may benefit from supportive services.
+ </t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1, Prathit A.%Kulkarni%xref no email%1, Mangala%Rajan%xref no email%1, Pauline%Thomas%xref no email%1, Stella%Tsai%xref no email%1, Christina%Tan%xref no email%1, Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,        Hayden%Smith%NULL%1,        Nitesh%Kuhadiya%NULL%1,        Sharice M.%Leger%NULL%1,        C. Lillian%Yau%NULL%1,        Kristi%Reynolds%NULL%1,        Lizheng%Shi%NULL%1,        Roberta H.%McDuffie%NULL%1,        Tina%Thethi%NULL%1,        Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,         Ana Isabel%Casanegra%null%1,         Alan%Shapiro%null%1,         Minh%Phan%null%1,         Beau%Hawkins%null%1,         Ji%Li%null%1,         Julie%Stoner%null%1,         Alfonso%Tafur%null%1,      Federico%Silva-Palacios%null%1,      Ana Isabel%Casanegra%null%1,      Alan%Shapiro%null%1,      Minh%Phan%null%1,      Beau%Hawkins%null%1,      Ji%Li%null%1,      Julie%Stoner%null%1,      Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,        La Ngoc%Quang%NULL%1,        Le Thi%Thanh Ha%NULL%1,        Tran Thi%Duc Hanh%NULL%1,        Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,       Bouter%L M%coreGivesNoEmail%1,       Bramsen%I%coreGivesNoEmail%1,       Huizink%A C%coreGivesNoEmail%1,       Slottje%P%coreGivesNoEmail%1,       Smid%T%coreGivesNoEmail%1,       Smidt%N%coreGivesNoEmail%1,       Twisk%J W R%coreGivesNoEmail%1,       van%der Ploeg H M%coreGivesNoEmail%1,       van%Mechelen W%coreGivesNoEmail%1,       Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,         Robert M%Brackbill%null%1,         James E%Cone%null%1,         Indira%Debchoudhury%null%1,         Mark R%Farfel%null%1,         Carolyn M%Greene%null%1,         James L%Hadler%null%1,         Joseph%Kennedy%null%1,         Jiehui%Li%null%1,         Jonathan%Liff%null%1,         Leslie%Stayner%null%1,         Steven D%Stellman%null%1,      Hannah T%Jordan%null%1,      Robert M%Brackbill%null%1,      James E%Cone%null%1,      Indira%Debchoudhury%null%1,      Mark R%Farfel%null%1,      Carolyn M%Greene%null%1,      James L%Hadler%null%1,      Joseph%Kennedy%null%1,      Jiehui%Li%null%1,      Jonathan%Liff%null%1,      Leslie%Stayner%null%1,      Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>"Mortality of Kauai Residents in the 12-Month Period following Hurricane Iniki"</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1, R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,         Morgan J.%Katz%null%1,         John C.%Moscona%null%1,         Mohi E.%Alkadri%null%1,         Rashad H.%Khazi Syed%null%1,         Thomas A.%Turnage%null%1,         Vikram S.%Nijjar%null%1,         Mohannad B.%Bisharat%null%1,         Patrice%Delafontaine%null%0,         Anand M.%Irimpen%null%1,      Matthew N.%Peters%null%1,      Morgan J.%Katz%null%1,      John C.%Moscona%null%1,      Mohi E.%Alkadri%null%1,      Rashad H.%Khazi Syed%null%1,      Thomas A.%Turnage%null%1,      Vikram S.%Nijjar%null%1,      Mohannad B.%Bisharat%null%1,      Patrice%Delafontaine%null%0,      Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,        Dena%Javadi%NULL%2,        Dena%Javadi%NULL%0,        Katrina%Hann%NULL%5,        Anthony D%Harries%NULL%2,        Anthony D%Harries%NULL%0,        Francis%Smart%NULL%2,        Francis%Smart%NULL%0,        Thomas%Samba%NULL%1,        Jeffery%Edwards%NULL%4,        Jeffery%Edwards%NULL%0,        Priyakanta%Nayak%NULL%2,        Priyakanta%Nayak%NULL%0,        Katrina%Hann%NULL%0,        Katrina%Hann%NULL%0,        Jeffery%Edwards%NULL%0,        Jeffery%Edwards%NULL%0,        Katrina%Hann%NULL%0,        Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Psychological Strains, Salivary Biomarkers, and Risks for Coronary Heart Disease Among Hurricane Survivors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Objective: To examine the associations of psychological strains, salivary biomarkers, and coronary heart disease (CHD) risks in hurricane survivors 2 years after Hurricane Ike in the United States.
+ Background: Hurricane survivors often suffer from long-lasting posttraumatic stress disorder (PTSD) and other forms of psychological strain related to surviving a natural disaster and dealing with its aftermath.
+ Psychological strains may be associated with biomarkers, which, in turn, may be associated with a higher incidence of CHD risks.
+ Methods: Structured interviews were conducted with 19 hurricane survivors to assess psychological strains (PTSD, perceived stress, depression, and anxiety) and measure CHD risks.
+ Saliva samples were collected by the passive drool method and analyzed for inflammatory cytokine (interleukin [IL]-1\u03b2, IL-6, and IL-10) and chemokine (monocyte chemotactic protein [MCP]-1) biomarkers.
+ Results: The salivary level of MCP-1 was significantly associated with PTSD symptoms, depression (both p &amp;lt; .
+01), and anxiety ( p &amp;lt; .
+05).
+ There were significant associations between anxiety and hypertension ( p &amp;lt; .
+01), perceived stress and blood glucose level ( p &amp;lt; .
+05), and perceived stress and obesity ( p &amp;lt; .
+05).
+ Conclusion: Our findings that long-lasting psychological strains are associated with major CHD risks and salivary MCP-1 levels suggest that the mechanism by which such strains play a role in the development of CHD involves recruitment of monocyte cells in response to chronic endothelial inflammation.
+ Further studies are needed to advance our understanding of the underlying mechanisms by which the PTSD and other psychological strains contribute to the development of CHD.
+ </t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1, Jeanne%Salyer%xref no email%1, Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-06</t>
+  </si>
+  <si>
+    <t>"Respiratory and Cardiovascular Hospitalizations After the World Trade Center Disaster"</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%0, Marta I.%Gomez%xref no email%1, Lenore%Gensburg%xref no email%1, Wei%Liu%xref no email%0, Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-12-06</t>
+  </si>
+  <si>
+    <t>"Risk of Stroke Among Survivors of the September 11, 2001, World Trade Center Disaster"</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1, Howard E.%Alper%xref no email%1, Angela-Maithy%Nguyen%xref no email%1, Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>"Sustained blood pressure increase after an acute stressor: the effects of the 11 September 2001 attack on the New York City World Trade Center"</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1, William%Chaplin%xref no email%1, Joseph E%Schwartz%xref no email%1, John%Holland%xref no email%1, Robert%Alter%xref no email%1, Ronald%Wheeler%xref no email%1, Diep%Duong%xref no email%1, Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,         Renée%El-Gabalawy%null%1,         Sarvesh%Logsetty%null%1,         Jitender%Sareen%null%1,      M. Natalie%Husarewycz%null%1,      Renée%El-Gabalawy%null%1,      Sarvesh%Logsetty%null%1,      Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,         Eric%Jougla%null%1,         Anne%Fouillet%null%1,         Gérard%Pavillon%null%1,         Pierre%Bessemoulin%null%1,         Philippe%Frayssinet%null%1,         Jacqueline%Clavel%null%1,         Denis%Hémon%null%1,      Grégoire%Rey%null%1,      Eric%Jougla%null%1,      Anne%Fouillet%null%1,      Gérard%Pavillon%null%1,      Pierre%Bessemoulin%null%1,      Philippe%Frayssinet%null%1,      Jacqueline%Clavel%null%1,      Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,       Alaa%Boulad%coreGivesNoEmail%1,       Anand%Irimpen%coreGivesNoEmail%1,       Bradley%Deere%coreGivesNoEmail%1,       Christopher%Westley%coreGivesNoEmail%1,       Hassan%Baydoun%coreGivesNoEmail%1,       Holly%Gonzales%coreGivesNoEmail%1,       Indrajeet%Mahata%coreGivesNoEmail%1,       John%C. Moscona%coreGivesNoEmail%1,       Kapil%Yadav%coreGivesNoEmail%1,       Matthew%N. Peters%coreGivesNoEmail%1,       Patrick%Ters%coreGivesNoEmail%1,       Paul%Katigbak%coreGivesNoEmail%1,       Rohit%Maini%coreGivesNoEmail%1,       Ryan%Nelson%coreGivesNoEmail%1,       Sudesh%Srivastav%coreGivesNoEmail%1,       Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>"Time to Recovery in Diabetes and Comorbidities Following Hurricane Katrina"</t>
+  </si>
+  <si>
+    <t>"ABSTRACTBackground:The impact of a natural disaster on self-care and health care delivery has been well documented.
+ The objective of the study was to document the recovery pattern from the impact of a natural disaster such as Hurricane Katrina on clinical and biochemical measures of diabetes and its comorbidities.
+Methods:Patients were selected from Tulane University Hospital and Clinic, Southeast Louisiana Veterans Health Care System, and the Medical Center of Louisiana at New Orleans.
+ Adults with diabetes and A1cmeasurement 6 months before (pre-K) Hurricane Katrina (February 28, 2005\u2013August 27, 2005) and 6 to 16 months after (post-K) Katrina (March 1, 2006\u2013December 31, 2006) were identified within the 3 facilities.
+ Follow-up data (January 1, 2007\u2013December 31, 2007) were 1 year after the first post-K visit.
+ The outcome measures were hemoglobin A1c(HbA1c), systolic and diastolic blood pressure (BP), and lipids (low-density lipoprotein cholesterol, high-density lipoprotein cholesterol [HDL], triglycerides).
+Results:Averaged across the 3 facilities, the parameters significantly different in the follow-up period compared with pre- and post-K were HbA1c(P= .
+04), HDL, and systolic and diastolic BP (P&amp;lt; .
+0001).
+ Parameters with significantly different patterns of change in the 3 facilities over time were HbA1c, HDL, systolic and diastolic BP (P&amp;lt; .
+0001), and low-density lipoprotein (P&amp;lt; .
+01).
+Conclusions:Our results suggest that a variety of clinical and biochemical parameters related to diabetes and its comorbidities affected by natural disaster have varied the rate of recovery to predisaster levels.
+(Disaster Med Public Health Preparedness.
+ 2010;4:S33-S38)</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1, C. Lillian%Yau%xref no email%1, Lizheng%Shi%xref no email%1, Sharice%Leger%xref no email%1, Prathima%Nagireddy%xref no email%1, Jay%Waddadar%xref no email%1, Prasanth%Surampudi%xref no email%1, Jennifer%John-Kalarickal%xref no email%1, Lydia%Yenoby%xref no email%1, Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,          Elsie%Yan%null%1,          Sally%Jowett%null%1,       Thanos%Karatzias%null%1,       Elsie%Yan%null%1,       Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,  Ziqiang%Lin%xref no email%1,  Emily A.%Lipton%xref no email%1,  Guthrie%Birkhead%xref no email%1,  Michael%Primeau%xref no email%1,  Guang-Hui%Dong%xref no email%1,  Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,         Alan%Cohen%NULL%1,         Josiane%Courteau%NULL%1,         Patrick%Bergeron%NULL%1,         Roxanne%Dault%NULL%1,         Pierre%Gosselin%NULL%1,         Claudia%Blais%NULL%1,         Diane%Bélanger%NULL%1,         Louis%Rochette%NULL%1,         Fateh%Chebana%NULL%1,         Jan%Semenza%NULL%2,         Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,          Tony T.%Koshy%null%1,          Joseph%Gilbert%null%1,          Lauren K.%Burdine%null%1,          Michael%Marmor%null%1,          Xiaoxia%Han%null%1,          Yongzhao%Shao%null%1,          Claude%Chemtob%null%1,          Teresa M.%Attina%null%1,          Elaine M.%Urbina%null%1,       Leonardo%Trasande%null%1,       Tony T.%Koshy%null%1,       Joseph%Gilbert%null%1,       Lauren K.%Burdine%null%1,       Michael%Marmor%null%1,       Xiaoxia%Han%null%1,       Yongzhao%Shao%null%1,       Claude%Chemtob%null%1,       Teresa M.%Attina%null%1,       Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,         Elena N.%Naumova%NULL%1,         Gitanjali%Singh%NULL%1,         Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,         Steven D.%Stellman%NULL%1,         Alfredo%Morabia%NULL%1,         Sara A.%Miller‐Archie%NULL%1,         Howard%Alper%NULL%1,         Zoey%Laskaris%NULL%1,         Robert M.%Brackbill%NULL%1,         James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,  Kyoung Jun%Song%xref no email%1,  Sang Do%Shin%xref no email%1,  Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,        Karen%A. Matthews%coreGivesNoEmail%1,        Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,          Chris%Houser%null%1,          Klaus%Meyer-Arendt%null%1,       Nathan%McKinney%null%1,       Chris%Houser%null%1,       Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,  Peter G.%van der Velden%xref no email%1,  Linda%Grievink%xref no email%1,  C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,          Socrates V.%Kakoulides%null%1,          John%Moscona%null%1,          Jabar%Whittier%null%1,          Sudesh%Srivastav%null%1,          Patrice%Delafontaine%null%2,          Anand%Irimpen%null%1,       Zhen%Jiao%null%1,       Socrates V.%Kakoulides%null%1,       John%Moscona%null%1,       Jabar%Whittier%null%1,       Sudesh%Srivastav%null%1,       Patrice%Delafontaine%null%2,       Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,  Jonathan%Menachem%xref no email%1,  Sudesh K.%Srivastav%xref no email%1,  Patrice%Delafontaine%xref no email%1,  Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,          Shinya%Yumoto%null%1,          Kazuhisa%Sakaguchi%null%1,          Chiharu%Shudo%null%1,          Shiro%Takino%null%1,          Motohiro%Hashiyama%null%1,          Yutaka%Kai%null%1,          Yutaka%Kuroda%null%1,          Hiroaki%Kawano%null%1,          Hisao%Ogawa%null%2,       Yasuhiro%Nagayoshi%null%1,       Shinya%Yumoto%null%1,       Kazuhisa%Sakaguchi%null%1,       Chiharu%Shudo%null%1,       Shiro%Takino%null%1,       Motohiro%Hashiyama%null%1,       Yutaka%Kai%null%1,       Yutaka%Kuroda%null%1,       Hiroaki%Kawano%null%1,       Hisao%Ogawa%null%2]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,          Sara A.%Miller-Archie%null%1,          James E.%Cone%null%1,          Alfredo%Morabia%null%1,          Steven D.%Stellman%null%1,       Hannah T.%Jordan%null%1,       Sara A.%Miller-Archie%null%1,       James E.%Cone%null%1,       Alfredo%Morabia%null%1,       Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,  Prathit A.%Kulkarni%xref no email%1,  Mangala%Rajan%xref no email%1,  Pauline%Thomas%xref no email%1,  Stella%Tsai%xref no email%1,  Christina%Tan%xref no email%1,  Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,         Hayden%Smith%NULL%1,         Nitesh%Kuhadiya%NULL%1,         Sharice M.%Leger%NULL%1,         C. Lillian%Yau%NULL%1,         Kristi%Reynolds%NULL%1,         Lizheng%Shi%NULL%1,         Roberta H.%McDuffie%NULL%1,         Tina%Thethi%NULL%1,         Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,          Ana Isabel%Casanegra%null%1,          Alan%Shapiro%null%1,          Minh%Phan%null%1,          Beau%Hawkins%null%1,          Ji%Li%null%1,          Julie%Stoner%null%1,          Alfonso%Tafur%null%1,       Federico%Silva-Palacios%null%1,       Ana Isabel%Casanegra%null%1,       Alan%Shapiro%null%1,       Minh%Phan%null%1,       Beau%Hawkins%null%1,       Ji%Li%null%1,       Julie%Stoner%null%1,       Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,         La Ngoc%Quang%NULL%1,         Le Thi%Thanh Ha%NULL%1,         Tran Thi%Duc Hanh%NULL%1,         Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,        Bouter%L M%coreGivesNoEmail%1,        Bramsen%I%coreGivesNoEmail%1,        Huizink%A C%coreGivesNoEmail%1,        Slottje%P%coreGivesNoEmail%1,        Smid%T%coreGivesNoEmail%1,        Smidt%N%coreGivesNoEmail%1,        Twisk%J W R%coreGivesNoEmail%1,        van%der Ploeg H M%coreGivesNoEmail%1,        van%Mechelen W%coreGivesNoEmail%1,        Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,          Robert M%Brackbill%null%1,          James E%Cone%null%1,          Indira%Debchoudhury%null%1,          Mark R%Farfel%null%1,          Carolyn M%Greene%null%1,          James L%Hadler%null%1,          Joseph%Kennedy%null%1,          Jiehui%Li%null%1,          Jonathan%Liff%null%1,          Leslie%Stayner%null%1,          Steven D%Stellman%null%1,       Hannah T%Jordan%null%1,       Robert M%Brackbill%null%1,       James E%Cone%null%1,       Indira%Debchoudhury%null%1,       Mark R%Farfel%null%1,       Carolyn M%Greene%null%1,       James L%Hadler%null%1,       Joseph%Kennedy%null%1,       Jiehui%Li%null%1,       Jonathan%Liff%null%1,       Leslie%Stayner%null%1,       Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,  R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,          Morgan J.%Katz%null%1,          John C.%Moscona%null%1,          Mohi E.%Alkadri%null%1,          Rashad H.%Khazi Syed%null%1,          Thomas A.%Turnage%null%1,          Vikram S.%Nijjar%null%1,          Mohannad B.%Bisharat%null%1,          Patrice%Delafontaine%null%0,          Anand M.%Irimpen%null%1,       Matthew N.%Peters%null%1,       Morgan J.%Katz%null%1,       John C.%Moscona%null%1,       Mohi E.%Alkadri%null%1,       Rashad H.%Khazi Syed%null%1,       Thomas A.%Turnage%null%1,       Vikram S.%Nijjar%null%1,       Mohannad B.%Bisharat%null%1,       Patrice%Delafontaine%null%0,       Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,         Dena%Javadi%NULL%2,         Dena%Javadi%NULL%0,         Katrina%Hann%NULL%5,         Anthony D%Harries%NULL%2,         Anthony D%Harries%NULL%0,         Francis%Smart%NULL%2,         Francis%Smart%NULL%0,         Thomas%Samba%NULL%1,         Jeffery%Edwards%NULL%4,         Jeffery%Edwards%NULL%0,         Priyakanta%Nayak%NULL%2,         Priyakanta%Nayak%NULL%0,         Katrina%Hann%NULL%0,         Katrina%Hann%NULL%0,         Jeffery%Edwards%NULL%0,         Jeffery%Edwards%NULL%0,         Katrina%Hann%NULL%0,         Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,  Jeanne%Salyer%xref no email%1,  Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,  Marta I.%Gomez%xref no email%1,  Lenore%Gensburg%xref no email%1,  Wei%Liu%xref no email%1,  Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,  Howard E.%Alper%xref no email%1,  Angela-Maithy%Nguyen%xref no email%1,  Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,  William%Chaplin%xref no email%1,  Joseph E%Schwartz%xref no email%1,  John%Holland%xref no email%1,  Robert%Alter%xref no email%1,  Ronald%Wheeler%xref no email%1,  Diep%Duong%xref no email%1,  Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,          Renée%El-Gabalawy%null%1,          Sarvesh%Logsetty%null%1,          Jitender%Sareen%null%1,       M. Natalie%Husarewycz%null%1,       Renée%El-Gabalawy%null%1,       Sarvesh%Logsetty%null%1,       Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,          Eric%Jougla%null%1,          Anne%Fouillet%null%1,          Gérard%Pavillon%null%1,          Pierre%Bessemoulin%null%1,          Philippe%Frayssinet%null%1,          Jacqueline%Clavel%null%1,          Denis%Hémon%null%1,       Grégoire%Rey%null%1,       Eric%Jougla%null%1,       Anne%Fouillet%null%1,       Gérard%Pavillon%null%1,       Pierre%Bessemoulin%null%1,       Philippe%Frayssinet%null%1,       Jacqueline%Clavel%null%1,       Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,        Alaa%Boulad%coreGivesNoEmail%1,        Anand%Irimpen%coreGivesNoEmail%1,        Bradley%Deere%coreGivesNoEmail%1,        Christopher%Westley%coreGivesNoEmail%1,        Hassan%Baydoun%coreGivesNoEmail%1,        Holly%Gonzales%coreGivesNoEmail%1,        Indrajeet%Mahata%coreGivesNoEmail%1,        John%C. Moscona%coreGivesNoEmail%1,        Kapil%Yadav%coreGivesNoEmail%1,        Matthew%N. Peters%coreGivesNoEmail%1,        Patrick%Ters%coreGivesNoEmail%1,        Paul%Katigbak%coreGivesNoEmail%1,        Rohit%Maini%coreGivesNoEmail%1,        Ryan%Nelson%coreGivesNoEmail%1,        Sudesh%Srivastav%coreGivesNoEmail%1,        Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,  C. Lillian%Yau%xref no email%1,  Lizheng%Shi%xref no email%1,  Sharice%Leger%xref no email%1,  Prathima%Nagireddy%xref no email%1,  Jay%Waddadar%xref no email%1,  Prasanth%Surampudi%xref no email%1,  Jennifer%John-Kalarickal%xref no email%1,  Lydia%Yenoby%xref no email%1,  Vivian%Fonseca%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1641,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -1320,22 +1664,22 @@
         <v>43497.0</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="I3" t="s">
         <v>183</v>
@@ -1355,7 +1699,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -1384,7 +1728,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -1413,7 +1757,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -1442,7 +1786,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -1465,22 +1809,22 @@
         <v>43556.0</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="I8" t="s">
         <v>183</v>
@@ -1500,7 +1844,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1529,7 +1873,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1552,22 +1896,22 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c r="I11" t="s">
         <v>183</v>
@@ -1587,7 +1931,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1610,22 +1954,22 @@
         <v>40087.0</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>287</v>
       </c>
       <c r="I13" t="s">
         <v>183</v>
@@ -1645,7 +1989,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1674,7 +2018,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -1697,22 +2041,22 @@
         <v>42948.0</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="I16" t="s">
         <v>183</v>
@@ -1732,7 +2076,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -1761,7 +2105,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -1790,7 +2134,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -1819,7 +2163,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -1848,7 +2192,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -1871,22 +2215,22 @@
         <v>35261.0</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="I22" t="s">
         <v>183</v>
@@ -1906,7 +2250,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -1935,7 +2279,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -1958,22 +2302,22 @@
         <v>42125.0</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="I25" t="s">
         <v>183</v>
@@ -1987,22 +2331,22 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="I26" t="s">
         <v>183</v>
@@ -2016,22 +2360,22 @@
         <v>43313.0</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>312</v>
       </c>
       <c r="I27" t="s">
         <v>183</v>
@@ -2045,22 +2389,22 @@
         <v>38384.0</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="I28" t="s">
         <v>183</v>
@@ -2080,7 +2424,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -2138,7 +2482,7 @@
         <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -2167,7 +2511,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -2190,22 +2534,22 @@
         <v>40422.0</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>319</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="I33" t="s">
         <v>183</v>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="418">
   <si>
     <t>Doi</t>
   </si>
@@ -1304,6 +1304,224 @@
   </si>
   <si>
     <t>[Tina K.%Thethi%xref no email%1,  C. Lillian%Yau%xref no email%1,  Lizheng%Shi%xref no email%1,  Sharice%Leger%xref no email%1,  Prathima%Nagireddy%xref no email%1,  Jay%Waddadar%xref no email%1,  Prasanth%Surampudi%xref no email%1,  Jennifer%John-Kalarickal%xref no email%1,  Lydia%Yenoby%xref no email%1,  Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,           Elsie%Yan%null%1,           Sally%Jowett%null%1,        Thanos%Karatzias%null%1,        Elsie%Yan%null%1,        Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,   Ziqiang%Lin%xref no email%1,   Emily A.%Lipton%xref no email%1,   Guthrie%Birkhead%xref no email%1,   Michael%Primeau%xref no email%1,   Guang-Hui%Dong%xref no email%1,   Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,          Alan%Cohen%NULL%1,          Josiane%Courteau%NULL%1,          Patrick%Bergeron%NULL%1,          Roxanne%Dault%NULL%1,          Pierre%Gosselin%NULL%1,          Claudia%Blais%NULL%1,          Diane%Bélanger%NULL%1,          Louis%Rochette%NULL%1,          Fateh%Chebana%NULL%1,          Jan%Semenza%NULL%2,          Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,           Tony T.%Koshy%null%1,           Joseph%Gilbert%null%1,           Lauren K.%Burdine%null%1,           Michael%Marmor%null%1,           Xiaoxia%Han%null%1,           Yongzhao%Shao%null%1,           Claude%Chemtob%null%1,           Teresa M.%Attina%null%1,           Elaine M.%Urbina%null%1,        Leonardo%Trasande%null%1,        Tony T.%Koshy%null%1,        Joseph%Gilbert%null%1,        Lauren K.%Burdine%null%1,        Michael%Marmor%null%1,        Xiaoxia%Han%null%1,        Yongzhao%Shao%null%1,        Claude%Chemtob%null%1,        Teresa M.%Attina%null%1,        Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,          Elena N.%Naumova%NULL%1,          Gitanjali%Singh%NULL%1,          Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,          Steven D.%Stellman%NULL%1,          Alfredo%Morabia%NULL%1,          Sara A.%Miller‐Archie%NULL%1,          Howard%Alper%NULL%1,          Zoey%Laskaris%NULL%1,          Robert M.%Brackbill%NULL%1,          James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,   Kyoung Jun%Song%xref no email%1,   Sang Do%Shin%xref no email%1,   Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,         Karen%A. Matthews%coreGivesNoEmail%1,         Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,           Chris%Houser%null%1,           Klaus%Meyer-Arendt%null%1,        Nathan%McKinney%null%1,        Chris%Houser%null%1,        Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,   Peter G.%van der Velden%xref no email%1,   Linda%Grievink%xref no email%1,   C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,           Socrates V.%Kakoulides%null%1,           John%Moscona%null%1,           Jabar%Whittier%null%1,           Sudesh%Srivastav%null%1,           Patrice%Delafontaine%null%2,           Anand%Irimpen%null%1,        Zhen%Jiao%null%1,        Socrates V.%Kakoulides%null%1,        John%Moscona%null%1,        Jabar%Whittier%null%1,        Sudesh%Srivastav%null%1,        Patrice%Delafontaine%null%2,        Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,   Jonathan%Menachem%xref no email%1,   Sudesh K.%Srivastav%xref no email%1,   Patrice%Delafontaine%xref no email%1,   Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,           Shinya%Yumoto%null%1,           Kazuhisa%Sakaguchi%null%1,           Chiharu%Shudo%null%1,           Shiro%Takino%null%1,           Motohiro%Hashiyama%null%1,           Yutaka%Kai%null%1,           Yutaka%Kuroda%null%1,           Hiroaki%Kawano%null%1,           Hisao%Ogawa%null%2,        Yasuhiro%Nagayoshi%null%1,        Shinya%Yumoto%null%1,        Kazuhisa%Sakaguchi%null%1,        Chiharu%Shudo%null%1,        Shiro%Takino%null%1,        Motohiro%Hashiyama%null%1,        Yutaka%Kai%null%1,        Yutaka%Kuroda%null%1,        Hiroaki%Kawano%null%1,        Hisao%Ogawa%null%2]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,           Sara A.%Miller-Archie%null%1,           James E.%Cone%null%1,           Alfredo%Morabia%null%1,           Steven D.%Stellman%null%1,        Hannah T.%Jordan%null%1,        Sara A.%Miller-Archie%null%1,        James E.%Cone%null%1,        Alfredo%Morabia%null%1,        Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,   Prathit A.%Kulkarni%xref no email%1,   Mangala%Rajan%xref no email%1,   Pauline%Thomas%xref no email%1,   Stella%Tsai%xref no email%1,   Christina%Tan%xref no email%1,   Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,          Hayden%Smith%NULL%1,          Nitesh%Kuhadiya%NULL%1,          Sharice M.%Leger%NULL%1,          C. Lillian%Yau%NULL%1,          Kristi%Reynolds%NULL%1,          Lizheng%Shi%NULL%1,          Roberta H.%McDuffie%NULL%1,          Tina%Thethi%NULL%1,          Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,           Ana Isabel%Casanegra%null%1,           Alan%Shapiro%null%1,           Minh%Phan%null%1,           Beau%Hawkins%null%1,           Ji%Li%null%1,           Julie%Stoner%null%1,           Alfonso%Tafur%null%1,        Federico%Silva-Palacios%null%1,        Ana Isabel%Casanegra%null%1,        Alan%Shapiro%null%1,        Minh%Phan%null%1,        Beau%Hawkins%null%1,        Ji%Li%null%1,        Julie%Stoner%null%1,        Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,          La Ngoc%Quang%NULL%1,          Le Thi%Thanh Ha%NULL%1,          Tran Thi%Duc Hanh%NULL%1,          Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,         Bouter%L M%coreGivesNoEmail%1,         Bramsen%I%coreGivesNoEmail%1,         Huizink%A C%coreGivesNoEmail%1,         Slottje%P%coreGivesNoEmail%1,         Smid%T%coreGivesNoEmail%1,         Smidt%N%coreGivesNoEmail%1,         Twisk%J W R%coreGivesNoEmail%1,         van%der Ploeg H M%coreGivesNoEmail%1,         van%Mechelen W%coreGivesNoEmail%1,         Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,           Robert M%Brackbill%null%1,           James E%Cone%null%1,           Indira%Debchoudhury%null%1,           Mark R%Farfel%null%1,           Carolyn M%Greene%null%1,           James L%Hadler%null%1,           Joseph%Kennedy%null%1,           Jiehui%Li%null%1,           Jonathan%Liff%null%1,           Leslie%Stayner%null%1,           Steven D%Stellman%null%1,        Hannah T%Jordan%null%1,        Robert M%Brackbill%null%1,        James E%Cone%null%1,        Indira%Debchoudhury%null%1,        Mark R%Farfel%null%1,        Carolyn M%Greene%null%1,        James L%Hadler%null%1,        Joseph%Kennedy%null%1,        Jiehui%Li%null%1,        Jonathan%Liff%null%1,        Leslie%Stayner%null%1,        Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,   R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,           Morgan J.%Katz%null%1,           John C.%Moscona%null%1,           Mohi E.%Alkadri%null%1,           Rashad H.%Khazi Syed%null%1,           Thomas A.%Turnage%null%1,           Vikram S.%Nijjar%null%1,           Mohannad B.%Bisharat%null%1,           Patrice%Delafontaine%null%0,           Anand M.%Irimpen%null%1,        Matthew N.%Peters%null%1,        Morgan J.%Katz%null%1,        John C.%Moscona%null%1,        Mohi E.%Alkadri%null%1,        Rashad H.%Khazi Syed%null%1,        Thomas A.%Turnage%null%1,        Vikram S.%Nijjar%null%1,        Mohannad B.%Bisharat%null%1,        Patrice%Delafontaine%null%0,        Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,          Dena%Javadi%NULL%2,          Dena%Javadi%NULL%0,          Katrina%Hann%NULL%5,          Anthony D%Harries%NULL%2,          Anthony D%Harries%NULL%0,          Francis%Smart%NULL%2,          Francis%Smart%NULL%0,          Thomas%Samba%NULL%1,          Jeffery%Edwards%NULL%4,          Jeffery%Edwards%NULL%0,          Priyakanta%Nayak%NULL%2,          Priyakanta%Nayak%NULL%0,          Katrina%Hann%NULL%0,          Katrina%Hann%NULL%0,          Jeffery%Edwards%NULL%0,          Jeffery%Edwards%NULL%0,          Katrina%Hann%NULL%0,          Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,   Jeanne%Salyer%xref no email%1,   Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,   Marta I.%Gomez%xref no email%1,   Lenore%Gensburg%xref no email%1,   Wei%Liu%xref no email%1,   Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,   Howard E.%Alper%xref no email%1,   Angela-Maithy%Nguyen%xref no email%1,   Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,   William%Chaplin%xref no email%1,   Joseph E%Schwartz%xref no email%1,   John%Holland%xref no email%1,   Robert%Alter%xref no email%1,   Ronald%Wheeler%xref no email%1,   Diep%Duong%xref no email%1,   Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,           Renée%El-Gabalawy%null%1,           Sarvesh%Logsetty%null%1,           Jitender%Sareen%null%1,        M. Natalie%Husarewycz%null%1,        Renée%El-Gabalawy%null%1,        Sarvesh%Logsetty%null%1,        Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,           Eric%Jougla%null%1,           Anne%Fouillet%null%1,           Gérard%Pavillon%null%1,           Pierre%Bessemoulin%null%1,           Philippe%Frayssinet%null%1,           Jacqueline%Clavel%null%1,           Denis%Hémon%null%1,        Grégoire%Rey%null%1,        Eric%Jougla%null%1,        Anne%Fouillet%null%1,        Gérard%Pavillon%null%1,        Pierre%Bessemoulin%null%1,        Philippe%Frayssinet%null%1,        Jacqueline%Clavel%null%1,        Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,         Alaa%Boulad%coreGivesNoEmail%1,         Anand%Irimpen%coreGivesNoEmail%1,         Bradley%Deere%coreGivesNoEmail%1,         Christopher%Westley%coreGivesNoEmail%1,         Hassan%Baydoun%coreGivesNoEmail%1,         Holly%Gonzales%coreGivesNoEmail%1,         Indrajeet%Mahata%coreGivesNoEmail%1,         John%C. Moscona%coreGivesNoEmail%1,         Kapil%Yadav%coreGivesNoEmail%1,         Matthew%N. Peters%coreGivesNoEmail%1,         Patrick%Ters%coreGivesNoEmail%1,         Paul%Katigbak%coreGivesNoEmail%1,         Rohit%Maini%coreGivesNoEmail%1,         Ryan%Nelson%coreGivesNoEmail%1,         Sudesh%Srivastav%coreGivesNoEmail%1,         Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,   C. Lillian%Yau%xref no email%1,   Lizheng%Shi%xref no email%1,   Sharice%Leger%xref no email%1,   Prathima%Nagireddy%xref no email%1,   Jay%Waddadar%xref no email%1,   Prasanth%Surampudi%xref no email%1,   Jennifer%John-Kalarickal%xref no email%1,   Lydia%Yenoby%xref no email%1,   Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,            Elsie%Yan%null%1,            Sally%Jowett%null%1,         Thanos%Karatzias%null%1,         Elsie%Yan%null%1,         Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,    Ziqiang%Lin%xref no email%1,    Emily A.%Lipton%xref no email%1,    Guthrie%Birkhead%xref no email%1,    Michael%Primeau%xref no email%1,    Guang-Hui%Dong%xref no email%1,    Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,           Alan%Cohen%NULL%1,           Josiane%Courteau%NULL%1,           Patrick%Bergeron%NULL%1,           Roxanne%Dault%NULL%1,           Pierre%Gosselin%NULL%1,           Claudia%Blais%NULL%1,           Diane%Bélanger%NULL%1,           Louis%Rochette%NULL%1,           Fateh%Chebana%NULL%1,           Jan%Semenza%NULL%2,           Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,            Tony T.%Koshy%null%1,            Joseph%Gilbert%null%1,            Lauren K.%Burdine%null%1,            Michael%Marmor%null%1,            Xiaoxia%Han%null%1,            Yongzhao%Shao%null%1,            Claude%Chemtob%null%1,            Teresa M.%Attina%null%1,            Elaine M.%Urbina%null%1,         Leonardo%Trasande%null%1,         Tony T.%Koshy%null%1,         Joseph%Gilbert%null%1,         Lauren K.%Burdine%null%1,         Michael%Marmor%null%1,         Xiaoxia%Han%null%1,         Yongzhao%Shao%null%1,         Claude%Chemtob%null%1,         Teresa M.%Attina%null%1,         Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,           Elena N.%Naumova%NULL%1,           Gitanjali%Singh%NULL%1,           Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,           Steven D.%Stellman%NULL%1,           Alfredo%Morabia%NULL%1,           Sara A.%Miller‐Archie%NULL%1,           Howard%Alper%NULL%1,           Zoey%Laskaris%NULL%1,           Robert M.%Brackbill%NULL%1,           James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,    Kyoung Jun%Song%xref no email%1,    Sang Do%Shin%xref no email%1,    Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,          Karen%A. Matthews%coreGivesNoEmail%1,          Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Previous studies have shown that natural disasters, and hurricanes in particular, have led to more deaths than those usually documented in short post-storm surveys.
+ Such indirect deaths, thought to be related to dietary, stress or pre-existing medical conditions, can exceed the number of direct deaths and may persist for weeks or even months beyond the event itself.
+ In the present study, cumulative sum of deviations plots are used to quantify the number of direct and indirect deaths resulting from Hurricanes Charley, Frances, Ivan and Jeanne that made landfall in Florida in 2004. Results suggest that there was an elevated mortality for up to 2 months following each storm, resulting in a total of 624 direct and indirect deaths attributable to the storm.
+ Trauma-related deaths that can be associated directly with the storm account for only ∼4% of the total storm-related mortality, while indirect mortality accounts for most storm-related deaths.
+ Specifically, a large percentage of the elevated mortality was associated with heart (34%) and cancer-related deaths (19%), while diabetes (5%) and accident-related deaths (9%) account for a smaller but still significant percentage of the elevated mortality.
+ The results further suggest that the elevated mortality was the result of additional deaths that would not have otherwise occurred within that 5 month period, and not simply a clustering of deaths that were inevitable between 1 August and 31 December 2004. The elevated mortality identified in this study is significantly greater than the official count of 31 direct and 113 indirect deaths resulting from the four hurricanes combined.
+ This suggests a need for improved mortality counts and surveillance in order to better evaluate and identify effective prevention policies, and to identify preventable deaths.
+</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%0,  Chris%Houser%null%1,  Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,    Peter G.%van der Velden%xref no email%1,    Linda%Grievink%xref no email%1,    C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,            Socrates V.%Kakoulides%null%1,            John%Moscona%null%1,            Jabar%Whittier%null%1,            Sudesh%Srivastav%null%1,            Patrice%Delafontaine%null%2,            Anand%Irimpen%null%1,         Zhen%Jiao%null%1,         Socrates V.%Kakoulides%null%1,         John%Moscona%null%1,         Jabar%Whittier%null%1,         Sudesh%Srivastav%null%1,         Patrice%Delafontaine%null%2,         Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,    Jonathan%Menachem%xref no email%1,    Sudesh K.%Srivastav%xref no email%1,    Patrice%Delafontaine%xref no email%1,    Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,            Shinya%Yumoto%null%1,            Kazuhisa%Sakaguchi%null%1,            Chiharu%Shudo%null%1,            Shiro%Takino%null%1,            Motohiro%Hashiyama%null%1,            Yutaka%Kai%null%1,            Yutaka%Kuroda%null%1,            Hiroaki%Kawano%null%1,            Hisao%Ogawa%null%2,         Yasuhiro%Nagayoshi%null%1,         Shinya%Yumoto%null%1,         Kazuhisa%Sakaguchi%null%1,         Chiharu%Shudo%null%1,         Shiro%Takino%null%1,         Motohiro%Hashiyama%null%1,         Yutaka%Kai%null%1,         Yutaka%Kuroda%null%1,         Hiroaki%Kawano%null%1,         Hisao%Ogawa%null%2]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,            Sara A.%Miller-Archie%null%1,            James E.%Cone%null%1,            Alfredo%Morabia%null%1,            Steven D.%Stellman%null%1,         Hannah T.%Jordan%null%1,         Sara A.%Miller-Archie%null%1,         James E.%Cone%null%1,         Alfredo%Morabia%null%1,         Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,    Prathit A.%Kulkarni%xref no email%1,    Mangala%Rajan%xref no email%1,    Pauline%Thomas%xref no email%1,    Stella%Tsai%xref no email%1,    Christina%Tan%xref no email%1,    Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,           Hayden%Smith%NULL%1,           Nitesh%Kuhadiya%NULL%1,           Sharice M.%Leger%NULL%1,           C. Lillian%Yau%NULL%1,           Kristi%Reynolds%NULL%1,           Lizheng%Shi%NULL%1,           Roberta H.%McDuffie%NULL%1,           Tina%Thethi%NULL%1,           Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,            Ana Isabel%Casanegra%null%1,            Alan%Shapiro%null%1,            Minh%Phan%null%1,            Beau%Hawkins%null%1,            Ji%Li%null%1,            Julie%Stoner%null%1,            Alfonso%Tafur%null%1,         Federico%Silva-Palacios%null%1,         Ana Isabel%Casanegra%null%1,         Alan%Shapiro%null%1,         Minh%Phan%null%1,         Beau%Hawkins%null%1,         Ji%Li%null%1,         Julie%Stoner%null%1,         Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,           La Ngoc%Quang%NULL%1,           Le Thi%Thanh Ha%NULL%1,           Tran Thi%Duc Hanh%NULL%1,           Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,          Bouter%L M%coreGivesNoEmail%1,          Bramsen%I%coreGivesNoEmail%1,          Huizink%A C%coreGivesNoEmail%1,          Slottje%P%coreGivesNoEmail%1,          Smid%T%coreGivesNoEmail%1,          Smidt%N%coreGivesNoEmail%1,          Twisk%J W R%coreGivesNoEmail%1,          van%der Ploeg H M%coreGivesNoEmail%1,          van%Mechelen W%coreGivesNoEmail%1,          Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,            Robert M%Brackbill%null%1,            James E%Cone%null%1,            Indira%Debchoudhury%null%1,            Mark R%Farfel%null%1,            Carolyn M%Greene%null%1,            James L%Hadler%null%1,            Joseph%Kennedy%null%1,            Jiehui%Li%null%1,            Jonathan%Liff%null%1,            Leslie%Stayner%null%1,            Steven D%Stellman%null%1,         Hannah T%Jordan%null%1,         Robert M%Brackbill%null%1,         James E%Cone%null%1,         Indira%Debchoudhury%null%1,         Mark R%Farfel%null%1,         Carolyn M%Greene%null%1,         James L%Hadler%null%1,         Joseph%Kennedy%null%1,         Jiehui%Li%null%1,         Jonathan%Liff%null%1,         Leslie%Stayner%null%1,         Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,    R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,            Morgan J.%Katz%null%1,            John C.%Moscona%null%1,            Mohi E.%Alkadri%null%1,            Rashad H.%Khazi Syed%null%1,            Thomas A.%Turnage%null%1,            Vikram S.%Nijjar%null%1,            Mohannad B.%Bisharat%null%1,            Patrice%Delafontaine%null%0,            Anand M.%Irimpen%null%1,         Matthew N.%Peters%null%1,         Morgan J.%Katz%null%1,         John C.%Moscona%null%1,         Mohi E.%Alkadri%null%1,         Rashad H.%Khazi Syed%null%1,         Thomas A.%Turnage%null%1,         Vikram S.%Nijjar%null%1,         Mohannad B.%Bisharat%null%1,         Patrice%Delafontaine%null%0,         Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,           Dena%Javadi%NULL%2,           Dena%Javadi%NULL%0,           Katrina%Hann%NULL%5,           Anthony D%Harries%NULL%2,           Anthony D%Harries%NULL%0,           Francis%Smart%NULL%2,           Francis%Smart%NULL%0,           Thomas%Samba%NULL%1,           Jeffery%Edwards%NULL%4,           Jeffery%Edwards%NULL%0,           Priyakanta%Nayak%NULL%2,           Priyakanta%Nayak%NULL%0,           Katrina%Hann%NULL%0,           Katrina%Hann%NULL%0,           Jeffery%Edwards%NULL%0,           Jeffery%Edwards%NULL%0,           Katrina%Hann%NULL%0,           Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,    Jeanne%Salyer%xref no email%1,    Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,    Marta I.%Gomez%xref no email%1,    Lenore%Gensburg%xref no email%1,    Wei%Liu%xref no email%1,    Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,    Howard E.%Alper%xref no email%1,    Angela-Maithy%Nguyen%xref no email%1,    Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,    William%Chaplin%xref no email%1,    Joseph E%Schwartz%xref no email%1,    John%Holland%xref no email%1,    Robert%Alter%xref no email%1,    Ronald%Wheeler%xref no email%1,    Diep%Duong%xref no email%1,    Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,            Renée%El-Gabalawy%null%1,            Sarvesh%Logsetty%null%1,            Jitender%Sareen%null%1,         M. Natalie%Husarewycz%null%1,         Renée%El-Gabalawy%null%1,         Sarvesh%Logsetty%null%1,         Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Objectives
+The aim of the study was to identify the major heat waves (HW) that occurred in France from 1971 to 2003 and describe their impact on all-cause and cause-specific mortality.
+Methods
+Heat waves were defined as periods of at least three consecutive days when the maximum and the minimum temperature, averaged over the whole France, were simultaneously greater than their respective 95th percentile.
+ The underlying causes of death were regrouped into 18 categories.
+ Heatstroke, hyperthermia and dehydration were assigned to the “heat-related causes” (HRC) category.
+ The numbers of deaths observed (O) during the identified HW were compared to those expected (E) on the basis of the mortality rates reported for the three preceding years.
+Results
+Six HW were identified from the period 1971 to 2003. They were associated with great excess mortality (from 1,300 to 13,700 deaths).
+ The observations are compatible with a moderate harvesting effect for four of the six HW.
+ The mortality ratios increased with age for subjects aged over 55 years and were higher for women than for men over 75 years.
+ For the six HW, the excess mortality was significant for almost all the causes of death: (1) the greatest excess mortality (O–E) were observed for cardiovascular diseases, neoplasms, respiratory system diseases, HRC, ill-defined conditions and injury and poisoning, and (2) the mortality ratios (O/E) were highest for HRC, respiratory diseases, nervous system diseases, mental disorders, infectious diseases, and endocrine and nutritional diseases.
+Conclusions
+Heat waves associated with excess mortality are not rare events in this temperate-climate country.
+ The excess mortality is much greater than HRC mortality.
+ Some populations are particularly vulnerable to HW: the elderly, women and people with some specific diseases.
+ However, no segment of the population may be considered protected from the risks associated with HW.
+</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%0,  Eric%Jougla%null%1,  Anne%Fouillet%null%1,  Gérard%Pavillon%null%1,  Pierre%Bessemoulin%null%1,  Philippe%Frayssinet%null%1,  Jacqueline%Clavel%null%1,  Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,          Alaa%Boulad%coreGivesNoEmail%1,          Anand%Irimpen%coreGivesNoEmail%1,          Bradley%Deere%coreGivesNoEmail%1,          Christopher%Westley%coreGivesNoEmail%1,          Hassan%Baydoun%coreGivesNoEmail%1,          Holly%Gonzales%coreGivesNoEmail%1,          Indrajeet%Mahata%coreGivesNoEmail%1,          John%C. Moscona%coreGivesNoEmail%1,          Kapil%Yadav%coreGivesNoEmail%1,          Matthew%N. Peters%coreGivesNoEmail%1,          Patrick%Ters%coreGivesNoEmail%1,          Paul%Katigbak%coreGivesNoEmail%1,          Rohit%Maini%coreGivesNoEmail%1,          Ryan%Nelson%coreGivesNoEmail%1,          Sudesh%Srivastav%coreGivesNoEmail%1,          Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,    C. Lillian%Yau%xref no email%1,    Lizheng%Shi%xref no email%1,    Sharice%Leger%xref no email%1,    Prathima%Nagireddy%xref no email%1,    Jay%Waddadar%xref no email%1,    Prasanth%Surampudi%xref no email%1,    Jennifer%John-Kalarickal%xref no email%1,    Lydia%Yenoby%xref no email%1,    Vivian%Fonseca%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1859,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -1670,7 +1888,7 @@
         <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1699,7 +1917,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -1728,7 +1946,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>388</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -1757,7 +1975,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>389</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -1786,7 +2004,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>328</v>
+        <v>390</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -1815,7 +2033,7 @@
         <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1844,7 +2062,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1870,10 +2088,10 @@
         <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>331</v>
+        <v>394</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1902,7 +2120,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1931,7 +2149,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1960,7 +2178,7 @@
         <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1989,7 +2207,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2018,7 +2236,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -2047,7 +2265,7 @@
         <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2076,7 +2294,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2105,7 +2323,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2134,7 +2352,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2163,7 +2381,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2192,7 +2410,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -2221,7 +2439,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -2250,7 +2468,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -2279,7 +2497,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -2308,7 +2526,7 @@
         <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -2337,7 +2555,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -2366,7 +2584,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -2395,7 +2613,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -2424,7 +2642,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>350</v>
+        <v>413</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -2479,10 +2697,10 @@
         <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -2511,7 +2729,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>352</v>
+        <v>416</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -2540,7 +2758,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>353</v>
+        <v>417</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="476">
   <si>
     <t>Doi</t>
   </si>
@@ -1522,6 +1522,180 @@
   </si>
   <si>
     <t>[Tina K.%Thethi%xref no email%1,    C. Lillian%Yau%xref no email%1,    Lizheng%Shi%xref no email%1,    Sharice%Leger%xref no email%1,    Prathima%Nagireddy%xref no email%1,    Jay%Waddadar%xref no email%1,    Prasanth%Surampudi%xref no email%1,    Jennifer%John-Kalarickal%xref no email%1,    Lydia%Yenoby%xref no email%1,    Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,             Elsie%Yan%null%1,             Sally%Jowett%null%1,          Thanos%Karatzias%null%1,          Elsie%Yan%null%1,          Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,     Ziqiang%Lin%xref no email%1,     Emily A.%Lipton%xref no email%1,     Guthrie%Birkhead%xref no email%1,     Michael%Primeau%xref no email%1,     Guang-Hui%Dong%xref no email%1,     Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,            Alan%Cohen%NULL%1,            Josiane%Courteau%NULL%1,            Patrick%Bergeron%NULL%1,            Roxanne%Dault%NULL%1,            Pierre%Gosselin%NULL%1,            Claudia%Blais%NULL%1,            Diane%Bélanger%NULL%1,            Louis%Rochette%NULL%1,            Fateh%Chebana%NULL%1,            Jan%Semenza%NULL%2,            Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,             Tony T.%Koshy%null%1,             Joseph%Gilbert%null%1,             Lauren K.%Burdine%null%1,             Michael%Marmor%null%1,             Xiaoxia%Han%null%1,             Yongzhao%Shao%null%1,             Claude%Chemtob%null%1,             Teresa M.%Attina%null%1,             Elaine M.%Urbina%null%1,          Leonardo%Trasande%null%1,          Tony T.%Koshy%null%1,          Joseph%Gilbert%null%1,          Lauren K.%Burdine%null%1,          Michael%Marmor%null%1,          Xiaoxia%Han%null%1,          Yongzhao%Shao%null%1,          Claude%Chemtob%null%1,          Teresa M.%Attina%null%1,          Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,            Elena N.%Naumova%NULL%1,            Gitanjali%Singh%NULL%1,            Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,            Steven D.%Stellman%NULL%1,            Alfredo%Morabia%NULL%1,            Sara A.%Miller‐Archie%NULL%1,            Howard%Alper%NULL%1,            Zoey%Laskaris%NULL%1,            Robert M.%Brackbill%NULL%1,            James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,     Kyoung Jun%Song%xref no email%1,     Sang Do%Shin%xref no email%1,     Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,           Karen%A. Matthews%coreGivesNoEmail%1,           Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,     Peter G.%van der Velden%xref no email%1,     Linda%Grievink%xref no email%1,     C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,             Socrates V.%Kakoulides%null%1,             John%Moscona%null%1,             Jabar%Whittier%null%1,             Sudesh%Srivastav%null%1,             Patrice%Delafontaine%null%2,             Anand%Irimpen%null%1,          Zhen%Jiao%null%1,          Socrates V.%Kakoulides%null%1,          John%Moscona%null%1,          Jabar%Whittier%null%1,          Sudesh%Srivastav%null%1,          Patrice%Delafontaine%null%2,          Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,     Jonathan%Menachem%xref no email%1,     Sudesh K.%Srivastav%xref no email%1,     Patrice%Delafontaine%xref no email%1,     Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,             Shinya%Yumoto%null%1,             Kazuhisa%Sakaguchi%null%1,             Chiharu%Shudo%null%1,             Shiro%Takino%null%1,             Motohiro%Hashiyama%null%1,             Yutaka%Kai%null%1,             Yutaka%Kuroda%null%1,             Hiroaki%Kawano%null%1,             Hisao%Ogawa%null%1,          Yasuhiro%Nagayoshi%null%1,          Shinya%Yumoto%null%1,          Kazuhisa%Sakaguchi%null%1,          Chiharu%Shudo%null%1,          Shiro%Takino%null%1,          Motohiro%Hashiyama%null%1,          Yutaka%Kai%null%1,          Yutaka%Kuroda%null%1,          Hiroaki%Kawano%null%1,          Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,             Sara A.%Miller-Archie%null%1,             James E.%Cone%null%1,             Alfredo%Morabia%null%1,             Steven D.%Stellman%null%1,          Hannah T.%Jordan%null%1,          Sara A.%Miller-Archie%null%1,          James E.%Cone%null%1,          Alfredo%Morabia%null%1,          Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,     Prathit A.%Kulkarni%xref no email%1,     Mangala%Rajan%xref no email%1,     Pauline%Thomas%xref no email%1,     Stella%Tsai%xref no email%1,     Christina%Tan%xref no email%1,     Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,            Hayden%Smith%NULL%1,            Nitesh%Kuhadiya%NULL%1,            Sharice M.%Leger%NULL%1,            C. Lillian%Yau%NULL%1,            Kristi%Reynolds%NULL%1,            Lizheng%Shi%NULL%1,            Roberta H.%McDuffie%NULL%1,            Tina%Thethi%NULL%1,            Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,             Ana Isabel%Casanegra%null%1,             Alan%Shapiro%null%1,             Minh%Phan%null%1,             Beau%Hawkins%null%1,             Ji%Li%null%1,             Julie%Stoner%null%1,             Alfonso%Tafur%null%1,          Federico%Silva-Palacios%null%1,          Ana Isabel%Casanegra%null%1,          Alan%Shapiro%null%1,          Minh%Phan%null%1,          Beau%Hawkins%null%1,          Ji%Li%null%1,          Julie%Stoner%null%1,          Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,            La Ngoc%Quang%NULL%1,            Le Thi%Thanh Ha%NULL%1,            Tran Thi%Duc Hanh%NULL%1,            Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,           Bouter%L M%coreGivesNoEmail%1,           Bramsen%I%coreGivesNoEmail%1,           Huizink%A C%coreGivesNoEmail%1,           Slottje%P%coreGivesNoEmail%1,           Smid%T%coreGivesNoEmail%1,           Smidt%N%coreGivesNoEmail%1,           Twisk%J W R%coreGivesNoEmail%1,           van%der Ploeg H M%coreGivesNoEmail%1,           van%Mechelen W%coreGivesNoEmail%1,           Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,             Robert M%Brackbill%null%1,             James E%Cone%null%1,             Indira%Debchoudhury%null%1,             Mark R%Farfel%null%1,             Carolyn M%Greene%null%1,             James L%Hadler%null%1,             Joseph%Kennedy%null%1,             Jiehui%Li%null%1,             Jonathan%Liff%null%1,             Leslie%Stayner%null%1,             Steven D%Stellman%null%1,          Hannah T%Jordan%null%1,          Robert M%Brackbill%null%1,          James E%Cone%null%1,          Indira%Debchoudhury%null%1,          Mark R%Farfel%null%1,          Carolyn M%Greene%null%1,          James L%Hadler%null%1,          Joseph%Kennedy%null%1,          Jiehui%Li%null%1,          Jonathan%Liff%null%1,          Leslie%Stayner%null%1,          Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,     R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,             Morgan J.%Katz%null%1,             John C.%Moscona%null%1,             Mohi E.%Alkadri%null%1,             Rashad H.%Khazi Syed%null%1,             Thomas A.%Turnage%null%1,             Vikram S.%Nijjar%null%1,             Mohannad B.%Bisharat%null%1,             Patrice%Delafontaine%null%0,             Anand M.%Irimpen%null%1,          Matthew N.%Peters%null%1,          Morgan J.%Katz%null%1,          John C.%Moscona%null%1,          Mohi E.%Alkadri%null%1,          Rashad H.%Khazi Syed%null%1,          Thomas A.%Turnage%null%1,          Vikram S.%Nijjar%null%1,          Mohannad B.%Bisharat%null%1,          Patrice%Delafontaine%null%0,          Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,            Dena%Javadi%NULL%2,            Dena%Javadi%NULL%0,            Katrina%Hann%NULL%5,            Anthony D%Harries%NULL%2,            Anthony D%Harries%NULL%0,            Francis%Smart%NULL%2,            Francis%Smart%NULL%0,            Thomas%Samba%NULL%1,            Jeffery%Edwards%NULL%4,            Jeffery%Edwards%NULL%0,            Priyakanta%Nayak%NULL%2,            Priyakanta%Nayak%NULL%0,            Katrina%Hann%NULL%0,            Katrina%Hann%NULL%0,            Jeffery%Edwards%NULL%0,            Jeffery%Edwards%NULL%0,            Katrina%Hann%NULL%0,            Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,     Jeanne%Salyer%xref no email%1,     Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,     Marta I.%Gomez%xref no email%1,     Lenore%Gensburg%xref no email%1,     Wei%Liu%xref no email%1,     Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,     Howard E.%Alper%xref no email%1,     Angela-Maithy%Nguyen%xref no email%1,     Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,     William%Chaplin%xref no email%1,     Joseph E%Schwartz%xref no email%1,     John%Holland%xref no email%1,     Robert%Alter%xref no email%1,     Ronald%Wheeler%xref no email%1,     Diep%Duong%xref no email%1,     Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,             Renée%El-Gabalawy%null%1,             Sarvesh%Logsetty%null%1,             Jitender%Sareen%null%1,          M. Natalie%Husarewycz%null%1,          Renée%El-Gabalawy%null%1,          Sarvesh%Logsetty%null%1,          Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,           Alaa%Boulad%coreGivesNoEmail%1,           Anand%Irimpen%coreGivesNoEmail%1,           Bradley%Deere%coreGivesNoEmail%1,           Christopher%Westley%coreGivesNoEmail%1,           Hassan%Baydoun%coreGivesNoEmail%1,           Holly%Gonzales%coreGivesNoEmail%1,           Indrajeet%Mahata%coreGivesNoEmail%1,           John%C. Moscona%coreGivesNoEmail%1,           Kapil%Yadav%coreGivesNoEmail%1,           Matthew%N. Peters%coreGivesNoEmail%1,           Patrick%Ters%coreGivesNoEmail%1,           Paul%Katigbak%coreGivesNoEmail%1,           Rohit%Maini%coreGivesNoEmail%1,           Ryan%Nelson%coreGivesNoEmail%1,           Sudesh%Srivastav%coreGivesNoEmail%1,           Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,     C. Lillian%Yau%xref no email%1,     Lizheng%Shi%xref no email%1,     Sharice%Leger%xref no email%1,     Prathima%Nagireddy%xref no email%1,     Jay%Waddadar%xref no email%1,     Prasanth%Surampudi%xref no email%1,     Jennifer%John-Kalarickal%xref no email%1,     Lydia%Yenoby%xref no email%1,     Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,              Elsie%Yan%null%1,              Sally%Jowett%null%1,           Thanos%Karatzias%null%1,           Elsie%Yan%null%1,           Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,      Ziqiang%Lin%xref no email%1,      Emily A.%Lipton%xref no email%1,      Guthrie%Birkhead%xref no email%1,      Michael%Primeau%xref no email%1,      Guang-Hui%Dong%xref no email%1,      Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,             Alan%Cohen%NULL%1,             Josiane%Courteau%NULL%1,             Patrick%Bergeron%NULL%1,             Roxanne%Dault%NULL%1,             Pierre%Gosselin%NULL%1,             Claudia%Blais%NULL%1,             Diane%Bélanger%NULL%1,             Louis%Rochette%NULL%1,             Fateh%Chebana%NULL%1,             Jan%Semenza%NULL%2,             Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,              Tony T.%Koshy%null%1,              Joseph%Gilbert%null%1,              Lauren K.%Burdine%null%1,              Michael%Marmor%null%1,              Xiaoxia%Han%null%1,              Yongzhao%Shao%null%1,              Claude%Chemtob%null%1,              Teresa M.%Attina%null%1,              Elaine M.%Urbina%null%1,           Leonardo%Trasande%null%1,           Tony T.%Koshy%null%1,           Joseph%Gilbert%null%1,           Lauren K.%Burdine%null%1,           Michael%Marmor%null%1,           Xiaoxia%Han%null%1,           Yongzhao%Shao%null%1,           Claude%Chemtob%null%1,           Teresa M.%Attina%null%1,           Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,             Elena N.%Naumova%NULL%1,             Gitanjali%Singh%NULL%1,             Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,             Steven D.%Stellman%NULL%1,             Alfredo%Morabia%NULL%1,             Sara A.%Miller‐Archie%NULL%1,             Howard%Alper%NULL%1,             Zoey%Laskaris%NULL%1,             Robert M.%Brackbill%NULL%1,             James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,      Kyoung Jun%Song%xref no email%1,      Sang Do%Shin%xref no email%1,      Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,            Karen%A. Matthews%coreGivesNoEmail%1,            Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,      Peter G.%van der Velden%xref no email%1,      Linda%Grievink%xref no email%1,      C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,              Socrates V.%Kakoulides%null%1,              John%Moscona%null%1,              Jabar%Whittier%null%1,              Sudesh%Srivastav%null%1,              Patrice%Delafontaine%null%2,              Anand%Irimpen%null%1,           Zhen%Jiao%null%1,           Socrates V.%Kakoulides%null%1,           John%Moscona%null%1,           Jabar%Whittier%null%1,           Sudesh%Srivastav%null%1,           Patrice%Delafontaine%null%2,           Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,      Jonathan%Menachem%xref no email%1,      Sudesh K.%Srivastav%xref no email%1,      Patrice%Delafontaine%xref no email%1,      Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,              Shinya%Yumoto%null%1,              Kazuhisa%Sakaguchi%null%1,              Chiharu%Shudo%null%1,              Shiro%Takino%null%1,              Motohiro%Hashiyama%null%1,              Yutaka%Kai%null%1,              Yutaka%Kuroda%null%1,              Hiroaki%Kawano%null%1,              Hisao%Ogawa%null%1,           Yasuhiro%Nagayoshi%null%1,           Shinya%Yumoto%null%1,           Kazuhisa%Sakaguchi%null%1,           Chiharu%Shudo%null%1,           Shiro%Takino%null%1,           Motohiro%Hashiyama%null%1,           Yutaka%Kai%null%1,           Yutaka%Kuroda%null%1,           Hiroaki%Kawano%null%1,           Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,              Sara A.%Miller-Archie%null%1,              James E.%Cone%null%1,              Alfredo%Morabia%null%1,              Steven D.%Stellman%null%1,           Hannah T.%Jordan%null%1,           Sara A.%Miller-Archie%null%1,           James E.%Cone%null%1,           Alfredo%Morabia%null%1,           Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,      Prathit A.%Kulkarni%xref no email%1,      Mangala%Rajan%xref no email%1,      Pauline%Thomas%xref no email%1,      Stella%Tsai%xref no email%1,      Christina%Tan%xref no email%1,      Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,             Hayden%Smith%NULL%1,             Nitesh%Kuhadiya%NULL%1,             Sharice M.%Leger%NULL%1,             C. Lillian%Yau%NULL%1,             Kristi%Reynolds%NULL%1,             Lizheng%Shi%NULL%1,             Roberta H.%McDuffie%NULL%1,             Tina%Thethi%NULL%1,             Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,              Ana Isabel%Casanegra%null%1,              Alan%Shapiro%null%1,              Minh%Phan%null%1,              Beau%Hawkins%null%1,              Ji%Li%null%1,              Julie%Stoner%null%1,              Alfonso%Tafur%null%1,           Federico%Silva-Palacios%null%1,           Ana Isabel%Casanegra%null%1,           Alan%Shapiro%null%1,           Minh%Phan%null%1,           Beau%Hawkins%null%1,           Ji%Li%null%1,           Julie%Stoner%null%1,           Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,             La Ngoc%Quang%NULL%1,             Le Thi%Thanh Ha%NULL%1,             Tran Thi%Duc Hanh%NULL%1,             Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,            Bouter%L M%coreGivesNoEmail%1,            Bramsen%I%coreGivesNoEmail%1,            Huizink%A C%coreGivesNoEmail%1,            Slottje%P%coreGivesNoEmail%1,            Smid%T%coreGivesNoEmail%1,            Smidt%N%coreGivesNoEmail%1,            Twisk%J W R%coreGivesNoEmail%1,            van%der Ploeg H M%coreGivesNoEmail%1,            van%Mechelen W%coreGivesNoEmail%1,            Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,              Robert M%Brackbill%null%1,              James E%Cone%null%1,              Indira%Debchoudhury%null%1,              Mark R%Farfel%null%1,              Carolyn M%Greene%null%1,              James L%Hadler%null%1,              Joseph%Kennedy%null%1,              Jiehui%Li%null%1,              Jonathan%Liff%null%1,              Leslie%Stayner%null%1,              Steven D%Stellman%null%1,           Hannah T%Jordan%null%1,           Robert M%Brackbill%null%1,           James E%Cone%null%1,           Indira%Debchoudhury%null%1,           Mark R%Farfel%null%1,           Carolyn M%Greene%null%1,           James L%Hadler%null%1,           Joseph%Kennedy%null%1,           Jiehui%Li%null%1,           Jonathan%Liff%null%1,           Leslie%Stayner%null%1,           Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,      R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,              Morgan J.%Katz%null%1,              John C.%Moscona%null%1,              Mohi E.%Alkadri%null%1,              Rashad H.%Khazi Syed%null%1,              Thomas A.%Turnage%null%1,              Vikram S.%Nijjar%null%1,              Mohannad B.%Bisharat%null%1,              Patrice%Delafontaine%null%0,              Anand M.%Irimpen%null%1,           Matthew N.%Peters%null%1,           Morgan J.%Katz%null%1,           John C.%Moscona%null%1,           Mohi E.%Alkadri%null%1,           Rashad H.%Khazi Syed%null%1,           Thomas A.%Turnage%null%1,           Vikram S.%Nijjar%null%1,           Mohannad B.%Bisharat%null%1,           Patrice%Delafontaine%null%0,           Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,             Dena%Javadi%NULL%2,             Dena%Javadi%NULL%0,             Katrina%Hann%NULL%5,             Anthony D%Harries%NULL%2,             Anthony D%Harries%NULL%0,             Francis%Smart%NULL%2,             Francis%Smart%NULL%0,             Thomas%Samba%NULL%1,             Jeffery%Edwards%NULL%4,             Jeffery%Edwards%NULL%0,             Priyakanta%Nayak%NULL%2,             Priyakanta%Nayak%NULL%0,             Katrina%Hann%NULL%0,             Katrina%Hann%NULL%0,             Jeffery%Edwards%NULL%0,             Jeffery%Edwards%NULL%0,             Katrina%Hann%NULL%0,             Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,      Jeanne%Salyer%xref no email%1,      Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,      Marta I.%Gomez%xref no email%1,      Lenore%Gensburg%xref no email%1,      Wei%Liu%xref no email%1,      Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,      Howard E.%Alper%xref no email%1,      Angela-Maithy%Nguyen%xref no email%1,      Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,      William%Chaplin%xref no email%1,      Joseph E%Schwartz%xref no email%1,      John%Holland%xref no email%1,      Robert%Alter%xref no email%1,      Ronald%Wheeler%xref no email%1,      Diep%Duong%xref no email%1,      Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,              Renée%El-Gabalawy%null%1,              Sarvesh%Logsetty%null%1,              Jitender%Sareen%null%1,           M. Natalie%Husarewycz%null%1,           Renée%El-Gabalawy%null%1,           Sarvesh%Logsetty%null%1,           Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,            Alaa%Boulad%coreGivesNoEmail%1,            Anand%Irimpen%coreGivesNoEmail%1,            Bradley%Deere%coreGivesNoEmail%1,            Christopher%Westley%coreGivesNoEmail%1,            Hassan%Baydoun%coreGivesNoEmail%1,            Holly%Gonzales%coreGivesNoEmail%1,            Indrajeet%Mahata%coreGivesNoEmail%1,            John%C. Moscona%coreGivesNoEmail%1,            Kapil%Yadav%coreGivesNoEmail%1,            Matthew%N. Peters%coreGivesNoEmail%1,            Patrick%Ters%coreGivesNoEmail%1,            Paul%Katigbak%coreGivesNoEmail%1,            Rohit%Maini%coreGivesNoEmail%1,            Ryan%Nelson%coreGivesNoEmail%1,            Sudesh%Srivastav%coreGivesNoEmail%1,            Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,      C. Lillian%Yau%xref no email%1,      Lizheng%Shi%xref no email%1,      Sharice%Leger%xref no email%1,      Prathima%Nagireddy%xref no email%1,      Jay%Waddadar%xref no email%1,      Prasanth%Surampudi%xref no email%1,      Jennifer%John-Kalarickal%xref no email%1,      Lydia%Yenoby%xref no email%1,      Vivian%Fonseca%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +2033,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -1888,7 +2062,7 @@
         <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1917,7 +2091,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -1946,7 +2120,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -1975,7 +2149,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -2004,7 +2178,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -2033,7 +2207,7 @@
         <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2062,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2091,7 +2265,7 @@
         <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>394</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2120,7 +2294,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2149,7 +2323,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2178,7 +2352,7 @@
         <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2207,7 +2381,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2236,7 +2410,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -2265,7 +2439,7 @@
         <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2294,7 +2468,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2323,7 +2497,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2352,7 +2526,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2381,7 +2555,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2410,7 +2584,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -2439,7 +2613,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -2468,7 +2642,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -2497,7 +2671,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -2526,7 +2700,7 @@
         <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -2555,7 +2729,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -2584,7 +2758,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -2613,7 +2787,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -2642,7 +2816,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -2700,7 +2874,7 @@
         <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>415</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -2729,7 +2903,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -2758,7 +2932,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="507">
   <si>
     <t>Doi</t>
   </si>
@@ -1696,6 +1696,99 @@
   </si>
   <si>
     <t>[Tina K.%Thethi%xref no email%1,      C. Lillian%Yau%xref no email%1,      Lizheng%Shi%xref no email%1,      Sharice%Leger%xref no email%1,      Prathima%Nagireddy%xref no email%1,      Jay%Waddadar%xref no email%1,      Prasanth%Surampudi%xref no email%1,      Jennifer%John-Kalarickal%xref no email%1,      Lydia%Yenoby%xref no email%1,      Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,               Elsie%Yan%null%1,               Sally%Jowett%null%1,            Thanos%Karatzias%null%1,            Elsie%Yan%null%1,            Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,       Ziqiang%Lin%xref no email%1,       Emily A.%Lipton%xref no email%1,       Guthrie%Birkhead%xref no email%1,       Michael%Primeau%xref no email%1,       Guang-Hui%Dong%xref no email%1,       Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,              Alan%Cohen%NULL%1,              Josiane%Courteau%NULL%1,              Patrick%Bergeron%NULL%1,              Roxanne%Dault%NULL%1,              Pierre%Gosselin%NULL%1,              Claudia%Blais%NULL%1,              Diane%Bélanger%NULL%1,              Louis%Rochette%NULL%1,              Fateh%Chebana%NULL%1,              Jan%Semenza%NULL%2,              Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,               Tony T.%Koshy%null%1,               Joseph%Gilbert%null%1,               Lauren K.%Burdine%null%1,               Michael%Marmor%null%1,               Xiaoxia%Han%null%1,               Yongzhao%Shao%null%1,               Claude%Chemtob%null%1,               Teresa M.%Attina%null%1,               Elaine M.%Urbina%null%1,            Leonardo%Trasande%null%1,            Tony T.%Koshy%null%1,            Joseph%Gilbert%null%1,            Lauren K.%Burdine%null%1,            Michael%Marmor%null%1,            Xiaoxia%Han%null%1,            Yongzhao%Shao%null%1,            Claude%Chemtob%null%1,            Teresa M.%Attina%null%1,            Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,              Elena N.%Naumova%NULL%1,              Gitanjali%Singh%NULL%1,              Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,              Steven D.%Stellman%NULL%1,              Alfredo%Morabia%NULL%1,              Sara A.%Miller‐Archie%NULL%1,              Howard%Alper%NULL%1,              Zoey%Laskaris%NULL%1,              Robert M.%Brackbill%NULL%1,              James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,       Kyoung Jun%Song%xref no email%1,       Sang Do%Shin%xref no email%1,       Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,             Karen%A. Matthews%coreGivesNoEmail%1,             Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,     Chris%Houser%null%1,     Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,       Peter G.%van der Velden%xref no email%1,       Linda%Grievink%xref no email%1,       C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,               Socrates V.%Kakoulides%null%1,               John%Moscona%null%1,               Jabar%Whittier%null%1,               Sudesh%Srivastav%null%1,               Patrice%Delafontaine%null%2,               Anand%Irimpen%null%1,            Zhen%Jiao%null%1,            Socrates V.%Kakoulides%null%1,            John%Moscona%null%1,            Jabar%Whittier%null%1,            Sudesh%Srivastav%null%1,            Patrice%Delafontaine%null%2,            Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,       Jonathan%Menachem%xref no email%1,       Sudesh K.%Srivastav%xref no email%1,       Patrice%Delafontaine%xref no email%1,       Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,               Shinya%Yumoto%null%1,               Kazuhisa%Sakaguchi%null%1,               Chiharu%Shudo%null%1,               Shiro%Takino%null%1,               Motohiro%Hashiyama%null%1,               Yutaka%Kai%null%1,               Yutaka%Kuroda%null%1,               Hiroaki%Kawano%null%1,               Hisao%Ogawa%null%1,            Yasuhiro%Nagayoshi%null%1,            Shinya%Yumoto%null%1,            Kazuhisa%Sakaguchi%null%1,            Chiharu%Shudo%null%1,            Shiro%Takino%null%1,            Motohiro%Hashiyama%null%1,            Yutaka%Kai%null%1,            Yutaka%Kuroda%null%1,            Hiroaki%Kawano%null%1,            Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,               Sara A.%Miller-Archie%null%1,               James E.%Cone%null%1,               Alfredo%Morabia%null%1,               Steven D.%Stellman%null%1,            Hannah T.%Jordan%null%1,            Sara A.%Miller-Archie%null%1,            James E.%Cone%null%1,            Alfredo%Morabia%null%1,            Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,       Prathit A.%Kulkarni%xref no email%1,       Mangala%Rajan%xref no email%1,       Pauline%Thomas%xref no email%1,       Stella%Tsai%xref no email%1,       Christina%Tan%xref no email%1,       Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,              Hayden%Smith%NULL%1,              Nitesh%Kuhadiya%NULL%1,              Sharice M.%Leger%NULL%1,              C. Lillian%Yau%NULL%1,              Kristi%Reynolds%NULL%1,              Lizheng%Shi%NULL%1,              Roberta H.%McDuffie%NULL%1,              Tina%Thethi%NULL%1,              Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,               Ana Isabel%Casanegra%null%1,               Alan%Shapiro%null%1,               Minh%Phan%null%1,               Beau%Hawkins%null%1,               Ji%Li%null%1,               Julie%Stoner%null%1,               Alfonso%Tafur%null%1,            Federico%Silva-Palacios%null%1,            Ana Isabel%Casanegra%null%1,            Alan%Shapiro%null%1,            Minh%Phan%null%1,            Beau%Hawkins%null%1,            Ji%Li%null%1,            Julie%Stoner%null%1,            Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,              La Ngoc%Quang%NULL%1,              Le Thi%Thanh Ha%NULL%1,              Tran Thi%Duc Hanh%NULL%1,              Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,             Bouter%L M%coreGivesNoEmail%1,             Bramsen%I%coreGivesNoEmail%1,             Huizink%A C%coreGivesNoEmail%1,             Slottje%P%coreGivesNoEmail%1,             Smid%T%coreGivesNoEmail%1,             Smidt%N%coreGivesNoEmail%1,             Twisk%J W R%coreGivesNoEmail%1,             van%der Ploeg H M%coreGivesNoEmail%1,             van%Mechelen W%coreGivesNoEmail%1,             Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,               Robert M%Brackbill%null%1,               James E%Cone%null%1,               Indira%Debchoudhury%null%1,               Mark R%Farfel%null%1,               Carolyn M%Greene%null%1,               James L%Hadler%null%1,               Joseph%Kennedy%null%1,               Jiehui%Li%null%1,               Jonathan%Liff%null%1,               Leslie%Stayner%null%1,               Steven D%Stellman%null%1,            Hannah T%Jordan%null%1,            Robert M%Brackbill%null%1,            James E%Cone%null%1,            Indira%Debchoudhury%null%1,            Mark R%Farfel%null%1,            Carolyn M%Greene%null%1,            James L%Hadler%null%1,            Joseph%Kennedy%null%1,            Jiehui%Li%null%1,            Jonathan%Liff%null%1,            Leslie%Stayner%null%1,            Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,       R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,               Morgan J.%Katz%null%1,               John C.%Moscona%null%1,               Mohi E.%Alkadri%null%1,               Rashad H.%Khazi Syed%null%1,               Thomas A.%Turnage%null%1,               Vikram S.%Nijjar%null%1,               Mohannad B.%Bisharat%null%1,               Patrice%Delafontaine%null%0,               Anand M.%Irimpen%null%1,            Matthew N.%Peters%null%1,            Morgan J.%Katz%null%1,            John C.%Moscona%null%1,            Mohi E.%Alkadri%null%1,            Rashad H.%Khazi Syed%null%1,            Thomas A.%Turnage%null%1,            Vikram S.%Nijjar%null%1,            Mohannad B.%Bisharat%null%1,            Patrice%Delafontaine%null%0,            Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,              Dena%Javadi%NULL%2,              Dena%Javadi%NULL%0,              Katrina%Hann%NULL%5,              Anthony D%Harries%NULL%2,              Anthony D%Harries%NULL%0,              Francis%Smart%NULL%2,              Francis%Smart%NULL%0,              Thomas%Samba%NULL%1,              Jeffery%Edwards%NULL%4,              Jeffery%Edwards%NULL%0,              Priyakanta%Nayak%NULL%2,              Priyakanta%Nayak%NULL%0,              Katrina%Hann%NULL%0,              Katrina%Hann%NULL%0,              Jeffery%Edwards%NULL%0,              Jeffery%Edwards%NULL%0,              Katrina%Hann%NULL%0,              Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,       Jeanne%Salyer%xref no email%1,       Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,       Marta I.%Gomez%xref no email%1,       Lenore%Gensburg%xref no email%1,       Wei%Liu%xref no email%1,       Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,       Howard E.%Alper%xref no email%1,       Angela-Maithy%Nguyen%xref no email%1,       Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,       William%Chaplin%xref no email%1,       Joseph E%Schwartz%xref no email%1,       John%Holland%xref no email%1,       Robert%Alter%xref no email%1,       Ronald%Wheeler%xref no email%1,       Diep%Duong%xref no email%1,       Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,               Renée%El-Gabalawy%null%1,               Sarvesh%Logsetty%null%1,               Jitender%Sareen%null%1,            M. Natalie%Husarewycz%null%1,            Renée%El-Gabalawy%null%1,            Sarvesh%Logsetty%null%1,            Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,     Eric%Jougla%null%1,     Anne%Fouillet%null%1,     Gérard%Pavillon%null%1,     Pierre%Bessemoulin%null%1,     Philippe%Frayssinet%null%1,     Jacqueline%Clavel%null%1,     Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,             Alaa%Boulad%coreGivesNoEmail%1,             Anand%Irimpen%coreGivesNoEmail%1,             Bradley%Deere%coreGivesNoEmail%1,             Christopher%Westley%coreGivesNoEmail%1,             Hassan%Baydoun%coreGivesNoEmail%1,             Holly%Gonzales%coreGivesNoEmail%1,             Indrajeet%Mahata%coreGivesNoEmail%1,             John%C. Moscona%coreGivesNoEmail%1,             Kapil%Yadav%coreGivesNoEmail%1,             Matthew%N. Peters%coreGivesNoEmail%1,             Patrick%Ters%coreGivesNoEmail%1,             Paul%Katigbak%coreGivesNoEmail%1,             Rohit%Maini%coreGivesNoEmail%1,             Ryan%Nelson%coreGivesNoEmail%1,             Sudesh%Srivastav%coreGivesNoEmail%1,             Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,       C. Lillian%Yau%xref no email%1,       Lizheng%Shi%xref no email%1,       Sharice%Leger%xref no email%1,       Prathima%Nagireddy%xref no email%1,       Jay%Waddadar%xref no email%1,       Prasanth%Surampudi%xref no email%1,       Jennifer%John-Kalarickal%xref no email%1,       Lydia%Yenoby%xref no email%1,       Vivian%Fonseca%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2126,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2062,7 +2155,7 @@
         <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2091,7 +2184,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -2120,7 +2213,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -2149,7 +2242,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -2178,7 +2271,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -2207,7 +2300,7 @@
         <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2236,7 +2329,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2265,7 +2358,7 @@
         <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>484</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2294,7 +2387,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2323,7 +2416,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2352,7 +2445,7 @@
         <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2381,7 +2474,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2410,7 +2503,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -2439,7 +2532,7 @@
         <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2468,7 +2561,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2497,7 +2590,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2526,7 +2619,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2555,7 +2648,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2584,7 +2677,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -2613,7 +2706,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -2642,7 +2735,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -2671,7 +2764,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -2700,7 +2793,7 @@
         <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -2729,7 +2822,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -2758,7 +2851,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -2787,7 +2880,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -2816,7 +2909,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -2874,7 +2967,7 @@
         <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>504</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -2903,7 +2996,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -2932,7 +3025,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3668" uniqueCount="538">
   <si>
     <t>Doi</t>
   </si>
@@ -1789,6 +1789,99 @@
   </si>
   <si>
     <t>[Tina K.%Thethi%xref no email%1,       C. Lillian%Yau%xref no email%1,       Lizheng%Shi%xref no email%1,       Sharice%Leger%xref no email%1,       Prathima%Nagireddy%xref no email%1,       Jay%Waddadar%xref no email%1,       Prasanth%Surampudi%xref no email%1,       Jennifer%John-Kalarickal%xref no email%1,       Lydia%Yenoby%xref no email%1,       Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                Elsie%Yan%null%1,                Sally%Jowett%null%1,             Thanos%Karatzias%null%1,             Elsie%Yan%null%1,             Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,        Ziqiang%Lin%xref no email%1,        Emily A.%Lipton%xref no email%1,        Guthrie%Birkhead%xref no email%1,        Michael%Primeau%xref no email%1,        Guang-Hui%Dong%xref no email%1,        Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,               Alan%Cohen%NULL%1,               Josiane%Courteau%NULL%1,               Patrick%Bergeron%NULL%1,               Roxanne%Dault%NULL%1,               Pierre%Gosselin%NULL%1,               Claudia%Blais%NULL%1,               Diane%Bélanger%NULL%1,               Louis%Rochette%NULL%1,               Fateh%Chebana%NULL%1,               Jan%Semenza%NULL%2,               Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                Tony T.%Koshy%null%1,                Joseph%Gilbert%null%1,                Lauren K.%Burdine%null%1,                Michael%Marmor%null%1,                Xiaoxia%Han%null%1,                Yongzhao%Shao%null%1,                Claude%Chemtob%null%1,                Teresa M.%Attina%null%1,                Elaine M.%Urbina%null%1,             Leonardo%Trasande%null%1,             Tony T.%Koshy%null%1,             Joseph%Gilbert%null%1,             Lauren K.%Burdine%null%1,             Michael%Marmor%null%1,             Xiaoxia%Han%null%1,             Yongzhao%Shao%null%1,             Claude%Chemtob%null%1,             Teresa M.%Attina%null%1,             Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,               Elena N.%Naumova%NULL%1,               Gitanjali%Singh%NULL%1,               Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,               Steven D.%Stellman%NULL%1,               Alfredo%Morabia%NULL%1,               Sara A.%Miller‐Archie%NULL%1,               Howard%Alper%NULL%1,               Zoey%Laskaris%NULL%1,               Robert M.%Brackbill%NULL%1,               James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,        Kyoung Jun%Song%xref no email%1,        Sang Do%Shin%xref no email%1,        Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,              Karen%A. Matthews%coreGivesNoEmail%1,              Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,      Chris%Houser%null%1,      Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,        Peter G.%van der Velden%xref no email%1,        Linda%Grievink%xref no email%1,        C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                Socrates V.%Kakoulides%null%1,                John%Moscona%null%1,                Jabar%Whittier%null%1,                Sudesh%Srivastav%null%1,                Patrice%Delafontaine%null%2,                Anand%Irimpen%null%1,             Zhen%Jiao%null%1,             Socrates V.%Kakoulides%null%1,             John%Moscona%null%1,             Jabar%Whittier%null%1,             Sudesh%Srivastav%null%1,             Patrice%Delafontaine%null%2,             Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,        Jonathan%Menachem%xref no email%1,        Sudesh K.%Srivastav%xref no email%1,        Patrice%Delafontaine%xref no email%1,        Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                Shinya%Yumoto%null%1,                Kazuhisa%Sakaguchi%null%1,                Chiharu%Shudo%null%1,                Shiro%Takino%null%1,                Motohiro%Hashiyama%null%1,                Yutaka%Kai%null%1,                Yutaka%Kuroda%null%1,                Hiroaki%Kawano%null%1,                Hisao%Ogawa%null%1,             Yasuhiro%Nagayoshi%null%1,             Shinya%Yumoto%null%1,             Kazuhisa%Sakaguchi%null%1,             Chiharu%Shudo%null%1,             Shiro%Takino%null%1,             Motohiro%Hashiyama%null%1,             Yutaka%Kai%null%1,             Yutaka%Kuroda%null%1,             Hiroaki%Kawano%null%1,             Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                Sara A.%Miller-Archie%null%1,                James E.%Cone%null%1,                Alfredo%Morabia%null%1,                Steven D.%Stellman%null%1,             Hannah T.%Jordan%null%1,             Sara A.%Miller-Archie%null%1,             James E.%Cone%null%1,             Alfredo%Morabia%null%1,             Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,        Prathit A.%Kulkarni%xref no email%1,        Mangala%Rajan%xref no email%1,        Pauline%Thomas%xref no email%1,        Stella%Tsai%xref no email%1,        Christina%Tan%xref no email%1,        Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,               Hayden%Smith%NULL%1,               Nitesh%Kuhadiya%NULL%1,               Sharice M.%Leger%NULL%1,               C. Lillian%Yau%NULL%1,               Kristi%Reynolds%NULL%1,               Lizheng%Shi%NULL%1,               Roberta H.%McDuffie%NULL%1,               Tina%Thethi%NULL%1,               Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                Ana Isabel%Casanegra%null%1,                Alan%Shapiro%null%1,                Minh%Phan%null%1,                Beau%Hawkins%null%1,                Ji%Li%null%1,                Julie%Stoner%null%1,                Alfonso%Tafur%null%1,             Federico%Silva-Palacios%null%1,             Ana Isabel%Casanegra%null%1,             Alan%Shapiro%null%1,             Minh%Phan%null%1,             Beau%Hawkins%null%1,             Ji%Li%null%1,             Julie%Stoner%null%1,             Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,               La Ngoc%Quang%NULL%1,               Le Thi%Thanh Ha%NULL%1,               Tran Thi%Duc Hanh%NULL%1,               Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,              Bouter%L M%coreGivesNoEmail%1,              Bramsen%I%coreGivesNoEmail%1,              Huizink%A C%coreGivesNoEmail%1,              Slottje%P%coreGivesNoEmail%1,              Smid%T%coreGivesNoEmail%1,              Smidt%N%coreGivesNoEmail%1,              Twisk%J W R%coreGivesNoEmail%1,              van%der Ploeg H M%coreGivesNoEmail%1,              van%Mechelen W%coreGivesNoEmail%1,              Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                Robert M%Brackbill%null%1,                James E%Cone%null%1,                Indira%Debchoudhury%null%1,                Mark R%Farfel%null%1,                Carolyn M%Greene%null%1,                James L%Hadler%null%1,                Joseph%Kennedy%null%1,                Jiehui%Li%null%1,                Jonathan%Liff%null%1,                Leslie%Stayner%null%1,                Steven D%Stellman%null%1,             Hannah T%Jordan%null%1,             Robert M%Brackbill%null%1,             James E%Cone%null%1,             Indira%Debchoudhury%null%1,             Mark R%Farfel%null%1,             Carolyn M%Greene%null%1,             James L%Hadler%null%1,             Joseph%Kennedy%null%1,             Jiehui%Li%null%1,             Jonathan%Liff%null%1,             Leslie%Stayner%null%1,             Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,        R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                Morgan J.%Katz%null%1,                John C.%Moscona%null%1,                Mohi E.%Alkadri%null%1,                Rashad H.%Khazi Syed%null%1,                Thomas A.%Turnage%null%1,                Vikram S.%Nijjar%null%1,                Mohannad B.%Bisharat%null%1,                Patrice%Delafontaine%null%0,                Anand M.%Irimpen%null%1,             Matthew N.%Peters%null%1,             Morgan J.%Katz%null%1,             John C.%Moscona%null%1,             Mohi E.%Alkadri%null%1,             Rashad H.%Khazi Syed%null%1,             Thomas A.%Turnage%null%1,             Vikram S.%Nijjar%null%1,             Mohannad B.%Bisharat%null%1,             Patrice%Delafontaine%null%0,             Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,               Dena%Javadi%NULL%2,               Dena%Javadi%NULL%0,               Katrina%Hann%NULL%5,               Anthony D%Harries%NULL%2,               Anthony D%Harries%NULL%0,               Francis%Smart%NULL%2,               Francis%Smart%NULL%0,               Thomas%Samba%NULL%1,               Jeffery%Edwards%NULL%4,               Jeffery%Edwards%NULL%0,               Priyakanta%Nayak%NULL%2,               Priyakanta%Nayak%NULL%0,               Katrina%Hann%NULL%0,               Katrina%Hann%NULL%0,               Jeffery%Edwards%NULL%0,               Jeffery%Edwards%NULL%0,               Katrina%Hann%NULL%0,               Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,        Jeanne%Salyer%xref no email%1,        Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,        Marta I.%Gomez%xref no email%1,        Lenore%Gensburg%xref no email%1,        Wei%Liu%xref no email%1,        Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,        Howard E.%Alper%xref no email%1,        Angela-Maithy%Nguyen%xref no email%1,        Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,        William%Chaplin%xref no email%1,        Joseph E%Schwartz%xref no email%1,        John%Holland%xref no email%1,        Robert%Alter%xref no email%1,        Ronald%Wheeler%xref no email%1,        Diep%Duong%xref no email%1,        Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                Renée%El-Gabalawy%null%1,                Sarvesh%Logsetty%null%1,                Jitender%Sareen%null%1,             M. Natalie%Husarewycz%null%1,             Renée%El-Gabalawy%null%1,             Sarvesh%Logsetty%null%1,             Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,      Eric%Jougla%null%1,      Anne%Fouillet%null%1,      Gérard%Pavillon%null%1,      Pierre%Bessemoulin%null%1,      Philippe%Frayssinet%null%1,      Jacqueline%Clavel%null%1,      Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,              Alaa%Boulad%coreGivesNoEmail%1,              Anand%Irimpen%coreGivesNoEmail%1,              Bradley%Deere%coreGivesNoEmail%1,              Christopher%Westley%coreGivesNoEmail%1,              Hassan%Baydoun%coreGivesNoEmail%1,              Holly%Gonzales%coreGivesNoEmail%1,              Indrajeet%Mahata%coreGivesNoEmail%1,              John%C. Moscona%coreGivesNoEmail%1,              Kapil%Yadav%coreGivesNoEmail%1,              Matthew%N. Peters%coreGivesNoEmail%1,              Patrick%Ters%coreGivesNoEmail%1,              Paul%Katigbak%coreGivesNoEmail%1,              Rohit%Maini%coreGivesNoEmail%1,              Ryan%Nelson%coreGivesNoEmail%1,              Sudesh%Srivastav%coreGivesNoEmail%1,              Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,        C. Lillian%Yau%xref no email%1,        Lizheng%Shi%xref no email%1,        Sharice%Leger%xref no email%1,        Prathima%Nagireddy%xref no email%1,        Jay%Waddadar%xref no email%1,        Prasanth%Surampudi%xref no email%1,        Jennifer%John-Kalarickal%xref no email%1,        Lydia%Yenoby%xref no email%1,        Vivian%Fonseca%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2219,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2155,7 +2248,7 @@
         <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2184,7 +2277,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -2213,7 +2306,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -2242,7 +2335,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -2271,7 +2364,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -2300,7 +2393,7 @@
         <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2329,7 +2422,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2358,7 +2451,7 @@
         <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2387,7 +2480,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2416,7 +2509,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2445,7 +2538,7 @@
         <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2474,7 +2567,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2503,7 +2596,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -2532,7 +2625,7 @@
         <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2561,7 +2654,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2590,7 +2683,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2619,7 +2712,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2648,7 +2741,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2677,7 +2770,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -2706,7 +2799,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -2735,7 +2828,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -2764,7 +2857,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -2793,7 +2886,7 @@
         <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -2822,7 +2915,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -2851,7 +2944,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -2880,7 +2973,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -2909,7 +3002,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -2967,7 +3060,7 @@
         <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -2996,7 +3089,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -3025,7 +3118,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3668" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="600">
   <si>
     <t>Doi</t>
   </si>
@@ -1882,6 +1882,192 @@
   </si>
   <si>
     <t>[Tina K.%Thethi%xref no email%1,        C. Lillian%Yau%xref no email%1,        Lizheng%Shi%xref no email%1,        Sharice%Leger%xref no email%1,        Prathima%Nagireddy%xref no email%1,        Jay%Waddadar%xref no email%1,        Prasanth%Surampudi%xref no email%1,        Jennifer%John-Kalarickal%xref no email%1,        Lydia%Yenoby%xref no email%1,        Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                 Elsie%Yan%null%1,                 Sally%Jowett%null%1,              Thanos%Karatzias%null%1,              Elsie%Yan%null%1,              Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,         Ziqiang%Lin%xref no email%1,         Emily A.%Lipton%xref no email%1,         Guthrie%Birkhead%xref no email%1,         Michael%Primeau%xref no email%1,         Guang-Hui%Dong%xref no email%1,         Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                Alan%Cohen%NULL%1,                Josiane%Courteau%NULL%1,                Patrick%Bergeron%NULL%1,                Roxanne%Dault%NULL%1,                Pierre%Gosselin%NULL%1,                Claudia%Blais%NULL%1,                Diane%Bélanger%NULL%1,                Louis%Rochette%NULL%1,                Fateh%Chebana%NULL%1,                Jan%Semenza%NULL%2,                Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                 Tony T.%Koshy%null%1,                 Joseph%Gilbert%null%1,                 Lauren K.%Burdine%null%1,                 Michael%Marmor%null%1,                 Xiaoxia%Han%null%1,                 Yongzhao%Shao%null%1,                 Claude%Chemtob%null%1,                 Teresa M.%Attina%null%1,                 Elaine M.%Urbina%null%1,              Leonardo%Trasande%null%1,              Tony T.%Koshy%null%1,              Joseph%Gilbert%null%1,              Lauren K.%Burdine%null%1,              Michael%Marmor%null%1,              Xiaoxia%Han%null%1,              Yongzhao%Shao%null%1,              Claude%Chemtob%null%1,              Teresa M.%Attina%null%1,              Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                Elena N.%Naumova%NULL%1,                Gitanjali%Singh%NULL%1,                Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                Steven D.%Stellman%NULL%1,                Alfredo%Morabia%NULL%1,                Sara A.%Miller‐Archie%NULL%1,                Howard%Alper%NULL%1,                Zoey%Laskaris%NULL%1,                Robert M.%Brackbill%NULL%1,                James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,         Kyoung Jun%Song%xref no email%1,         Sang Do%Shin%xref no email%1,         Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,               Karen%A. Matthews%coreGivesNoEmail%1,               Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,       Chris%Houser%null%1,       Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,         Peter G.%van der Velden%xref no email%1,         Linda%Grievink%xref no email%1,         C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                 Socrates V.%Kakoulides%null%1,                 John%Moscona%null%1,                 Jabar%Whittier%null%1,                 Sudesh%Srivastav%null%1,                 Patrice%Delafontaine%null%2,                 Anand%Irimpen%null%1,              Zhen%Jiao%null%1,              Socrates V.%Kakoulides%null%1,              John%Moscona%null%1,              Jabar%Whittier%null%1,              Sudesh%Srivastav%null%1,              Patrice%Delafontaine%null%2,              Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,         Jonathan%Menachem%xref no email%1,         Sudesh K.%Srivastav%xref no email%1,         Patrice%Delafontaine%xref no email%1,         Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                 Shinya%Yumoto%null%1,                 Kazuhisa%Sakaguchi%null%1,                 Chiharu%Shudo%null%1,                 Shiro%Takino%null%1,                 Motohiro%Hashiyama%null%1,                 Yutaka%Kai%null%1,                 Yutaka%Kuroda%null%1,                 Hiroaki%Kawano%null%1,                 Hisao%Ogawa%null%1,              Yasuhiro%Nagayoshi%null%1,              Shinya%Yumoto%null%1,              Kazuhisa%Sakaguchi%null%1,              Chiharu%Shudo%null%1,              Shiro%Takino%null%1,              Motohiro%Hashiyama%null%1,              Yutaka%Kai%null%1,              Yutaka%Kuroda%null%1,              Hiroaki%Kawano%null%1,              Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                 Sara A.%Miller-Archie%null%1,                 James E.%Cone%null%1,                 Alfredo%Morabia%null%1,                 Steven D.%Stellman%null%1,              Hannah T.%Jordan%null%1,              Sara A.%Miller-Archie%null%1,              James E.%Cone%null%1,              Alfredo%Morabia%null%1,              Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,         Prathit A.%Kulkarni%xref no email%1,         Mangala%Rajan%xref no email%1,         Pauline%Thomas%xref no email%1,         Stella%Tsai%xref no email%1,         Christina%Tan%xref no email%1,         Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                Hayden%Smith%NULL%1,                Nitesh%Kuhadiya%NULL%1,                Sharice M.%Leger%NULL%1,                C. Lillian%Yau%NULL%1,                Kristi%Reynolds%NULL%1,                Lizheng%Shi%NULL%1,                Roberta H.%McDuffie%NULL%1,                Tina%Thethi%NULL%1,                Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                 Ana Isabel%Casanegra%null%1,                 Alan%Shapiro%null%1,                 Minh%Phan%null%1,                 Beau%Hawkins%null%1,                 Ji%Li%null%1,                 Julie%Stoner%null%1,                 Alfonso%Tafur%null%1,              Federico%Silva-Palacios%null%1,              Ana Isabel%Casanegra%null%1,              Alan%Shapiro%null%1,              Minh%Phan%null%1,              Beau%Hawkins%null%1,              Ji%Li%null%1,              Julie%Stoner%null%1,              Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                La Ngoc%Quang%NULL%1,                Le Thi%Thanh Ha%NULL%1,                Tran Thi%Duc Hanh%NULL%1,                Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,               Bouter%L M%coreGivesNoEmail%1,               Bramsen%I%coreGivesNoEmail%1,               Huizink%A C%coreGivesNoEmail%1,               Slottje%P%coreGivesNoEmail%1,               Smid%T%coreGivesNoEmail%1,               Smidt%N%coreGivesNoEmail%1,               Twisk%J W R%coreGivesNoEmail%1,               van%der Ploeg H M%coreGivesNoEmail%1,               van%Mechelen W%coreGivesNoEmail%1,               Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                 Robert M%Brackbill%null%1,                 James E%Cone%null%1,                 Indira%Debchoudhury%null%1,                 Mark R%Farfel%null%1,                 Carolyn M%Greene%null%1,                 James L%Hadler%null%1,                 Joseph%Kennedy%null%1,                 Jiehui%Li%null%1,                 Jonathan%Liff%null%1,                 Leslie%Stayner%null%1,                 Steven D%Stellman%null%1,              Hannah T%Jordan%null%1,              Robert M%Brackbill%null%1,              James E%Cone%null%1,              Indira%Debchoudhury%null%1,              Mark R%Farfel%null%1,              Carolyn M%Greene%null%1,              James L%Hadler%null%1,              Joseph%Kennedy%null%1,              Jiehui%Li%null%1,              Jonathan%Liff%null%1,              Leslie%Stayner%null%1,              Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,         R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                 Morgan J.%Katz%null%1,                 John C.%Moscona%null%1,                 Mohi E.%Alkadri%null%1,                 Rashad H.%Khazi Syed%null%1,                 Thomas A.%Turnage%null%1,                 Vikram S.%Nijjar%null%1,                 Mohannad B.%Bisharat%null%1,                 Patrice%Delafontaine%null%0,                 Anand M.%Irimpen%null%1,              Matthew N.%Peters%null%1,              Morgan J.%Katz%null%1,              John C.%Moscona%null%1,              Mohi E.%Alkadri%null%1,              Rashad H.%Khazi Syed%null%1,              Thomas A.%Turnage%null%1,              Vikram S.%Nijjar%null%1,              Mohannad B.%Bisharat%null%1,              Patrice%Delafontaine%null%0,              Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                Dena%Javadi%NULL%2,                Dena%Javadi%NULL%0,                Katrina%Hann%NULL%5,                Anthony D%Harries%NULL%2,                Anthony D%Harries%NULL%0,                Francis%Smart%NULL%2,                Francis%Smart%NULL%0,                Thomas%Samba%NULL%1,                Jeffery%Edwards%NULL%4,                Jeffery%Edwards%NULL%0,                Priyakanta%Nayak%NULL%2,                Priyakanta%Nayak%NULL%0,                Katrina%Hann%NULL%0,                Katrina%Hann%NULL%0,                Jeffery%Edwards%NULL%0,                Jeffery%Edwards%NULL%0,                Katrina%Hann%NULL%0,                Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,         Jeanne%Salyer%xref no email%1,         Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,         Marta I.%Gomez%xref no email%1,         Lenore%Gensburg%xref no email%1,         Wei%Liu%xref no email%1,         Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,         Howard E.%Alper%xref no email%1,         Angela-Maithy%Nguyen%xref no email%1,         Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,         William%Chaplin%xref no email%1,         Joseph E%Schwartz%xref no email%1,         John%Holland%xref no email%1,         Robert%Alter%xref no email%1,         Ronald%Wheeler%xref no email%1,         Diep%Duong%xref no email%1,         Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                 Renée%El-Gabalawy%null%1,                 Sarvesh%Logsetty%null%1,                 Jitender%Sareen%null%1,              M. Natalie%Husarewycz%null%1,              Renée%El-Gabalawy%null%1,              Sarvesh%Logsetty%null%1,              Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,       Eric%Jougla%null%1,       Anne%Fouillet%null%1,       Gérard%Pavillon%null%1,       Pierre%Bessemoulin%null%1,       Philippe%Frayssinet%null%1,       Jacqueline%Clavel%null%1,       Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,               Alaa%Boulad%coreGivesNoEmail%1,               Anand%Irimpen%coreGivesNoEmail%1,               Bradley%Deere%coreGivesNoEmail%1,               Christopher%Westley%coreGivesNoEmail%1,               Hassan%Baydoun%coreGivesNoEmail%1,               Holly%Gonzales%coreGivesNoEmail%1,               Indrajeet%Mahata%coreGivesNoEmail%1,               John%C. Moscona%coreGivesNoEmail%1,               Kapil%Yadav%coreGivesNoEmail%1,               Matthew%N. Peters%coreGivesNoEmail%1,               Patrick%Ters%coreGivesNoEmail%1,               Paul%Katigbak%coreGivesNoEmail%1,               Rohit%Maini%coreGivesNoEmail%1,               Ryan%Nelson%coreGivesNoEmail%1,               Sudesh%Srivastav%coreGivesNoEmail%1,               Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,         C. Lillian%Yau%xref no email%1,         Lizheng%Shi%xref no email%1,         Sharice%Leger%xref no email%1,         Prathima%Nagireddy%xref no email%1,         Jay%Waddadar%xref no email%1,         Prasanth%Surampudi%xref no email%1,         Jennifer%John-Kalarickal%xref no email%1,         Lydia%Yenoby%xref no email%1,         Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                  Elsie%Yan%null%1,                  Sally%Jowett%null%1,               Thanos%Karatzias%null%1,               Elsie%Yan%null%1,               Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,          Ziqiang%Lin%xref no email%1,          Emily A.%Lipton%xref no email%1,          Guthrie%Birkhead%xref no email%1,          Michael%Primeau%xref no email%1,          Guang-Hui%Dong%xref no email%1,          Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                 Alan%Cohen%NULL%1,                 Josiane%Courteau%NULL%1,                 Patrick%Bergeron%NULL%1,                 Roxanne%Dault%NULL%1,                 Pierre%Gosselin%NULL%1,                 Claudia%Blais%NULL%1,                 Diane%Bélanger%NULL%1,                 Louis%Rochette%NULL%1,                 Fateh%Chebana%NULL%1,                 Jan%Semenza%NULL%2,                 Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                  Tony T.%Koshy%null%1,                  Joseph%Gilbert%null%1,                  Lauren K.%Burdine%null%1,                  Michael%Marmor%null%1,                  Xiaoxia%Han%null%1,                  Yongzhao%Shao%null%1,                  Claude%Chemtob%null%1,                  Teresa M.%Attina%null%1,                  Elaine M.%Urbina%null%1,               Leonardo%Trasande%null%1,               Tony T.%Koshy%null%1,               Joseph%Gilbert%null%1,               Lauren K.%Burdine%null%1,               Michael%Marmor%null%1,               Xiaoxia%Han%null%1,               Yongzhao%Shao%null%1,               Claude%Chemtob%null%1,               Teresa M.%Attina%null%1,               Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                 Elena N.%Naumova%NULL%1,                 Gitanjali%Singh%NULL%1,                 Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                 Steven D.%Stellman%NULL%1,                 Alfredo%Morabia%NULL%1,                 Sara A.%Miller‐Archie%NULL%1,                 Howard%Alper%NULL%1,                 Zoey%Laskaris%NULL%1,                 Robert M.%Brackbill%NULL%1,                 James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,          Kyoung Jun%Song%xref no email%1,          Sang Do%Shin%xref no email%1,          Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,                Karen%A. Matthews%coreGivesNoEmail%1,                Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,        Chris%Houser%null%1,        Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,          Peter G.%van der Velden%xref no email%1,          Linda%Grievink%xref no email%1,          C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                  Socrates V.%Kakoulides%null%1,                  John%Moscona%null%1,                  Jabar%Whittier%null%1,                  Sudesh%Srivastav%null%1,                  Patrice%Delafontaine%null%2,                  Anand%Irimpen%null%1,               Zhen%Jiao%null%1,               Socrates V.%Kakoulides%null%1,               John%Moscona%null%1,               Jabar%Whittier%null%1,               Sudesh%Srivastav%null%1,               Patrice%Delafontaine%null%2,               Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,          Jonathan%Menachem%xref no email%1,          Sudesh K.%Srivastav%xref no email%1,          Patrice%Delafontaine%xref no email%1,          Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                  Shinya%Yumoto%null%1,                  Kazuhisa%Sakaguchi%null%1,                  Chiharu%Shudo%null%1,                  Shiro%Takino%null%1,                  Motohiro%Hashiyama%null%1,                  Yutaka%Kai%null%1,                  Yutaka%Kuroda%null%1,                  Hiroaki%Kawano%null%1,                  Hisao%Ogawa%null%1,               Yasuhiro%Nagayoshi%null%1,               Shinya%Yumoto%null%1,               Kazuhisa%Sakaguchi%null%1,               Chiharu%Shudo%null%1,               Shiro%Takino%null%1,               Motohiro%Hashiyama%null%1,               Yutaka%Kai%null%1,               Yutaka%Kuroda%null%1,               Hiroaki%Kawano%null%1,               Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                  Sara A.%Miller-Archie%null%1,                  James E.%Cone%null%1,                  Alfredo%Morabia%null%1,                  Steven D.%Stellman%null%1,               Hannah T.%Jordan%null%1,               Sara A.%Miller-Archie%null%1,               James E.%Cone%null%1,               Alfredo%Morabia%null%1,               Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,          Prathit A.%Kulkarni%xref no email%1,          Mangala%Rajan%xref no email%1,          Pauline%Thomas%xref no email%1,          Stella%Tsai%xref no email%1,          Christina%Tan%xref no email%1,          Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                 Hayden%Smith%NULL%1,                 Nitesh%Kuhadiya%NULL%1,                 Sharice M.%Leger%NULL%1,                 C. Lillian%Yau%NULL%1,                 Kristi%Reynolds%NULL%1,                 Lizheng%Shi%NULL%1,                 Roberta H.%McDuffie%NULL%1,                 Tina%Thethi%NULL%1,                 Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                  Ana Isabel%Casanegra%null%1,                  Alan%Shapiro%null%1,                  Minh%Phan%null%1,                  Beau%Hawkins%null%1,                  Ji%Li%null%1,                  Julie%Stoner%null%1,                  Alfonso%Tafur%null%1,               Federico%Silva-Palacios%null%1,               Ana Isabel%Casanegra%null%1,               Alan%Shapiro%null%1,               Minh%Phan%null%1,               Beau%Hawkins%null%1,               Ji%Li%null%1,               Julie%Stoner%null%1,               Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                 La Ngoc%Quang%NULL%1,                 Le Thi%Thanh Ha%NULL%1,                 Tran Thi%Duc Hanh%NULL%1,                 Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,                Bouter%L M%coreGivesNoEmail%1,                Bramsen%I%coreGivesNoEmail%1,                Huizink%A C%coreGivesNoEmail%1,                Slottje%P%coreGivesNoEmail%1,                Smid%T%coreGivesNoEmail%1,                Smidt%N%coreGivesNoEmail%1,                Twisk%J W R%coreGivesNoEmail%1,                van%der Ploeg H M%coreGivesNoEmail%1,                van%Mechelen W%coreGivesNoEmail%1,                Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                  Robert M%Brackbill%null%1,                  James E%Cone%null%1,                  Indira%Debchoudhury%null%1,                  Mark R%Farfel%null%1,                  Carolyn M%Greene%null%1,                  James L%Hadler%null%1,                  Joseph%Kennedy%null%1,                  Jiehui%Li%null%1,                  Jonathan%Liff%null%1,                  Leslie%Stayner%null%1,                  Steven D%Stellman%null%1,               Hannah T%Jordan%null%1,               Robert M%Brackbill%null%1,               James E%Cone%null%1,               Indira%Debchoudhury%null%1,               Mark R%Farfel%null%1,               Carolyn M%Greene%null%1,               James L%Hadler%null%1,               Joseph%Kennedy%null%1,               Jiehui%Li%null%1,               Jonathan%Liff%null%1,               Leslie%Stayner%null%1,               Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,          R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                  Morgan J.%Katz%null%1,                  John C.%Moscona%null%1,                  Mohi E.%Alkadri%null%1,                  Rashad H.%Khazi Syed%null%1,                  Thomas A.%Turnage%null%1,                  Vikram S.%Nijjar%null%1,                  Mohannad B.%Bisharat%null%1,                  Patrice%Delafontaine%null%0,                  Anand M.%Irimpen%null%1,               Matthew N.%Peters%null%1,               Morgan J.%Katz%null%1,               John C.%Moscona%null%1,               Mohi E.%Alkadri%null%1,               Rashad H.%Khazi Syed%null%1,               Thomas A.%Turnage%null%1,               Vikram S.%Nijjar%null%1,               Mohannad B.%Bisharat%null%1,               Patrice%Delafontaine%null%0,               Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                 Dena%Javadi%NULL%2,                 Dena%Javadi%NULL%0,                 Katrina%Hann%NULL%5,                 Anthony D%Harries%NULL%2,                 Anthony D%Harries%NULL%0,                 Francis%Smart%NULL%2,                 Francis%Smart%NULL%0,                 Thomas%Samba%NULL%1,                 Jeffery%Edwards%NULL%4,                 Jeffery%Edwards%NULL%0,                 Priyakanta%Nayak%NULL%2,                 Priyakanta%Nayak%NULL%0,                 Katrina%Hann%NULL%0,                 Katrina%Hann%NULL%0,                 Jeffery%Edwards%NULL%0,                 Jeffery%Edwards%NULL%0,                 Katrina%Hann%NULL%0,                 Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,          Jeanne%Salyer%xref no email%1,          Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,          Marta I.%Gomez%xref no email%1,          Lenore%Gensburg%xref no email%1,          Wei%Liu%xref no email%1,          Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,          Howard E.%Alper%xref no email%1,          Angela-Maithy%Nguyen%xref no email%1,          Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,          William%Chaplin%xref no email%1,          Joseph E%Schwartz%xref no email%1,          John%Holland%xref no email%1,          Robert%Alter%xref no email%1,          Ronald%Wheeler%xref no email%1,          Diep%Duong%xref no email%1,          Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                  Renée%El-Gabalawy%null%1,                  Sarvesh%Logsetty%null%1,                  Jitender%Sareen%null%1,               M. Natalie%Husarewycz%null%1,               Renée%El-Gabalawy%null%1,               Sarvesh%Logsetty%null%1,               Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,        Eric%Jougla%null%1,        Anne%Fouillet%null%1,        Gérard%Pavillon%null%1,        Pierre%Bessemoulin%null%1,        Philippe%Frayssinet%null%1,        Jacqueline%Clavel%null%1,        Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                Alaa%Boulad%coreGivesNoEmail%1,                Anand%Irimpen%coreGivesNoEmail%1,                Bradley%Deere%coreGivesNoEmail%1,                Christopher%Westley%coreGivesNoEmail%1,                Hassan%Baydoun%coreGivesNoEmail%1,                Holly%Gonzales%coreGivesNoEmail%1,                Indrajeet%Mahata%coreGivesNoEmail%1,                John%C. Moscona%coreGivesNoEmail%1,                Kapil%Yadav%coreGivesNoEmail%1,                Matthew%N. Peters%coreGivesNoEmail%1,                Patrick%Ters%coreGivesNoEmail%1,                Paul%Katigbak%coreGivesNoEmail%1,                Rohit%Maini%coreGivesNoEmail%1,                Ryan%Nelson%coreGivesNoEmail%1,                Sudesh%Srivastav%coreGivesNoEmail%1,                Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,          C. Lillian%Yau%xref no email%1,          Lizheng%Shi%xref no email%1,          Sharice%Leger%xref no email%1,          Prathima%Nagireddy%xref no email%1,          Jay%Waddadar%xref no email%1,          Prasanth%Surampudi%xref no email%1,          Jennifer%John-Kalarickal%xref no email%1,          Lydia%Yenoby%xref no email%1,          Vivian%Fonseca%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2219,7 +2405,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2248,7 +2434,7 @@
         <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2277,7 +2463,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -2306,7 +2492,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -2335,7 +2521,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -2364,7 +2550,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -2393,7 +2579,7 @@
         <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2422,7 +2608,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2451,7 +2637,7 @@
         <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2480,7 +2666,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2509,7 +2695,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2538,7 +2724,7 @@
         <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2567,7 +2753,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2596,7 +2782,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -2625,7 +2811,7 @@
         <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2654,7 +2840,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2683,7 +2869,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2712,7 +2898,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2741,7 +2927,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2770,7 +2956,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -2799,7 +2985,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -2828,7 +3014,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -2857,7 +3043,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -2886,7 +3072,7 @@
         <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -2915,7 +3101,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -2944,7 +3130,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -2973,7 +3159,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -3002,7 +3188,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -3060,7 +3246,7 @@
         <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3089,7 +3275,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -3118,7 +3304,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="631">
   <si>
     <t>Doi</t>
   </si>
@@ -2068,6 +2068,99 @@
   </si>
   <si>
     <t>[Tina K.%Thethi%xref no email%1,          C. Lillian%Yau%xref no email%1,          Lizheng%Shi%xref no email%1,          Sharice%Leger%xref no email%1,          Prathima%Nagireddy%xref no email%1,          Jay%Waddadar%xref no email%1,          Prasanth%Surampudi%xref no email%1,          Jennifer%John-Kalarickal%xref no email%1,          Lydia%Yenoby%xref no email%1,          Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                   Elsie%Yan%null%1,                   Sally%Jowett%null%1,                Thanos%Karatzias%null%1,                Elsie%Yan%null%1,                Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,           Ziqiang%Lin%xref no email%1,           Emily A.%Lipton%xref no email%1,           Guthrie%Birkhead%xref no email%1,           Michael%Primeau%xref no email%1,           Guang-Hui%Dong%xref no email%1,           Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                  Alan%Cohen%NULL%1,                  Josiane%Courteau%NULL%1,                  Patrick%Bergeron%NULL%1,                  Roxanne%Dault%NULL%1,                  Pierre%Gosselin%NULL%1,                  Claudia%Blais%NULL%1,                  Diane%Bélanger%NULL%1,                  Louis%Rochette%NULL%1,                  Fateh%Chebana%NULL%1,                  Jan%Semenza%NULL%2,                  Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                   Tony T.%Koshy%null%1,                   Joseph%Gilbert%null%1,                   Lauren K.%Burdine%null%1,                   Michael%Marmor%null%1,                   Xiaoxia%Han%null%1,                   Yongzhao%Shao%null%1,                   Claude%Chemtob%null%1,                   Teresa M.%Attina%null%1,                   Elaine M.%Urbina%null%1,                Leonardo%Trasande%null%1,                Tony T.%Koshy%null%1,                Joseph%Gilbert%null%1,                Lauren K.%Burdine%null%1,                Michael%Marmor%null%1,                Xiaoxia%Han%null%1,                Yongzhao%Shao%null%1,                Claude%Chemtob%null%1,                Teresa M.%Attina%null%1,                Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                  Elena N.%Naumova%NULL%1,                  Gitanjali%Singh%NULL%1,                  Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                  Steven D.%Stellman%NULL%1,                  Alfredo%Morabia%NULL%1,                  Sara A.%Miller‐Archie%NULL%1,                  Howard%Alper%NULL%1,                  Zoey%Laskaris%NULL%1,                  Robert M.%Brackbill%NULL%1,                  James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,           Kyoung Jun%Song%xref no email%1,           Sang Do%Shin%xref no email%1,           Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,                 Karen%A. Matthews%coreGivesNoEmail%1,                 Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,         Chris%Houser%null%1,         Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,           Peter G.%van der Velden%xref no email%1,           Linda%Grievink%xref no email%1,           C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                   Socrates V.%Kakoulides%null%1,                   John%Moscona%null%1,                   Jabar%Whittier%null%1,                   Sudesh%Srivastav%null%1,                   Patrice%Delafontaine%null%2,                   Anand%Irimpen%null%1,                Zhen%Jiao%null%1,                Socrates V.%Kakoulides%null%1,                John%Moscona%null%1,                Jabar%Whittier%null%1,                Sudesh%Srivastav%null%1,                Patrice%Delafontaine%null%2,                Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,           Jonathan%Menachem%xref no email%1,           Sudesh K.%Srivastav%xref no email%1,           Patrice%Delafontaine%xref no email%1,           Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                   Shinya%Yumoto%null%1,                   Kazuhisa%Sakaguchi%null%1,                   Chiharu%Shudo%null%1,                   Shiro%Takino%null%1,                   Motohiro%Hashiyama%null%1,                   Yutaka%Kai%null%1,                   Yutaka%Kuroda%null%1,                   Hiroaki%Kawano%null%1,                   Hisao%Ogawa%null%1,                Yasuhiro%Nagayoshi%null%1,                Shinya%Yumoto%null%1,                Kazuhisa%Sakaguchi%null%1,                Chiharu%Shudo%null%1,                Shiro%Takino%null%1,                Motohiro%Hashiyama%null%1,                Yutaka%Kai%null%1,                Yutaka%Kuroda%null%1,                Hiroaki%Kawano%null%1,                Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                   Sara A.%Miller-Archie%null%1,                   James E.%Cone%null%1,                   Alfredo%Morabia%null%1,                   Steven D.%Stellman%null%1,                Hannah T.%Jordan%null%1,                Sara A.%Miller-Archie%null%1,                James E.%Cone%null%1,                Alfredo%Morabia%null%1,                Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,           Prathit A.%Kulkarni%xref no email%1,           Mangala%Rajan%xref no email%0,           Pauline%Thomas%xref no email%1,           Stella%Tsai%xref no email%1,           Christina%Tan%xref no email%1,           Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                  Hayden%Smith%NULL%1,                  Nitesh%Kuhadiya%NULL%1,                  Sharice M.%Leger%NULL%1,                  C. Lillian%Yau%NULL%1,                  Kristi%Reynolds%NULL%1,                  Lizheng%Shi%NULL%1,                  Roberta H.%McDuffie%NULL%1,                  Tina%Thethi%NULL%1,                  Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                   Ana Isabel%Casanegra%null%1,                   Alan%Shapiro%null%1,                   Minh%Phan%null%1,                   Beau%Hawkins%null%1,                   Ji%Li%null%1,                   Julie%Stoner%null%1,                   Alfonso%Tafur%null%1,                Federico%Silva-Palacios%null%1,                Ana Isabel%Casanegra%null%1,                Alan%Shapiro%null%1,                Minh%Phan%null%1,                Beau%Hawkins%null%1,                Ji%Li%null%1,                Julie%Stoner%null%1,                Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                  La Ngoc%Quang%NULL%1,                  Le Thi%Thanh Ha%NULL%1,                  Tran Thi%Duc Hanh%NULL%1,                  Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,                 Bouter%L M%coreGivesNoEmail%1,                 Bramsen%I%coreGivesNoEmail%1,                 Huizink%A C%coreGivesNoEmail%1,                 Slottje%P%coreGivesNoEmail%1,                 Smid%T%coreGivesNoEmail%1,                 Smidt%N%coreGivesNoEmail%1,                 Twisk%J W R%coreGivesNoEmail%1,                 van%der Ploeg H M%coreGivesNoEmail%1,                 van%Mechelen W%coreGivesNoEmail%1,                 Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                   Robert M%Brackbill%null%1,                   James E%Cone%null%1,                   Indira%Debchoudhury%null%1,                   Mark R%Farfel%null%1,                   Carolyn M%Greene%null%1,                   James L%Hadler%null%1,                   Joseph%Kennedy%null%1,                   Jiehui%Li%null%1,                   Jonathan%Liff%null%1,                   Leslie%Stayner%null%1,                   Steven D%Stellman%null%1,                Hannah T%Jordan%null%1,                Robert M%Brackbill%null%1,                James E%Cone%null%1,                Indira%Debchoudhury%null%1,                Mark R%Farfel%null%1,                Carolyn M%Greene%null%1,                James L%Hadler%null%1,                Joseph%Kennedy%null%1,                Jiehui%Li%null%1,                Jonathan%Liff%null%1,                Leslie%Stayner%null%1,                Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,           R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                   Morgan J.%Katz%null%1,                   John C.%Moscona%null%1,                   Mohi E.%Alkadri%null%1,                   Rashad H.%Khazi Syed%null%1,                   Thomas A.%Turnage%null%1,                   Vikram S.%Nijjar%null%1,                   Mohannad B.%Bisharat%null%1,                   Patrice%Delafontaine%null%0,                   Anand M.%Irimpen%null%1,                Matthew N.%Peters%null%1,                Morgan J.%Katz%null%1,                John C.%Moscona%null%1,                Mohi E.%Alkadri%null%1,                Rashad H.%Khazi Syed%null%1,                Thomas A.%Turnage%null%1,                Vikram S.%Nijjar%null%1,                Mohannad B.%Bisharat%null%1,                Patrice%Delafontaine%null%0,                Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                  Dena%Javadi%NULL%2,                  Dena%Javadi%NULL%0,                  Katrina%Hann%NULL%5,                  Anthony D%Harries%NULL%2,                  Anthony D%Harries%NULL%0,                  Francis%Smart%NULL%2,                  Francis%Smart%NULL%0,                  Thomas%Samba%NULL%1,                  Jeffery%Edwards%NULL%4,                  Jeffery%Edwards%NULL%0,                  Priyakanta%Nayak%NULL%2,                  Priyakanta%Nayak%NULL%0,                  Katrina%Hann%NULL%0,                  Katrina%Hann%NULL%0,                  Jeffery%Edwards%NULL%0,                  Jeffery%Edwards%NULL%0,                  Katrina%Hann%NULL%0,                  Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,           Jeanne%Salyer%xref no email%1,           Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,           Marta I.%Gomez%xref no email%1,           Lenore%Gensburg%xref no email%1,           Wei%Liu%xref no email%0,           Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,           Howard E.%Alper%xref no email%1,           Angela-Maithy%Nguyen%xref no email%1,           Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,           William%Chaplin%xref no email%1,           Joseph E%Schwartz%xref no email%1,           John%Holland%xref no email%1,           Robert%Alter%xref no email%1,           Ronald%Wheeler%xref no email%1,           Diep%Duong%xref no email%1,           Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                   Renée%El-Gabalawy%null%1,                   Sarvesh%Logsetty%null%1,                   Jitender%Sareen%null%1,                M. Natalie%Husarewycz%null%1,                Renée%El-Gabalawy%null%1,                Sarvesh%Logsetty%null%1,                Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,         Eric%Jougla%null%1,         Anne%Fouillet%null%1,         Gérard%Pavillon%null%1,         Pierre%Bessemoulin%null%1,         Philippe%Frayssinet%null%1,         Jacqueline%Clavel%null%1,         Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                 Alaa%Boulad%coreGivesNoEmail%1,                 Anand%Irimpen%coreGivesNoEmail%1,                 Bradley%Deere%coreGivesNoEmail%1,                 Christopher%Westley%coreGivesNoEmail%1,                 Hassan%Baydoun%coreGivesNoEmail%1,                 Holly%Gonzales%coreGivesNoEmail%1,                 Indrajeet%Mahata%coreGivesNoEmail%1,                 John%C. Moscona%coreGivesNoEmail%1,                 Kapil%Yadav%coreGivesNoEmail%1,                 Matthew%N. Peters%coreGivesNoEmail%1,                 Patrick%Ters%coreGivesNoEmail%1,                 Paul%Katigbak%coreGivesNoEmail%1,                 Rohit%Maini%coreGivesNoEmail%1,                 Ryan%Nelson%coreGivesNoEmail%1,                 Sudesh%Srivastav%coreGivesNoEmail%1,                 Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,           C. Lillian%Yau%xref no email%1,           Lizheng%Shi%xref no email%1,           Sharice%Leger%xref no email%1,           Prathima%Nagireddy%xref no email%1,           Jay%Waddadar%xref no email%1,           Prasanth%Surampudi%xref no email%1,           Jennifer%John-Kalarickal%xref no email%1,           Lydia%Yenoby%xref no email%1,           Vivian%Fonseca%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2405,7 +2498,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2434,7 +2527,7 @@
         <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>570</v>
+        <v>601</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2463,7 +2556,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -2492,7 +2585,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -2521,7 +2614,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>573</v>
+        <v>604</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -2550,7 +2643,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -2579,7 +2672,7 @@
         <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2608,7 +2701,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2637,7 +2730,7 @@
         <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>577</v>
+        <v>608</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2666,7 +2759,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2695,7 +2788,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2724,7 +2817,7 @@
         <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2753,7 +2846,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2782,7 +2875,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -2811,7 +2904,7 @@
         <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2840,7 +2933,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2869,7 +2962,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2898,7 +2991,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2927,7 +3020,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2956,7 +3049,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -2985,7 +3078,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -3014,7 +3107,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -3043,7 +3136,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -3072,7 +3165,7 @@
         <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -3101,7 +3194,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -3130,7 +3223,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3159,7 +3252,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -3188,7 +3281,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -3246,7 +3339,7 @@
         <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3275,7 +3368,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -3304,7 +3397,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="667">
   <si>
     <t>Doi</t>
   </si>
@@ -2161,6 +2161,114 @@
   </si>
   <si>
     <t>[Tina K.%Thethi%xref no email%1,           C. Lillian%Yau%xref no email%1,           Lizheng%Shi%xref no email%1,           Sharice%Leger%xref no email%1,           Prathima%Nagireddy%xref no email%1,           Jay%Waddadar%xref no email%1,           Prasanth%Surampudi%xref no email%1,           Jennifer%John-Kalarickal%xref no email%1,           Lydia%Yenoby%xref no email%1,           Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                    Elsie%Yan%null%1,                    Sally%Jowett%null%1,                 Thanos%Karatzias%null%1,                 Elsie%Yan%null%1,                 Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,            Ziqiang%Lin%xref no email%1,            Emily A.%Lipton%xref no email%1,            Guthrie%Birkhead%xref no email%1,            Michael%Primeau%xref no email%1,            Guang-Hui%Dong%xref no email%1,            Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                   Alan%Cohen%NULL%1,                   Josiane%Courteau%NULL%1,                   Patrick%Bergeron%NULL%1,                   Roxanne%Dault%NULL%1,                   Pierre%Gosselin%NULL%1,                   Claudia%Blais%NULL%1,                   Diane%Bélanger%NULL%1,                   Louis%Rochette%NULL%1,                   Fateh%Chebana%NULL%1,                   Jan%Semenza%NULL%2,                   Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                    Tony T.%Koshy%null%1,                    Joseph%Gilbert%null%1,                    Lauren K.%Burdine%null%1,                    Michael%Marmor%null%1,                    Xiaoxia%Han%null%1,                    Yongzhao%Shao%null%1,                    Claude%Chemtob%null%1,                    Teresa M.%Attina%null%1,                    Elaine M.%Urbina%null%1,                 Leonardo%Trasande%null%1,                 Tony T.%Koshy%null%1,                 Joseph%Gilbert%null%1,                 Lauren K.%Burdine%null%1,                 Michael%Marmor%null%1,                 Xiaoxia%Han%null%1,                 Yongzhao%Shao%null%1,                 Claude%Chemtob%null%1,                 Teresa M.%Attina%null%1,                 Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                   Elena N.%Naumova%NULL%1,                   Gitanjali%Singh%NULL%1,                   Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                   Steven D.%Stellman%NULL%1,                   Alfredo%Morabia%NULL%1,                   Sara A.%Miller‐Archie%NULL%1,                   Howard%Alper%NULL%1,                   Zoey%Laskaris%NULL%1,                   Robert M.%Brackbill%NULL%1,                   James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,            Kyoung Jun%Song%xref no email%1,            Sang Do%Shin%xref no email%1,            Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,                  Karen%A. Matthews%coreGivesNoEmail%1,                  Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,          Chris%Houser%null%1,          Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,            Peter G.%van der Velden%xref no email%1,            Linda%Grievink%xref no email%1,            C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                    Socrates V.%Kakoulides%null%1,                    John%Moscona%null%1,                    Jabar%Whittier%null%1,                    Sudesh%Srivastav%null%1,                    Patrice%Delafontaine%null%2,                    Anand%Irimpen%null%1,                 Zhen%Jiao%null%1,                 Socrates V.%Kakoulides%null%1,                 John%Moscona%null%1,                 Jabar%Whittier%null%1,                 Sudesh%Srivastav%null%1,                 Patrice%Delafontaine%null%2,                 Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,            Jonathan%Menachem%xref no email%1,            Sudesh K.%Srivastav%xref no email%1,            Patrice%Delafontaine%xref no email%1,            Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                    Shinya%Yumoto%null%1,                    Kazuhisa%Sakaguchi%null%1,                    Chiharu%Shudo%null%1,                    Shiro%Takino%null%1,                    Motohiro%Hashiyama%null%1,                    Yutaka%Kai%null%1,                    Yutaka%Kuroda%null%1,                    Hiroaki%Kawano%null%1,                    Hisao%Ogawa%null%1,                 Yasuhiro%Nagayoshi%null%1,                 Shinya%Yumoto%null%1,                 Kazuhisa%Sakaguchi%null%1,                 Chiharu%Shudo%null%1,                 Shiro%Takino%null%1,                 Motohiro%Hashiyama%null%1,                 Yutaka%Kai%null%1,                 Yutaka%Kuroda%null%1,                 Hiroaki%Kawano%null%1,                 Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                    Sara A.%Miller-Archie%null%1,                    James E.%Cone%null%1,                    Alfredo%Morabia%null%1,                    Steven D.%Stellman%null%1,                 Hannah T.%Jordan%null%1,                 Sara A.%Miller-Archie%null%1,                 James E.%Cone%null%1,                 Alfredo%Morabia%null%1,                 Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,            Prathit A.%Kulkarni%xref no email%1,            Mangala%Rajan%xref no email%1,            Pauline%Thomas%xref no email%1,            Stella%Tsai%xref no email%1,            Christina%Tan%xref no email%1,            Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                   Hayden%Smith%NULL%1,                   Nitesh%Kuhadiya%NULL%1,                   Sharice M.%Leger%NULL%1,                   C. Lillian%Yau%NULL%1,                   Kristi%Reynolds%NULL%1,                   Lizheng%Shi%NULL%1,                   Roberta H.%McDuffie%NULL%1,                   Tina%Thethi%NULL%1,                   Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                    Ana Isabel%Casanegra%null%1,                    Alan%Shapiro%null%1,                    Minh%Phan%null%1,                    Beau%Hawkins%null%1,                    Ji%Li%null%1,                    Julie%Stoner%null%1,                    Alfonso%Tafur%null%1,                 Federico%Silva-Palacios%null%1,                 Ana Isabel%Casanegra%null%1,                 Alan%Shapiro%null%1,                 Minh%Phan%null%1,                 Beau%Hawkins%null%1,                 Ji%Li%null%1,                 Julie%Stoner%null%1,                 Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                   La Ngoc%Quang%NULL%1,                   Le Thi%Thanh Ha%NULL%1,                   Tran Thi%Duc Hanh%NULL%1,                   Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,                  Bouter%L M%coreGivesNoEmail%1,                  Bramsen%I%coreGivesNoEmail%1,                  Huizink%A C%coreGivesNoEmail%1,                  Slottje%P%coreGivesNoEmail%1,                  Smid%T%coreGivesNoEmail%1,                  Smidt%N%coreGivesNoEmail%1,                  Twisk%J W R%coreGivesNoEmail%1,                  van%der Ploeg H M%coreGivesNoEmail%1,                  van%Mechelen W%coreGivesNoEmail%1,                  Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                    Robert M%Brackbill%null%1,                    James E%Cone%null%1,                    Indira%Debchoudhury%null%1,                    Mark R%Farfel%null%1,                    Carolyn M%Greene%null%1,                    James L%Hadler%null%1,                    Joseph%Kennedy%null%1,                    Jiehui%Li%null%1,                    Jonathan%Liff%null%1,                    Leslie%Stayner%null%1,                    Steven D%Stellman%null%1,                 Hannah T%Jordan%null%1,                 Robert M%Brackbill%null%1,                 James E%Cone%null%1,                 Indira%Debchoudhury%null%1,                 Mark R%Farfel%null%1,                 Carolyn M%Greene%null%1,                 James L%Hadler%null%1,                 Joseph%Kennedy%null%1,                 Jiehui%Li%null%1,                 Jonathan%Liff%null%1,                 Leslie%Stayner%null%1,                 Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,            R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                    Morgan J.%Katz%null%1,                    John C.%Moscona%null%1,                    Mohi E.%Alkadri%null%1,                    Rashad H.%Khazi Syed%null%1,                    Thomas A.%Turnage%null%1,                    Vikram S.%Nijjar%null%1,                    Mohannad B.%Bisharat%null%1,                    Patrice%Delafontaine%null%0,                    Anand M.%Irimpen%null%1,                 Matthew N.%Peters%null%1,                 Morgan J.%Katz%null%1,                 John C.%Moscona%null%1,                 Mohi E.%Alkadri%null%1,                 Rashad H.%Khazi Syed%null%1,                 Thomas A.%Turnage%null%1,                 Vikram S.%Nijjar%null%1,                 Mohannad B.%Bisharat%null%1,                 Patrice%Delafontaine%null%0,                 Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                   Dena%Javadi%NULL%2,                   Dena%Javadi%NULL%0,                   Katrina%Hann%NULL%5,                   Anthony D%Harries%NULL%2,                   Anthony D%Harries%NULL%0,                   Francis%Smart%NULL%2,                   Francis%Smart%NULL%0,                   Thomas%Samba%NULL%1,                   Jeffery%Edwards%NULL%4,                   Jeffery%Edwards%NULL%0,                   Priyakanta%Nayak%NULL%2,                   Priyakanta%Nayak%NULL%0,                   Katrina%Hann%NULL%0,                   Katrina%Hann%NULL%0,                   Jeffery%Edwards%NULL%0,                   Jeffery%Edwards%NULL%0,                   Katrina%Hann%NULL%0,                   Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,            Jeanne%Salyer%xref no email%1,            Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,            Marta I.%Gomez%xref no email%1,            Lenore%Gensburg%xref no email%1,            Wei%Liu%xref no email%1,            Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,            Howard E.%Alper%xref no email%1,            Angela-Maithy%Nguyen%xref no email%1,            Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,            William%Chaplin%xref no email%1,            Joseph E%Schwartz%xref no email%1,            John%Holland%xref no email%1,            Robert%Alter%xref no email%1,            Ronald%Wheeler%xref no email%1,            Diep%Duong%xref no email%1,            Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                    Renée%El-Gabalawy%null%1,                    Sarvesh%Logsetty%null%1,                    Jitender%Sareen%null%1,                 M. Natalie%Husarewycz%null%1,                 Renée%El-Gabalawy%null%1,                 Sarvesh%Logsetty%null%1,                 Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>"The effect of extensive flooding in Hull on the glycaemic control of patients with diabetes"</t>
+  </si>
+  <si>
+    <t>[J.%Ng%xref no email%1, S. L.%Atkin%xref no email%1, A. S.%Rigby%xref no email%1, C.%Walton%xref no email%1, E. S.%Kilpatrick%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,          Eric%Jougla%null%1,          Anne%Fouillet%null%1,          Gérard%Pavillon%null%1,          Pierre%Bessemoulin%null%1,          Philippe%Frayssinet%null%1,          Jacqueline%Clavel%null%1,          Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                  Alaa%Boulad%coreGivesNoEmail%1,                  Anand%Irimpen%coreGivesNoEmail%1,                  Bradley%Deere%coreGivesNoEmail%1,                  Christopher%Westley%coreGivesNoEmail%1,                  Hassan%Baydoun%coreGivesNoEmail%1,                  Holly%Gonzales%coreGivesNoEmail%1,                  Indrajeet%Mahata%coreGivesNoEmail%1,                  John%C. Moscona%coreGivesNoEmail%1,                  Kapil%Yadav%coreGivesNoEmail%1,                  Matthew%N. Peters%coreGivesNoEmail%1,                  Patrick%Ters%coreGivesNoEmail%1,                  Paul%Katigbak%coreGivesNoEmail%1,                  Rohit%Maini%coreGivesNoEmail%1,                  Ryan%Nelson%coreGivesNoEmail%1,                  Sudesh%Srivastav%coreGivesNoEmail%1,                  Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,            C. Lillian%Yau%xref no email%1,            Lizheng%Shi%xref no email%1,            Sharice%Leger%xref no email%1,            Prathima%Nagireddy%xref no email%1,            Jay%Waddadar%xref no email%1,            Prasanth%Surampudi%xref no email%1,            Jennifer%John-Kalarickal%xref no email%1,            Lydia%Yenoby%xref no email%1,            Vivian%Fonseca%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2498,7 +2606,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2510,7 +2618,7 @@
         <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3">
@@ -2527,7 +2635,7 @@
         <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2539,7 +2647,7 @@
         <v>269</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4">
@@ -2556,7 +2664,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -2568,7 +2676,7 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5">
@@ -2585,7 +2693,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -2597,7 +2705,7 @@
         <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6">
@@ -2614,7 +2722,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -2626,7 +2734,7 @@
         <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>185</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7">
@@ -2643,7 +2751,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -2655,7 +2763,7 @@
         <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8">
@@ -2672,7 +2780,7 @@
         <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2684,7 +2792,7 @@
         <v>277</v>
       </c>
       <c r="I8" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9">
@@ -2701,7 +2809,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2713,7 +2821,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10">
@@ -2730,7 +2838,7 @@
         <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2742,7 +2850,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11">
@@ -2759,7 +2867,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2771,7 +2879,7 @@
         <v>282</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12">
@@ -2788,7 +2896,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2800,7 +2908,7 @@
         <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13">
@@ -2817,7 +2925,7 @@
         <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2829,7 +2937,7 @@
         <v>287</v>
       </c>
       <c r="I13" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14">
@@ -2846,7 +2954,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2858,7 +2966,7 @@
         <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15">
@@ -2875,7 +2983,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>613</v>
+        <v>646</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -2887,7 +2995,7 @@
         <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16">
@@ -2904,7 +3012,7 @@
         <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2916,7 +3024,7 @@
         <v>269</v>
       </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17">
@@ -2933,7 +3041,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>615</v>
+        <v>648</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2945,7 +3053,7 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18">
@@ -2962,7 +3070,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2974,7 +3082,7 @@
         <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19">
@@ -2991,7 +3099,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>617</v>
+        <v>650</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3003,7 +3111,7 @@
         <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20">
@@ -3020,7 +3128,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -3032,7 +3140,7 @@
         <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21">
@@ -3049,7 +3157,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -3061,7 +3169,7 @@
         <v>115</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22">
@@ -3078,7 +3186,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -3090,7 +3198,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23">
@@ -3107,7 +3215,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>621</v>
+        <v>654</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -3119,7 +3227,7 @@
         <v>120</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24">
@@ -3136,7 +3244,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -3148,7 +3256,7 @@
         <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25">
@@ -3165,7 +3273,7 @@
         <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>623</v>
+        <v>656</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -3177,7 +3285,7 @@
         <v>306</v>
       </c>
       <c r="I25" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26">
@@ -3194,7 +3302,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -3206,7 +3314,7 @@
         <v>309</v>
       </c>
       <c r="I26" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27">
@@ -3223,7 +3331,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>625</v>
+        <v>658</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3235,7 +3343,7 @@
         <v>312</v>
       </c>
       <c r="I27" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28">
@@ -3252,7 +3360,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -3264,7 +3372,7 @@
         <v>315</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29">
@@ -3281,7 +3389,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -3293,7 +3401,7 @@
         <v>130</v>
       </c>
       <c r="I29" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30">
@@ -3304,22 +3412,22 @@
         <v>40664.0</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>661</v>
       </c>
       <c r="D30" t="s">
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>662</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>663</v>
       </c>
       <c r="I30" t="s">
         <v>183</v>
@@ -3339,7 +3447,7 @@
         <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3351,7 +3459,7 @@
         <v>134</v>
       </c>
       <c r="I31" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32">
@@ -3368,7 +3476,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -3380,7 +3488,7 @@
         <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33">
@@ -3397,7 +3505,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>
@@ -3409,7 +3517,7 @@
         <v>322</v>
       </c>
       <c r="I33" t="s">
-        <v>183</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="699">
   <si>
     <t>Doi</t>
   </si>
@@ -2269,6 +2269,102 @@
   </si>
   <si>
     <t>[Tina K.%Thethi%xref no email%1,            C. Lillian%Yau%xref no email%1,            Lizheng%Shi%xref no email%1,            Sharice%Leger%xref no email%1,            Prathima%Nagireddy%xref no email%1,            Jay%Waddadar%xref no email%1,            Prasanth%Surampudi%xref no email%1,            Jennifer%John-Kalarickal%xref no email%1,            Lydia%Yenoby%xref no email%1,            Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                     Elsie%Yan%null%1,                     Sally%Jowett%null%1,                  Thanos%Karatzias%null%1,                  Elsie%Yan%null%1,                  Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%1,             Ziqiang%Lin%xref no email%1,             Emily A.%Lipton%xref no email%1,             Guthrie%Birkhead%xref no email%1,             Michael%Primeau%xref no email%1,             Guang-Hui%Dong%xref no email%1,             Shao%Lin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                    Alan%Cohen%NULL%1,                    Josiane%Courteau%NULL%1,                    Patrick%Bergeron%NULL%1,                    Roxanne%Dault%NULL%1,                    Pierre%Gosselin%NULL%1,                    Claudia%Blais%NULL%1,                    Diane%Bélanger%NULL%1,                    Louis%Rochette%NULL%1,                    Fateh%Chebana%NULL%1,                    Jan%Semenza%NULL%2,                    Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                     Tony T.%Koshy%null%1,                     Joseph%Gilbert%null%1,                     Lauren K.%Burdine%null%1,                     Michael%Marmor%null%1,                     Xiaoxia%Han%null%1,                     Yongzhao%Shao%null%1,                     Claude%Chemtob%null%1,                     Teresa M.%Attina%null%1,                     Elaine M.%Urbina%null%1,                  Leonardo%Trasande%null%1,                  Tony T.%Koshy%null%1,                  Joseph%Gilbert%null%1,                  Lauren K.%Burdine%null%1,                  Michael%Marmor%null%1,                  Xiaoxia%Han%null%1,                  Yongzhao%Shao%null%1,                  Claude%Chemtob%null%1,                  Teresa M.%Attina%null%1,                  Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                    Elena N.%Naumova%NULL%1,                    Gitanjali%Singh%NULL%1,                    Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                    Steven D.%Stellman%NULL%1,                    Alfredo%Morabia%NULL%1,                    Sara A.%Miller‐Archie%NULL%1,                    Howard%Alper%NULL%1,                    Zoey%Laskaris%NULL%1,                    Robert M.%Brackbill%NULL%1,                    James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%1,             Kyoung Jun%Song%xref no email%1,             Sang Do%Shin%xref no email%1,             Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,                   Karen%A. Matthews%coreGivesNoEmail%1,                   Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,           Chris%Houser%null%1,           Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%1,             Peter G.%van der Velden%xref no email%1,             Linda%Grievink%xref no email%1,             C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                     Socrates V.%Kakoulides%null%1,                     John%Moscona%null%1,                     Jabar%Whittier%null%1,                     Sudesh%Srivastav%null%1,                     Patrice%Delafontaine%null%2,                     Anand%Irimpen%null%1,                  Zhen%Jiao%null%1,                  Socrates V.%Kakoulides%null%1,                  John%Moscona%null%1,                  Jabar%Whittier%null%1,                  Sudesh%Srivastav%null%1,                  Patrice%Delafontaine%null%2,                  Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%1,             Jonathan%Menachem%xref no email%1,             Sudesh K.%Srivastav%xref no email%1,             Patrice%Delafontaine%xref no email%1,             Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                     Shinya%Yumoto%null%1,                     Kazuhisa%Sakaguchi%null%1,                     Chiharu%Shudo%null%1,                     Shiro%Takino%null%1,                     Motohiro%Hashiyama%null%1,                     Yutaka%Kai%null%1,                     Yutaka%Kuroda%null%1,                     Hiroaki%Kawano%null%1,                     Hisao%Ogawa%null%1,                  Yasuhiro%Nagayoshi%null%1,                  Shinya%Yumoto%null%1,                  Kazuhisa%Sakaguchi%null%1,                  Chiharu%Shudo%null%1,                  Shiro%Takino%null%1,                  Motohiro%Hashiyama%null%1,                  Yutaka%Kai%null%1,                  Yutaka%Kuroda%null%1,                  Hiroaki%Kawano%null%1,                  Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                     Sara A.%Miller-Archie%null%1,                     James E.%Cone%null%1,                     Alfredo%Morabia%null%1,                     Steven D.%Stellman%null%1,                  Hannah T.%Jordan%null%1,                  Sara A.%Miller-Archie%null%1,                  James E.%Cone%null%1,                  Alfredo%Morabia%null%1,                  Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%1,             Prathit A.%Kulkarni%xref no email%1,             Mangala%Rajan%xref no email%1,             Pauline%Thomas%xref no email%1,             Stella%Tsai%xref no email%1,             Christina%Tan%xref no email%1,             Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                    Hayden%Smith%NULL%1,                    Nitesh%Kuhadiya%NULL%1,                    Sharice M.%Leger%NULL%1,                    C. Lillian%Yau%NULL%1,                    Kristi%Reynolds%NULL%1,                    Lizheng%Shi%NULL%1,                    Roberta H.%McDuffie%NULL%1,                    Tina%Thethi%NULL%1,                    Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                     Ana Isabel%Casanegra%null%1,                     Alan%Shapiro%null%1,                     Minh%Phan%null%1,                     Beau%Hawkins%null%1,                     Ji%Li%null%1,                     Julie%Stoner%null%1,                     Alfonso%Tafur%null%1,                  Federico%Silva-Palacios%null%1,                  Ana Isabel%Casanegra%null%1,                  Alan%Shapiro%null%1,                  Minh%Phan%null%1,                  Beau%Hawkins%null%1,                  Ji%Li%null%1,                  Julie%Stoner%null%1,                  Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                    La Ngoc%Quang%NULL%1,                    Le Thi%Thanh Ha%NULL%1,                    Tran Thi%Duc Hanh%NULL%1,                    Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,                   Bouter%L M%coreGivesNoEmail%1,                   Bramsen%I%coreGivesNoEmail%1,                   Huizink%A C%coreGivesNoEmail%1,                   Slottje%P%coreGivesNoEmail%1,                   Smid%T%coreGivesNoEmail%1,                   Smidt%N%coreGivesNoEmail%1,                   Twisk%J W R%coreGivesNoEmail%1,                   van%der Ploeg H M%coreGivesNoEmail%1,                   van%Mechelen W%coreGivesNoEmail%1,                   Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                     Robert M%Brackbill%null%1,                     James E%Cone%null%1,                     Indira%Debchoudhury%null%1,                     Mark R%Farfel%null%1,                     Carolyn M%Greene%null%1,                     James L%Hadler%null%1,                     Joseph%Kennedy%null%1,                     Jiehui%Li%null%1,                     Jonathan%Liff%null%1,                     Leslie%Stayner%null%1,                     Steven D%Stellman%null%1,                  Hannah T%Jordan%null%1,                  Robert M%Brackbill%null%1,                  James E%Cone%null%1,                  Indira%Debchoudhury%null%1,                  Mark R%Farfel%null%1,                  Carolyn M%Greene%null%1,                  James L%Hadler%null%1,                  Joseph%Kennedy%null%1,                  Jiehui%Li%null%1,                  Jonathan%Liff%null%1,                  Leslie%Stayner%null%1,                  Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%1,             R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                     Morgan J.%Katz%null%1,                     John C.%Moscona%null%1,                     Mohi E.%Alkadri%null%1,                     Rashad H.%Khazi Syed%null%1,                     Thomas A.%Turnage%null%1,                     Vikram S.%Nijjar%null%1,                     Mohannad B.%Bisharat%null%1,                     Patrice%Delafontaine%null%0,                     Anand M.%Irimpen%null%1,                  Matthew N.%Peters%null%1,                  Morgan J.%Katz%null%1,                  John C.%Moscona%null%1,                  Mohi E.%Alkadri%null%1,                  Rashad H.%Khazi Syed%null%1,                  Thomas A.%Turnage%null%1,                  Vikram S.%Nijjar%null%1,                  Mohannad B.%Bisharat%null%1,                  Patrice%Delafontaine%null%0,                  Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                    Dena%Javadi%NULL%2,                    Dena%Javadi%NULL%0,                    Katrina%Hann%NULL%5,                    Anthony D%Harries%NULL%2,                    Anthony D%Harries%NULL%0,                    Francis%Smart%NULL%2,                    Francis%Smart%NULL%0,                    Thomas%Samba%NULL%1,                    Jeffery%Edwards%NULL%4,                    Jeffery%Edwards%NULL%0,                    Priyakanta%Nayak%NULL%2,                    Priyakanta%Nayak%NULL%0,                    Katrina%Hann%NULL%0,                    Katrina%Hann%NULL%0,                    Jeffery%Edwards%NULL%0,                    Jeffery%Edwards%NULL%0,                    Katrina%Hann%NULL%0,                    Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%1,             Jeanne%Salyer%xref no email%1,             Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shao%Lin%xref no email%1,             Marta I.%Gomez%xref no email%1,             Lenore%Gensburg%xref no email%1,             Wei%Liu%xref no email%1,             Syni-An%Hwang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%1,             Howard E.%Alper%xref no email%1,             Angela-Maithy%Nguyen%xref no email%1,             Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%1,             William%Chaplin%xref no email%1,             Joseph E%Schwartz%xref no email%1,             John%Holland%xref no email%1,             Robert%Alter%xref no email%1,             Ronald%Wheeler%xref no email%1,             Diep%Duong%xref no email%1,             Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                     Renée%El-Gabalawy%null%1,                     Sarvesh%Logsetty%null%1,                     Jitender%Sareen%null%1,                  M. Natalie%Husarewycz%null%1,                  Renée%El-Gabalawy%null%1,                  Sarvesh%Logsetty%null%1,                  Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[J.%Ng%xref no email%1,  S. L.%Atkin%xref no email%1,  A. S.%Rigby%xref no email%1,  C.%Walton%xref no email%1,  E. S.%Kilpatrick%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,           Eric%Jougla%null%1,           Anne%Fouillet%null%1,           Gérard%Pavillon%null%1,           Pierre%Bessemoulin%null%1,           Philippe%Frayssinet%null%1,           Jacqueline%Clavel%null%1,           Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                   Alaa%Boulad%coreGivesNoEmail%1,                   Anand%Irimpen%coreGivesNoEmail%1,                   Bradley%Deere%coreGivesNoEmail%1,                   Christopher%Westley%coreGivesNoEmail%1,                   Hassan%Baydoun%coreGivesNoEmail%1,                   Holly%Gonzales%coreGivesNoEmail%1,                   Indrajeet%Mahata%coreGivesNoEmail%1,                   John%C. Moscona%coreGivesNoEmail%1,                   Kapil%Yadav%coreGivesNoEmail%1,                   Matthew%N. Peters%coreGivesNoEmail%1,                   Patrick%Ters%coreGivesNoEmail%1,                   Paul%Katigbak%coreGivesNoEmail%1,                   Rohit%Maini%coreGivesNoEmail%1,                   Ryan%Nelson%coreGivesNoEmail%1,                   Sudesh%Srivastav%coreGivesNoEmail%1,                   Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%1,             C. Lillian%Yau%xref no email%1,             Lizheng%Shi%xref no email%1,             Sharice%Leger%xref no email%1,             Prathima%Nagireddy%xref no email%1,             Jay%Waddadar%xref no email%1,             Prasanth%Surampudi%xref no email%1,             Jennifer%John-Kalarickal%xref no email%1,             Lydia%Yenoby%xref no email%1,             Vivian%Fonseca%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2606,7 +2702,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2635,7 +2731,7 @@
         <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>633</v>
+        <v>668</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2664,7 +2760,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -2693,7 +2789,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -2722,7 +2818,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -2751,7 +2847,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -2780,7 +2876,7 @@
         <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>639</v>
+        <v>673</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2809,7 +2905,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2838,7 +2934,7 @@
         <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2867,7 +2963,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2896,7 +2992,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2925,7 +3021,7 @@
         <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2954,7 +3050,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2983,7 +3079,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -3012,7 +3108,7 @@
         <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -3041,7 +3137,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -3070,7 +3166,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -3099,7 +3195,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3128,7 +3224,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -3157,7 +3253,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -3186,7 +3282,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -3215,7 +3311,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>654</v>
+        <v>688</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -3244,7 +3340,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -3273,7 +3369,7 @@
         <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>656</v>
+        <v>690</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -3302,7 +3398,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -3331,7 +3427,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3360,7 +3456,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -3389,7 +3485,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -3418,7 +3514,7 @@
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -3447,7 +3543,7 @@
         <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3476,7 +3572,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -3505,7 +3601,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6143" uniqueCount="824">
   <si>
     <t>Doi</t>
   </si>
@@ -2365,6 +2365,381 @@
   </si>
   <si>
     <t>[Tina K.%Thethi%xref no email%1,             C. Lillian%Yau%xref no email%1,             Lizheng%Shi%xref no email%1,             Sharice%Leger%xref no email%1,             Prathima%Nagireddy%xref no email%1,             Jay%Waddadar%xref no email%1,             Prasanth%Surampudi%xref no email%1,             Jennifer%John-Kalarickal%xref no email%1,             Lydia%Yenoby%xref no email%1,             Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                      Elsie%Yan%null%1,                      Sally%Jowett%null%1,                   Thanos%Karatzias%null%1,                   Elsie%Yan%null%1,                   Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Wayne R.%Lawrence%xref no email%0, Ziqiang%Lin%xref no email%1, Emily A.%Lipton%xref no email%1, Guthrie%Birkhead%xref no email%1, Michael%Primeau%xref no email%1, Guang-Hui%Dong%xref no email%1, Shao%Lin%xref no email%0]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Cambridge University Press (CUP)</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                     Alan%Cohen%NULL%1,                     Josiane%Courteau%NULL%1,                     Patrick%Bergeron%NULL%1,                     Roxanne%Dault%NULL%1,                     Pierre%Gosselin%NULL%1,                     Claudia%Blais%NULL%1,                     Diane%Bélanger%NULL%1,                     Louis%Rochette%NULL%1,                     Fateh%Chebana%NULL%1,                     Jan%Semenza%NULL%2,                     Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                      Tony T.%Koshy%null%1,                      Joseph%Gilbert%null%1,                      Lauren K.%Burdine%null%1,                      Michael%Marmor%null%1,                      Xiaoxia%Han%null%1,                      Yongzhao%Shao%null%1,                      Claude%Chemtob%null%1,                      Teresa M.%Attina%null%1,                      Elaine M.%Urbina%null%1,                   Leonardo%Trasande%null%1,                   Tony T.%Koshy%null%1,                   Joseph%Gilbert%null%1,                   Lauren K.%Burdine%null%1,                   Michael%Marmor%null%1,                   Xiaoxia%Han%null%1,                   Yongzhao%Shao%null%1,                   Claude%Chemtob%null%1,                   Teresa M.%Attina%null%1,                   Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                     Elena N.%Naumova%NULL%1,                     Gitanjali%Singh%NULL%1,                     Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                     Steven D.%Stellman%NULL%1,                     Alfredo%Morabia%NULL%1,                     Sara A.%Miller‐Archie%NULL%1,                     Howard%Alper%NULL%1,                     Zoey%Laskaris%NULL%1,                     Robert M.%Brackbill%NULL%1,                     James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[So Yeon%Kong%xref no email%0, Kyoung Jun%Song%xref no email%1, Sang Do%Shin%xref no email%1, Young Sun%Ro%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,                    Karen%A. Matthews%coreGivesNoEmail%1,                    Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,            Chris%Houser%null%1,            Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[Anja J. E.%Dirkzwager%xref no email%0, Peter G.%van der Velden%xref no email%1, Linda%Grievink%xref no email%1, C Joris%Yzermans%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                      Socrates V.%Kakoulides%null%1,                      John%Moscona%null%1,                      Jabar%Whittier%null%1,                      Sudesh%Srivastav%null%1,                      Patrice%Delafontaine%null%2,                      Anand%Irimpen%null%1,                   Zhen%Jiao%null%1,                   Socrates V.%Kakoulides%null%1,                   John%Moscona%null%1,                   Jabar%Whittier%null%1,                   Sudesh%Srivastav%null%1,                   Patrice%Delafontaine%null%2,                   Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Gautam%xref no email%0, Jonathan%Menachem%xref no email%1, Sudesh K.%Srivastav%xref no email%1, Patrice%Delafontaine%xref no email%1, Anand%Irimpen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                      Shinya%Yumoto%null%1,                      Kazuhisa%Sakaguchi%null%1,                      Chiharu%Shudo%null%1,                      Shiro%Takino%null%1,                      Motohiro%Hashiyama%null%1,                      Yutaka%Kai%null%1,                      Yutaka%Kuroda%null%1,                      Hiroaki%Kawano%null%1,                      Hisao%Ogawa%null%1,                   Yasuhiro%Nagayoshi%null%1,                   Shinya%Yumoto%null%1,                   Kazuhisa%Sakaguchi%null%1,                   Chiharu%Shudo%null%1,                   Shiro%Takino%null%1,                   Motohiro%Hashiyama%null%1,                   Yutaka%Kai%null%1,                   Yutaka%Kuroda%null%1,                   Hiroaki%Kawano%null%1,                   Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                      Sara A.%Miller-Archie%null%1,                      James E.%Cone%null%1,                      Alfredo%Morabia%null%1,                      Steven D.%Stellman%null%1,                   Hannah T.%Jordan%null%1,                   Sara A.%Miller-Archie%null%1,                   James E.%Cone%null%1,                   Alfredo%Morabia%null%1,                   Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Soyeon%Kim%xref no email%0, Prathit A.%Kulkarni%xref no email%1, Mangala%Rajan%xref no email%1, Pauline%Thomas%xref no email%1, Stella%Tsai%xref no email%1, Christina%Tan%xref no email%1, Amy%Davidow%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Public Health Association</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                     Hayden%Smith%NULL%1,                     Nitesh%Kuhadiya%NULL%1,                     Sharice M.%Leger%NULL%1,                     C. Lillian%Yau%NULL%1,                     Kristi%Reynolds%NULL%1,                     Lizheng%Shi%NULL%1,                     Roberta H.%McDuffie%NULL%1,                     Tina%Thethi%NULL%1,                     Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                      Ana Isabel%Casanegra%null%1,                      Alan%Shapiro%null%1,                      Minh%Phan%null%1,                      Beau%Hawkins%null%1,                      Ji%Li%null%1,                      Julie%Stoner%null%1,                      Alfonso%Tafur%null%1,                   Federico%Silva-Palacios%null%1,                   Ana Isabel%Casanegra%null%1,                   Alan%Shapiro%null%1,                   Minh%Phan%null%1,                   Beau%Hawkins%null%1,                   Ji%Li%null%1,                   Julie%Stoner%null%1,                   Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                     La Ngoc%Quang%NULL%1,                     Le Thi%Thanh Ha%NULL%1,                     Tran Thi%Duc Hanh%NULL%1,                     Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,                    Bouter%L M%coreGivesNoEmail%1,                    Bramsen%I%coreGivesNoEmail%1,                    Huizink%A C%coreGivesNoEmail%1,                    Slottje%P%coreGivesNoEmail%1,                    Smid%T%coreGivesNoEmail%1,                    Smidt%N%coreGivesNoEmail%1,                    Twisk%J W R%coreGivesNoEmail%1,                    van%der Ploeg H M%coreGivesNoEmail%1,                    van%Mechelen W%coreGivesNoEmail%1,                    Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                      Robert M%Brackbill%null%1,                      James E%Cone%null%1,                      Indira%Debchoudhury%null%1,                      Mark R%Farfel%null%1,                      Carolyn M%Greene%null%1,                      James L%Hadler%null%1,                      Joseph%Kennedy%null%1,                      Jiehui%Li%null%1,                      Jonathan%Liff%null%1,                      Leslie%Stayner%null%1,                      Steven D%Stellman%null%1,                   Hannah T%Jordan%null%1,                   Robert M%Brackbill%null%1,                   James E%Cone%null%1,                   Indira%Debchoudhury%null%1,                   Mark R%Farfel%null%1,                   Carolyn M%Greene%null%1,                   James L%Hadler%null%1,                   Joseph%Kennedy%null%1,                   Jiehui%Li%null%1,                   Jonathan%Liff%null%1,                   Leslie%Stayner%null%1,                   Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[L. A.%Hendrickson%xref no email%0, R. L.%Vogt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-30</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Oxford University Press (OUP)</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                      Morgan J.%Katz%null%1,                      John C.%Moscona%null%1,                      Mohi E.%Alkadri%null%1,                      Rashad H.%Khazi Syed%null%1,                      Thomas A.%Turnage%null%1,                      Vikram S.%Nijjar%null%1,                      Mohannad B.%Bisharat%null%1,                      Patrice%Delafontaine%null%0,                      Anand M.%Irimpen%null%1,                   Matthew N.%Peters%null%1,                   Morgan J.%Katz%null%1,                   John C.%Moscona%null%1,                   Mohi E.%Alkadri%null%1,                   Rashad H.%Khazi Syed%null%1,                   Thomas A.%Turnage%null%1,                   Vikram S.%Nijjar%null%1,                   Mohannad B.%Bisharat%null%1,                   Patrice%Delafontaine%null%0,                   Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                     Dena%Javadi%NULL%2,                     Dena%Javadi%NULL%0,                     Katrina%Hann%NULL%5,                     Anthony D%Harries%NULL%2,                     Anthony D%Harries%NULL%0,                     Francis%Smart%NULL%2,                     Francis%Smart%NULL%0,                     Thomas%Samba%NULL%1,                     Jeffery%Edwards%NULL%4,                     Jeffery%Edwards%NULL%0,                     Priyakanta%Nayak%NULL%2,                     Priyakanta%Nayak%NULL%0,                     Katrina%Hann%NULL%0,                     Katrina%Hann%NULL%0,                     Jeffery%Edwards%NULL%0,                     Jeffery%Edwards%NULL%0,                     Katrina%Hann%NULL%0,                     Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyungeh%An%xref no email%0, Jeanne%Salyer%xref no email%1, Hsueh-Fen Sabrina%Kao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: SAGE Publications</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Shengchao%Yu%xref no email%0, Howard E.%Alper%xref no email%1, Angela-Maithy%Nguyen%xref no email%1, Robert M.%Brackbill%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[William%Gerin%xref no email%0, William%Chaplin%xref no email%1, Joseph E%Schwartz%xref no email%1, John%Holland%xref no email%1, Robert%Alter%xref no email%1, Ronald%Wheeler%xref no email%1, Diep%Duong%xref no email%1, Thomas G%Pickering%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                      Renée%El-Gabalawy%null%1,                      Sarvesh%Logsetty%null%1,                      Jitender%Sareen%null%1,                   M. Natalie%Husarewycz%null%1,                   Renée%El-Gabalawy%null%1,                   Sarvesh%Logsetty%null%1,                   Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[J.%Ng%xref no email%0, S. L.%Atkin%xref no email%1, A. S.%Rigby%xref no email%1, C.%Walton%xref no email%1, E. S.%Kilpatrick%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,            Eric%Jougla%null%1,            Anne%Fouillet%null%1,            Gérard%Pavillon%null%1,            Pierre%Bessemoulin%null%1,            Philippe%Frayssinet%null%1,            Jacqueline%Clavel%null%1,            Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                    Alaa%Boulad%coreGivesNoEmail%1,                    Anand%Irimpen%coreGivesNoEmail%1,                    Bradley%Deere%coreGivesNoEmail%1,                    Christopher%Westley%coreGivesNoEmail%1,                    Hassan%Baydoun%coreGivesNoEmail%1,                    Holly%Gonzales%coreGivesNoEmail%1,                    Indrajeet%Mahata%coreGivesNoEmail%1,                    John%C. Moscona%coreGivesNoEmail%1,                    Kapil%Yadav%coreGivesNoEmail%1,                    Matthew%N. Peters%coreGivesNoEmail%1,                    Patrick%Ters%coreGivesNoEmail%1,                    Paul%Katigbak%coreGivesNoEmail%1,                    Rohit%Maini%coreGivesNoEmail%1,                    Ryan%Nelson%coreGivesNoEmail%1,                    Sudesh%Srivastav%coreGivesNoEmail%1,                    Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Tina K.%Thethi%xref no email%0, C. Lillian%Yau%xref no email%1, Lizheng%Shi%xref no email%1, Sharice%Leger%xref no email%1, Prathima%Nagireddy%xref no email%1, Jay%Waddadar%xref no email%1, Prasanth%Surampudi%xref no email%1, Jennifer%John-Kalarickal%xref no email%1, Lydia%Yenoby%xref no email%1, Vivian%Fonseca%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                       Elsie%Yan%null%1,                       Sally%Jowett%null%1,                    Thanos%Karatzias%null%1,                    Elsie%Yan%null%1,                    Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                      Alan%Cohen%NULL%1,                      Josiane%Courteau%NULL%1,                      Patrick%Bergeron%NULL%1,                      Roxanne%Dault%NULL%1,                      Pierre%Gosselin%NULL%1,                      Claudia%Blais%NULL%1,                      Diane%Bélanger%NULL%1,                      Louis%Rochette%NULL%1,                      Fateh%Chebana%NULL%1,                      Jan%Semenza%NULL%2,                      Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                       Tony T.%Koshy%null%1,                       Joseph%Gilbert%null%1,                       Lauren K.%Burdine%null%1,                       Michael%Marmor%null%1,                       Xiaoxia%Han%null%1,                       Yongzhao%Shao%null%1,                       Claude%Chemtob%null%1,                       Teresa M.%Attina%null%1,                       Elaine M.%Urbina%null%1,                    Leonardo%Trasande%null%1,                    Tony T.%Koshy%null%1,                    Joseph%Gilbert%null%1,                    Lauren K.%Burdine%null%1,                    Michael%Marmor%null%1,                    Xiaoxia%Han%null%1,                    Yongzhao%Shao%null%1,                    Claude%Chemtob%null%1,                    Teresa M.%Attina%null%1,                    Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                      Elena N.%Naumova%NULL%1,                      Gitanjali%Singh%NULL%1,                      Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                      Steven D.%Stellman%NULL%1,                      Alfredo%Morabia%NULL%1,                      Sara A.%Miller‐Archie%NULL%1,                      Howard%Alper%NULL%1,                      Zoey%Laskaris%NULL%1,                      Robert M.%Brackbill%NULL%1,                      James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,                     Karen%A. Matthews%coreGivesNoEmail%1,                     Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,             Chris%Houser%null%1,             Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                       Socrates V.%Kakoulides%null%1,                       John%Moscona%null%1,                       Jabar%Whittier%null%1,                       Sudesh%Srivastav%null%1,                       Patrice%Delafontaine%null%2,                       Anand%Irimpen%null%1,                    Zhen%Jiao%null%1,                    Socrates V.%Kakoulides%null%1,                    John%Moscona%null%1,                    Jabar%Whittier%null%1,                    Sudesh%Srivastav%null%1,                    Patrice%Delafontaine%null%2,                    Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                       Shinya%Yumoto%null%1,                       Kazuhisa%Sakaguchi%null%1,                       Chiharu%Shudo%null%1,                       Shiro%Takino%null%1,                       Motohiro%Hashiyama%null%1,                       Yutaka%Kai%null%1,                       Yutaka%Kuroda%null%1,                       Hiroaki%Kawano%null%1,                       Hisao%Ogawa%null%1,                    Yasuhiro%Nagayoshi%null%1,                    Shinya%Yumoto%null%1,                    Kazuhisa%Sakaguchi%null%1,                    Chiharu%Shudo%null%1,                    Shiro%Takino%null%1,                    Motohiro%Hashiyama%null%1,                    Yutaka%Kai%null%1,                    Yutaka%Kuroda%null%1,                    Hiroaki%Kawano%null%1,                    Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                       Sara A.%Miller-Archie%null%1,                       James E.%Cone%null%1,                       Alfredo%Morabia%null%1,                       Steven D.%Stellman%null%1,                    Hannah T.%Jordan%null%1,                    Sara A.%Miller-Archie%null%1,                    James E.%Cone%null%1,                    Alfredo%Morabia%null%1,                    Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                      Hayden%Smith%NULL%1,                      Nitesh%Kuhadiya%NULL%1,                      Sharice M.%Leger%NULL%1,                      C. Lillian%Yau%NULL%1,                      Kristi%Reynolds%NULL%1,                      Lizheng%Shi%NULL%1,                      Roberta H.%McDuffie%NULL%1,                      Tina%Thethi%NULL%1,                      Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                       Ana Isabel%Casanegra%null%1,                       Alan%Shapiro%null%1,                       Minh%Phan%null%1,                       Beau%Hawkins%null%1,                       Ji%Li%null%1,                       Julie%Stoner%null%1,                       Alfonso%Tafur%null%1,                    Federico%Silva-Palacios%null%1,                    Ana Isabel%Casanegra%null%1,                    Alan%Shapiro%null%1,                    Minh%Phan%null%1,                    Beau%Hawkins%null%1,                    Ji%Li%null%1,                    Julie%Stoner%null%1,                    Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                      La Ngoc%Quang%NULL%1,                      Le Thi%Thanh Ha%NULL%1,                      Tran Thi%Duc Hanh%NULL%1,                      Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,                     Bouter%L M%coreGivesNoEmail%1,                     Bramsen%I%coreGivesNoEmail%1,                     Huizink%A C%coreGivesNoEmail%1,                     Slottje%P%coreGivesNoEmail%1,                     Smid%T%coreGivesNoEmail%1,                     Smidt%N%coreGivesNoEmail%1,                     Twisk%J W R%coreGivesNoEmail%1,                     van%der Ploeg H M%coreGivesNoEmail%1,                     van%Mechelen W%coreGivesNoEmail%1,                     Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                       Robert M%Brackbill%null%1,                       James E%Cone%null%1,                       Indira%Debchoudhury%null%1,                       Mark R%Farfel%null%1,                       Carolyn M%Greene%null%1,                       James L%Hadler%null%1,                       Joseph%Kennedy%null%1,                       Jiehui%Li%null%1,                       Jonathan%Liff%null%1,                       Leslie%Stayner%null%1,                       Steven D%Stellman%null%1,                    Hannah T%Jordan%null%1,                    Robert M%Brackbill%null%1,                    James E%Cone%null%1,                    Indira%Debchoudhury%null%1,                    Mark R%Farfel%null%1,                    Carolyn M%Greene%null%1,                    James L%Hadler%null%1,                    Joseph%Kennedy%null%1,                    Jiehui%Li%null%1,                    Jonathan%Liff%null%1,                    Leslie%Stayner%null%1,                    Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                       Morgan J.%Katz%null%1,                       John C.%Moscona%null%1,                       Mohi E.%Alkadri%null%1,                       Rashad H.%Khazi Syed%null%1,                       Thomas A.%Turnage%null%1,                       Vikram S.%Nijjar%null%1,                       Mohannad B.%Bisharat%null%1,                       Patrice%Delafontaine%null%0,                       Anand M.%Irimpen%null%1,                    Matthew N.%Peters%null%1,                    Morgan J.%Katz%null%1,                    John C.%Moscona%null%1,                    Mohi E.%Alkadri%null%1,                    Rashad H.%Khazi Syed%null%1,                    Thomas A.%Turnage%null%1,                    Vikram S.%Nijjar%null%1,                    Mohannad B.%Bisharat%null%1,                    Patrice%Delafontaine%null%0,                    Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                      Dena%Javadi%NULL%2,                      Dena%Javadi%NULL%0,                      Katrina%Hann%NULL%5,                      Anthony D%Harries%NULL%2,                      Anthony D%Harries%NULL%0,                      Francis%Smart%NULL%2,                      Francis%Smart%NULL%0,                      Thomas%Samba%NULL%1,                      Jeffery%Edwards%NULL%4,                      Jeffery%Edwards%NULL%0,                      Priyakanta%Nayak%NULL%2,                      Priyakanta%Nayak%NULL%0,                      Katrina%Hann%NULL%0,                      Katrina%Hann%NULL%0,                      Jeffery%Edwards%NULL%0,                      Jeffery%Edwards%NULL%0,                      Katrina%Hann%NULL%0,                      Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                       Renée%El-Gabalawy%null%1,                       Sarvesh%Logsetty%null%1,                       Jitender%Sareen%null%1,                    M. Natalie%Husarewycz%null%1,                    Renée%El-Gabalawy%null%1,                    Sarvesh%Logsetty%null%1,                    Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,             Eric%Jougla%null%1,             Anne%Fouillet%null%1,             Gérard%Pavillon%null%1,             Pierre%Bessemoulin%null%1,             Philippe%Frayssinet%null%1,             Jacqueline%Clavel%null%1,             Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                     Alaa%Boulad%coreGivesNoEmail%1,                     Anand%Irimpen%coreGivesNoEmail%1,                     Bradley%Deere%coreGivesNoEmail%1,                     Christopher%Westley%coreGivesNoEmail%1,                     Hassan%Baydoun%coreGivesNoEmail%1,                     Holly%Gonzales%coreGivesNoEmail%1,                     Indrajeet%Mahata%coreGivesNoEmail%1,                     John%C. Moscona%coreGivesNoEmail%1,                     Kapil%Yadav%coreGivesNoEmail%1,                     Matthew%N. Peters%coreGivesNoEmail%1,                     Patrick%Ters%coreGivesNoEmail%1,                     Paul%Katigbak%coreGivesNoEmail%1,                     Rohit%Maini%coreGivesNoEmail%1,                     Ryan%Nelson%coreGivesNoEmail%1,                     Sudesh%Srivastav%coreGivesNoEmail%1,                     Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                        Elsie%Yan%null%1,                        Sally%Jowett%null%1,                     Thanos%Karatzias%null%1,                     Elsie%Yan%null%1,                     Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                       Alan%Cohen%NULL%1,                       Josiane%Courteau%NULL%1,                       Patrick%Bergeron%NULL%1,                       Roxanne%Dault%NULL%1,                       Pierre%Gosselin%NULL%1,                       Claudia%Blais%NULL%1,                       Diane%Bélanger%NULL%1,                       Louis%Rochette%NULL%1,                       Fateh%Chebana%NULL%1,                       Jan%Semenza%NULL%2,                       Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                        Tony T.%Koshy%null%1,                        Joseph%Gilbert%null%1,                        Lauren K.%Burdine%null%1,                        Michael%Marmor%null%1,                        Xiaoxia%Han%null%1,                        Yongzhao%Shao%null%1,                        Claude%Chemtob%null%1,                        Teresa M.%Attina%null%1,                        Elaine M.%Urbina%null%1,                     Leonardo%Trasande%null%1,                     Tony T.%Koshy%null%1,                     Joseph%Gilbert%null%1,                     Lauren K.%Burdine%null%1,                     Michael%Marmor%null%1,                     Xiaoxia%Han%null%1,                     Yongzhao%Shao%null%1,                     Claude%Chemtob%null%1,                     Teresa M.%Attina%null%1,                     Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                       Elena N.%Naumova%NULL%1,                       Gitanjali%Singh%NULL%1,                       Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                       Steven D.%Stellman%NULL%1,                       Alfredo%Morabia%NULL%1,                       Sara A.%Miller‐Archie%NULL%1,                       Howard%Alper%NULL%1,                       Zoey%Laskaris%NULL%1,                       Robert M.%Brackbill%NULL%1,                       James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,                      Karen%A. Matthews%coreGivesNoEmail%1,                      Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,              Chris%Houser%null%1,              Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                        Socrates V.%Kakoulides%null%1,                        John%Moscona%null%1,                        Jabar%Whittier%null%1,                        Sudesh%Srivastav%null%1,                        Patrice%Delafontaine%null%2,                        Anand%Irimpen%null%1,                     Zhen%Jiao%null%1,                     Socrates V.%Kakoulides%null%1,                     John%Moscona%null%1,                     Jabar%Whittier%null%1,                     Sudesh%Srivastav%null%1,                     Patrice%Delafontaine%null%2,                     Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                        Shinya%Yumoto%null%1,                        Kazuhisa%Sakaguchi%null%1,                        Chiharu%Shudo%null%1,                        Shiro%Takino%null%1,                        Motohiro%Hashiyama%null%1,                        Yutaka%Kai%null%1,                        Yutaka%Kuroda%null%1,                        Hiroaki%Kawano%null%1,                        Hisao%Ogawa%null%1,                     Yasuhiro%Nagayoshi%null%1,                     Shinya%Yumoto%null%1,                     Kazuhisa%Sakaguchi%null%1,                     Chiharu%Shudo%null%1,                     Shiro%Takino%null%1,                     Motohiro%Hashiyama%null%1,                     Yutaka%Kai%null%1,                     Yutaka%Kuroda%null%1,                     Hiroaki%Kawano%null%1,                     Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                        Sara A.%Miller-Archie%null%1,                        James E.%Cone%null%1,                        Alfredo%Morabia%null%1,                        Steven D.%Stellman%null%1,                     Hannah T.%Jordan%null%1,                     Sara A.%Miller-Archie%null%1,                     James E.%Cone%null%1,                     Alfredo%Morabia%null%1,                     Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                       Hayden%Smith%NULL%1,                       Nitesh%Kuhadiya%NULL%1,                       Sharice M.%Leger%NULL%1,                       C. Lillian%Yau%NULL%1,                       Kristi%Reynolds%NULL%1,                       Lizheng%Shi%NULL%1,                       Roberta H.%McDuffie%NULL%1,                       Tina%Thethi%NULL%1,                       Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                        Ana Isabel%Casanegra%null%1,                        Alan%Shapiro%null%1,                        Minh%Phan%null%1,                        Beau%Hawkins%null%1,                        Ji%Li%null%1,                        Julie%Stoner%null%1,                        Alfonso%Tafur%null%1,                     Federico%Silva-Palacios%null%1,                     Ana Isabel%Casanegra%null%1,                     Alan%Shapiro%null%1,                     Minh%Phan%null%1,                     Beau%Hawkins%null%1,                     Ji%Li%null%1,                     Julie%Stoner%null%1,                     Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                       La Ngoc%Quang%NULL%1,                       Le Thi%Thanh Ha%NULL%1,                       Tran Thi%Duc Hanh%NULL%1,                       Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,                      Bouter%L M%coreGivesNoEmail%1,                      Bramsen%I%coreGivesNoEmail%1,                      Huizink%A C%coreGivesNoEmail%1,                      Slottje%P%coreGivesNoEmail%1,                      Smid%T%coreGivesNoEmail%1,                      Smidt%N%coreGivesNoEmail%1,                      Twisk%J W R%coreGivesNoEmail%1,                      van%der Ploeg H M%coreGivesNoEmail%1,                      van%Mechelen W%coreGivesNoEmail%1,                      Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                        Robert M%Brackbill%null%1,                        James E%Cone%null%1,                        Indira%Debchoudhury%null%1,                        Mark R%Farfel%null%1,                        Carolyn M%Greene%null%1,                        James L%Hadler%null%1,                        Joseph%Kennedy%null%1,                        Jiehui%Li%null%1,                        Jonathan%Liff%null%1,                        Leslie%Stayner%null%1,                        Steven D%Stellman%null%1,                     Hannah T%Jordan%null%1,                     Robert M%Brackbill%null%1,                     James E%Cone%null%1,                     Indira%Debchoudhury%null%1,                     Mark R%Farfel%null%1,                     Carolyn M%Greene%null%1,                     James L%Hadler%null%1,                     Joseph%Kennedy%null%1,                     Jiehui%Li%null%1,                     Jonathan%Liff%null%1,                     Leslie%Stayner%null%1,                     Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                        Morgan J.%Katz%null%1,                        John C.%Moscona%null%1,                        Mohi E.%Alkadri%null%1,                        Rashad H.%Khazi Syed%null%1,                        Thomas A.%Turnage%null%1,                        Vikram S.%Nijjar%null%1,                        Mohannad B.%Bisharat%null%1,                        Patrice%Delafontaine%null%0,                        Anand M.%Irimpen%null%1,                     Matthew N.%Peters%null%1,                     Morgan J.%Katz%null%1,                     John C.%Moscona%null%1,                     Mohi E.%Alkadri%null%1,                     Rashad H.%Khazi Syed%null%1,                     Thomas A.%Turnage%null%1,                     Vikram S.%Nijjar%null%1,                     Mohannad B.%Bisharat%null%1,                     Patrice%Delafontaine%null%0,                     Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                       Dena%Javadi%NULL%2,                       Dena%Javadi%NULL%0,                       Katrina%Hann%NULL%5,                       Anthony D%Harries%NULL%2,                       Anthony D%Harries%NULL%0,                       Francis%Smart%NULL%2,                       Francis%Smart%NULL%0,                       Thomas%Samba%NULL%1,                       Jeffery%Edwards%NULL%4,                       Jeffery%Edwards%NULL%0,                       Priyakanta%Nayak%NULL%2,                       Priyakanta%Nayak%NULL%0,                       Katrina%Hann%NULL%0,                       Katrina%Hann%NULL%0,                       Jeffery%Edwards%NULL%0,                       Jeffery%Edwards%NULL%0,                       Katrina%Hann%NULL%0,                       Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                        Renée%El-Gabalawy%null%1,                        Sarvesh%Logsetty%null%1,                        Jitender%Sareen%null%1,                     M. Natalie%Husarewycz%null%1,                     Renée%El-Gabalawy%null%1,                     Sarvesh%Logsetty%null%1,                     Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[J.%Ng%xref no email%1,   S. L.%Atkin%xref no email%1,   A. S.%Rigby%xref no email%1,   C.%Walton%xref no email%1,   E. S.%Kilpatrick%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,              Eric%Jougla%null%1,              Anne%Fouillet%null%1,              Gérard%Pavillon%null%1,              Pierre%Bessemoulin%null%1,              Philippe%Frayssinet%null%1,              Jacqueline%Clavel%null%1,              Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                      Alaa%Boulad%coreGivesNoEmail%1,                      Anand%Irimpen%coreGivesNoEmail%1,                      Bradley%Deere%coreGivesNoEmail%1,                      Christopher%Westley%coreGivesNoEmail%1,                      Hassan%Baydoun%coreGivesNoEmail%1,                      Holly%Gonzales%coreGivesNoEmail%1,                      Indrajeet%Mahata%coreGivesNoEmail%1,                      John%C. Moscona%coreGivesNoEmail%1,                      Kapil%Yadav%coreGivesNoEmail%1,                      Matthew%N. Peters%coreGivesNoEmail%1,                      Patrick%Ters%coreGivesNoEmail%1,                      Paul%Katigbak%coreGivesNoEmail%1,                      Rohit%Maini%coreGivesNoEmail%1,                      Ryan%Nelson%coreGivesNoEmail%1,                      Sudesh%Srivastav%coreGivesNoEmail%1,                      Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                         Elsie%Yan%null%1,                         Sally%Jowett%null%1,                      Thanos%Karatzias%null%1,                      Elsie%Yan%null%1,                      Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                        Alan%Cohen%NULL%1,                        Josiane%Courteau%NULL%1,                        Patrick%Bergeron%NULL%1,                        Roxanne%Dault%NULL%1,                        Pierre%Gosselin%NULL%1,                        Claudia%Blais%NULL%1,                        Diane%Bélanger%NULL%1,                        Louis%Rochette%NULL%1,                        Fateh%Chebana%NULL%1,                        Jan%Semenza%NULL%2,                        Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                         Tony T.%Koshy%null%1,                         Joseph%Gilbert%null%1,                         Lauren K.%Burdine%null%1,                         Michael%Marmor%null%1,                         Xiaoxia%Han%null%1,                         Yongzhao%Shao%null%1,                         Claude%Chemtob%null%1,                         Teresa M.%Attina%null%1,                         Elaine M.%Urbina%null%1,                      Leonardo%Trasande%null%1,                      Tony T.%Koshy%null%1,                      Joseph%Gilbert%null%1,                      Lauren K.%Burdine%null%1,                      Michael%Marmor%null%1,                      Xiaoxia%Han%null%1,                      Yongzhao%Shao%null%1,                      Claude%Chemtob%null%1,                      Teresa M.%Attina%null%1,                      Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                        Elena N.%Naumova%NULL%1,                        Gitanjali%Singh%NULL%1,                        Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                        Steven D.%Stellman%NULL%1,                        Alfredo%Morabia%NULL%1,                        Sara A.%Miller‐Archie%NULL%1,                        Howard%Alper%NULL%1,                        Zoey%Laskaris%NULL%1,                        Robert M.%Brackbill%NULL%1,                        James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,                       Karen%A. Matthews%coreGivesNoEmail%1,                       Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,               Chris%Houser%null%1,               Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                         Socrates V.%Kakoulides%null%1,                         John%Moscona%null%1,                         Jabar%Whittier%null%1,                         Sudesh%Srivastav%null%1,                         Patrice%Delafontaine%null%2,                         Anand%Irimpen%null%1,                      Zhen%Jiao%null%1,                      Socrates V.%Kakoulides%null%1,                      John%Moscona%null%1,                      Jabar%Whittier%null%1,                      Sudesh%Srivastav%null%1,                      Patrice%Delafontaine%null%2,                      Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                         Shinya%Yumoto%null%1,                         Kazuhisa%Sakaguchi%null%1,                         Chiharu%Shudo%null%1,                         Shiro%Takino%null%1,                         Motohiro%Hashiyama%null%1,                         Yutaka%Kai%null%1,                         Yutaka%Kuroda%null%1,                         Hiroaki%Kawano%null%1,                         Hisao%Ogawa%null%1,                      Yasuhiro%Nagayoshi%null%1,                      Shinya%Yumoto%null%1,                      Kazuhisa%Sakaguchi%null%1,                      Chiharu%Shudo%null%1,                      Shiro%Takino%null%1,                      Motohiro%Hashiyama%null%1,                      Yutaka%Kai%null%1,                      Yutaka%Kuroda%null%1,                      Hiroaki%Kawano%null%1,                      Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                         Sara A.%Miller-Archie%null%1,                         James E.%Cone%null%1,                         Alfredo%Morabia%null%1,                         Steven D.%Stellman%null%1,                      Hannah T.%Jordan%null%1,                      Sara A.%Miller-Archie%null%1,                      James E.%Cone%null%1,                      Alfredo%Morabia%null%1,                      Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                        Hayden%Smith%NULL%1,                        Nitesh%Kuhadiya%NULL%1,                        Sharice M.%Leger%NULL%1,                        C. Lillian%Yau%NULL%1,                        Kristi%Reynolds%NULL%1,                        Lizheng%Shi%NULL%1,                        Roberta H.%McDuffie%NULL%1,                        Tina%Thethi%NULL%1,                        Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                         Ana Isabel%Casanegra%null%1,                         Alan%Shapiro%null%1,                         Minh%Phan%null%1,                         Beau%Hawkins%null%1,                         Ji%Li%null%1,                         Julie%Stoner%null%1,                         Alfonso%Tafur%null%1,                      Federico%Silva-Palacios%null%1,                      Ana Isabel%Casanegra%null%1,                      Alan%Shapiro%null%1,                      Minh%Phan%null%1,                      Beau%Hawkins%null%1,                      Ji%Li%null%1,                      Julie%Stoner%null%1,                      Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                        La Ngoc%Quang%NULL%1,                        Le Thi%Thanh Ha%NULL%1,                        Tran Thi%Duc Hanh%NULL%1,                        Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,                       Bouter%L M%coreGivesNoEmail%1,                       Bramsen%I%coreGivesNoEmail%1,                       Huizink%A C%coreGivesNoEmail%1,                       Slottje%P%coreGivesNoEmail%1,                       Smid%T%coreGivesNoEmail%1,                       Smidt%N%coreGivesNoEmail%1,                       Twisk%J W R%coreGivesNoEmail%1,                       van%der Ploeg H M%coreGivesNoEmail%1,                       van%Mechelen W%coreGivesNoEmail%1,                       Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                         Robert M%Brackbill%null%1,                         James E%Cone%null%1,                         Indira%Debchoudhury%null%1,                         Mark R%Farfel%null%1,                         Carolyn M%Greene%null%1,                         James L%Hadler%null%1,                         Joseph%Kennedy%null%1,                         Jiehui%Li%null%1,                         Jonathan%Liff%null%1,                         Leslie%Stayner%null%1,                         Steven D%Stellman%null%1,                      Hannah T%Jordan%null%1,                      Robert M%Brackbill%null%1,                      James E%Cone%null%1,                      Indira%Debchoudhury%null%1,                      Mark R%Farfel%null%1,                      Carolyn M%Greene%null%1,                      James L%Hadler%null%1,                      Joseph%Kennedy%null%1,                      Jiehui%Li%null%1,                      Jonathan%Liff%null%1,                      Leslie%Stayner%null%1,                      Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                         Morgan J.%Katz%null%1,                         John C.%Moscona%null%1,                         Mohi E.%Alkadri%null%1,                         Rashad H.%Khazi Syed%null%1,                         Thomas A.%Turnage%null%1,                         Vikram S.%Nijjar%null%1,                         Mohannad B.%Bisharat%null%1,                         Patrice%Delafontaine%null%0,                         Anand M.%Irimpen%null%1,                      Matthew N.%Peters%null%1,                      Morgan J.%Katz%null%1,                      John C.%Moscona%null%1,                      Mohi E.%Alkadri%null%1,                      Rashad H.%Khazi Syed%null%1,                      Thomas A.%Turnage%null%1,                      Vikram S.%Nijjar%null%1,                      Mohannad B.%Bisharat%null%1,                      Patrice%Delafontaine%null%0,                      Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                        Dena%Javadi%NULL%2,                        Dena%Javadi%NULL%0,                        Katrina%Hann%NULL%5,                        Anthony D%Harries%NULL%2,                        Anthony D%Harries%NULL%0,                        Francis%Smart%NULL%2,                        Francis%Smart%NULL%0,                        Thomas%Samba%NULL%1,                        Jeffery%Edwards%NULL%4,                        Jeffery%Edwards%NULL%0,                        Priyakanta%Nayak%NULL%2,                        Priyakanta%Nayak%NULL%0,                        Katrina%Hann%NULL%0,                        Katrina%Hann%NULL%0,                        Jeffery%Edwards%NULL%0,                        Jeffery%Edwards%NULL%0,                        Katrina%Hann%NULL%0,                        Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                         Renée%El-Gabalawy%null%1,                         Sarvesh%Logsetty%null%1,                         Jitender%Sareen%null%1,                      M. Natalie%Husarewycz%null%1,                      Renée%El-Gabalawy%null%1,                      Sarvesh%Logsetty%null%1,                      Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[J.%Ng%xref no email%1,    S. L.%Atkin%xref no email%1,    A. S.%Rigby%xref no email%1,    C.%Walton%xref no email%1,    E. S.%Kilpatrick%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,               Eric%Jougla%null%1,               Anne%Fouillet%null%1,               Gérard%Pavillon%null%1,               Pierre%Bessemoulin%null%1,               Philippe%Frayssinet%null%1,               Jacqueline%Clavel%null%1,               Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                       Alaa%Boulad%coreGivesNoEmail%1,                       Anand%Irimpen%coreGivesNoEmail%1,                       Bradley%Deere%coreGivesNoEmail%1,                       Christopher%Westley%coreGivesNoEmail%1,                       Hassan%Baydoun%coreGivesNoEmail%1,                       Holly%Gonzales%coreGivesNoEmail%1,                       Indrajeet%Mahata%coreGivesNoEmail%1,                       John%C. Moscona%coreGivesNoEmail%1,                       Kapil%Yadav%coreGivesNoEmail%1,                       Matthew%N. Peters%coreGivesNoEmail%1,                       Patrick%Ters%coreGivesNoEmail%1,                       Paul%Katigbak%coreGivesNoEmail%1,                       Rohit%Maini%coreGivesNoEmail%1,                       Ryan%Nelson%coreGivesNoEmail%1,                       Sudesh%Srivastav%coreGivesNoEmail%1,                       Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                          Elsie%Yan%null%1,                          Sally%Jowett%null%1,                       Thanos%Karatzias%null%1,                       Elsie%Yan%null%1,                       Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                         Alan%Cohen%NULL%1,                         Josiane%Courteau%NULL%1,                         Patrick%Bergeron%NULL%1,                         Roxanne%Dault%NULL%1,                         Pierre%Gosselin%NULL%1,                         Claudia%Blais%NULL%1,                         Diane%Bélanger%NULL%1,                         Louis%Rochette%NULL%1,                         Fateh%Chebana%NULL%1,                         Jan%Semenza%NULL%2,                         Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                          Tony T.%Koshy%null%1,                          Joseph%Gilbert%null%1,                          Lauren K.%Burdine%null%1,                          Michael%Marmor%null%1,                          Xiaoxia%Han%null%1,                          Yongzhao%Shao%null%1,                          Claude%Chemtob%null%1,                          Teresa M.%Attina%null%1,                          Elaine M.%Urbina%null%1,                       Leonardo%Trasande%null%1,                       Tony T.%Koshy%null%1,                       Joseph%Gilbert%null%1,                       Lauren K.%Burdine%null%1,                       Michael%Marmor%null%1,                       Xiaoxia%Han%null%1,                       Yongzhao%Shao%null%1,                       Claude%Chemtob%null%1,                       Teresa M.%Attina%null%1,                       Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                         Elena N.%Naumova%NULL%1,                         Gitanjali%Singh%NULL%1,                         Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                         Steven D.%Stellman%NULL%1,                         Alfredo%Morabia%NULL%1,                         Sara A.%Miller‐Archie%NULL%1,                         Howard%Alper%NULL%1,                         Zoey%Laskaris%NULL%1,                         Robert M.%Brackbill%NULL%1,                         James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,                        Karen%A. Matthews%coreGivesNoEmail%1,                        Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,                Chris%Houser%null%1,                Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                          Socrates V.%Kakoulides%null%1,                          John%Moscona%null%1,                          Jabar%Whittier%null%1,                          Sudesh%Srivastav%null%1,                          Patrice%Delafontaine%null%2,                          Anand%Irimpen%null%1,                       Zhen%Jiao%null%1,                       Socrates V.%Kakoulides%null%1,                       John%Moscona%null%1,                       Jabar%Whittier%null%1,                       Sudesh%Srivastav%null%1,                       Patrice%Delafontaine%null%2,                       Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                          Shinya%Yumoto%null%1,                          Kazuhisa%Sakaguchi%null%1,                          Chiharu%Shudo%null%1,                          Shiro%Takino%null%1,                          Motohiro%Hashiyama%null%1,                          Yutaka%Kai%null%1,                          Yutaka%Kuroda%null%1,                          Hiroaki%Kawano%null%1,                          Hisao%Ogawa%null%1,                       Yasuhiro%Nagayoshi%null%1,                       Shinya%Yumoto%null%1,                       Kazuhisa%Sakaguchi%null%1,                       Chiharu%Shudo%null%1,                       Shiro%Takino%null%1,                       Motohiro%Hashiyama%null%1,                       Yutaka%Kai%null%1,                       Yutaka%Kuroda%null%1,                       Hiroaki%Kawano%null%1,                       Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                          Sara A.%Miller-Archie%null%1,                          James E.%Cone%null%1,                          Alfredo%Morabia%null%1,                          Steven D.%Stellman%null%1,                       Hannah T.%Jordan%null%1,                       Sara A.%Miller-Archie%null%1,                       James E.%Cone%null%1,                       Alfredo%Morabia%null%1,                       Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                         Hayden%Smith%NULL%1,                         Nitesh%Kuhadiya%NULL%1,                         Sharice M.%Leger%NULL%1,                         C. Lillian%Yau%NULL%1,                         Kristi%Reynolds%NULL%1,                         Lizheng%Shi%NULL%1,                         Roberta H.%McDuffie%NULL%1,                         Tina%Thethi%NULL%1,                         Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                          Ana Isabel%Casanegra%null%1,                          Alan%Shapiro%null%1,                          Minh%Phan%null%1,                          Beau%Hawkins%null%1,                          Ji%Li%null%1,                          Julie%Stoner%null%1,                          Alfonso%Tafur%null%1,                       Federico%Silva-Palacios%null%1,                       Ana Isabel%Casanegra%null%1,                       Alan%Shapiro%null%1,                       Minh%Phan%null%1,                       Beau%Hawkins%null%1,                       Ji%Li%null%1,                       Julie%Stoner%null%1,                       Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                         La Ngoc%Quang%NULL%1,                         Le Thi%Thanh Ha%NULL%1,                         Tran Thi%Duc Hanh%NULL%1,                         Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,                        Bouter%L M%coreGivesNoEmail%1,                        Bramsen%I%coreGivesNoEmail%1,                        Huizink%A C%coreGivesNoEmail%1,                        Slottje%P%coreGivesNoEmail%1,                        Smid%T%coreGivesNoEmail%1,                        Smidt%N%coreGivesNoEmail%1,                        Twisk%J W R%coreGivesNoEmail%1,                        van%der Ploeg H M%coreGivesNoEmail%1,                        van%Mechelen W%coreGivesNoEmail%1,                        Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                          Robert M%Brackbill%null%1,                          James E%Cone%null%1,                          Indira%Debchoudhury%null%1,                          Mark R%Farfel%null%1,                          Carolyn M%Greene%null%1,                          James L%Hadler%null%1,                          Joseph%Kennedy%null%1,                          Jiehui%Li%null%1,                          Jonathan%Liff%null%1,                          Leslie%Stayner%null%1,                          Steven D%Stellman%null%1,                       Hannah T%Jordan%null%1,                       Robert M%Brackbill%null%1,                       James E%Cone%null%1,                       Indira%Debchoudhury%null%1,                       Mark R%Farfel%null%1,                       Carolyn M%Greene%null%1,                       James L%Hadler%null%1,                       Joseph%Kennedy%null%1,                       Jiehui%Li%null%1,                       Jonathan%Liff%null%1,                       Leslie%Stayner%null%1,                       Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                          Morgan J.%Katz%null%1,                          John C.%Moscona%null%1,                          Mohi E.%Alkadri%null%1,                          Rashad H.%Khazi Syed%null%1,                          Thomas A.%Turnage%null%1,                          Vikram S.%Nijjar%null%1,                          Mohannad B.%Bisharat%null%1,                          Patrice%Delafontaine%null%0,                          Anand M.%Irimpen%null%1,                       Matthew N.%Peters%null%1,                       Morgan J.%Katz%null%1,                       John C.%Moscona%null%1,                       Mohi E.%Alkadri%null%1,                       Rashad H.%Khazi Syed%null%1,                       Thomas A.%Turnage%null%1,                       Vikram S.%Nijjar%null%1,                       Mohannad B.%Bisharat%null%1,                       Patrice%Delafontaine%null%0,                       Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                         Dena%Javadi%NULL%2,                         Dena%Javadi%NULL%0,                         Katrina%Hann%NULL%5,                         Anthony D%Harries%NULL%2,                         Anthony D%Harries%NULL%0,                         Francis%Smart%NULL%2,                         Francis%Smart%NULL%0,                         Thomas%Samba%NULL%1,                         Jeffery%Edwards%NULL%4,                         Jeffery%Edwards%NULL%0,                         Priyakanta%Nayak%NULL%2,                         Priyakanta%Nayak%NULL%0,                         Katrina%Hann%NULL%0,                         Katrina%Hann%NULL%0,                         Jeffery%Edwards%NULL%0,                         Jeffery%Edwards%NULL%0,                         Katrina%Hann%NULL%0,                         Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                          Renée%El-Gabalawy%null%1,                          Sarvesh%Logsetty%null%1,                          Jitender%Sareen%null%1,                       M. Natalie%Husarewycz%null%1,                       Renée%El-Gabalawy%null%1,                       Sarvesh%Logsetty%null%1,                       Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[J.%Ng%xref no email%1,     S. L.%Atkin%xref no email%1,     A. S.%Rigby%xref no email%1,     C.%Walton%xref no email%1,     E. S.%Kilpatrick%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,                Eric%Jougla%null%1,                Anne%Fouillet%null%1,                Gérard%Pavillon%null%1,                Pierre%Bessemoulin%null%1,                Philippe%Frayssinet%null%1,                Jacqueline%Clavel%null%1,                Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                        Alaa%Boulad%coreGivesNoEmail%1,                        Anand%Irimpen%coreGivesNoEmail%1,                        Bradley%Deere%coreGivesNoEmail%1,                        Christopher%Westley%coreGivesNoEmail%1,                        Hassan%Baydoun%coreGivesNoEmail%1,                        Holly%Gonzales%coreGivesNoEmail%1,                        Indrajeet%Mahata%coreGivesNoEmail%1,                        John%C. Moscona%coreGivesNoEmail%1,                        Kapil%Yadav%coreGivesNoEmail%1,                        Matthew%N. Peters%coreGivesNoEmail%1,                        Patrick%Ters%coreGivesNoEmail%1,                        Paul%Katigbak%coreGivesNoEmail%1,                        Rohit%Maini%coreGivesNoEmail%1,                        Ryan%Nelson%coreGivesNoEmail%1,                        Sudesh%Srivastav%coreGivesNoEmail%1,                        Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -2687,6 +3062,9 @@
       <c r="I1" t="s">
         <v>181</v>
       </c>
+      <c r="J1" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2702,7 +3080,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>667</v>
+        <v>803</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2715,6 +3093,9 @@
       </c>
       <c r="I2" t="s">
         <v>632</v>
+      </c>
+      <c r="J2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3">
@@ -2731,7 +3112,7 @@
         <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>668</v>
+        <v>419</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2743,7 +3124,10 @@
         <v>269</v>
       </c>
       <c r="I3" t="s">
-        <v>632</v>
+        <v>183</v>
+      </c>
+      <c r="J3" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="4">
@@ -2760,7 +3144,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>669</v>
+        <v>804</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -2773,6 +3157,9 @@
       </c>
       <c r="I4" t="s">
         <v>635</v>
+      </c>
+      <c r="J4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5">
@@ -2789,7 +3176,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>670</v>
+        <v>805</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -2802,6 +3189,9 @@
       </c>
       <c r="I5" t="s">
         <v>632</v>
+      </c>
+      <c r="J5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6">
@@ -2818,7 +3208,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>671</v>
+        <v>806</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -2831,6 +3221,9 @@
       </c>
       <c r="I6" t="s">
         <v>635</v>
+      </c>
+      <c r="J6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7">
@@ -2847,7 +3240,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>672</v>
+        <v>807</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -2860,6 +3253,9 @@
       </c>
       <c r="I7" t="s">
         <v>635</v>
+      </c>
+      <c r="J7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -2876,7 +3272,7 @@
         <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>673</v>
+        <v>424</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2888,7 +3284,10 @@
         <v>277</v>
       </c>
       <c r="I8" t="s">
-        <v>632</v>
+        <v>183</v>
+      </c>
+      <c r="J8" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="9">
@@ -2905,7 +3304,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>674</v>
+        <v>808</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2918,6 +3317,9 @@
       </c>
       <c r="I9" t="s">
         <v>632</v>
+      </c>
+      <c r="J9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10">
@@ -2934,7 +3336,7 @@
         <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>675</v>
+        <v>809</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2947,6 +3349,9 @@
       </c>
       <c r="I10" t="s">
         <v>632</v>
+      </c>
+      <c r="J10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="11">
@@ -2963,7 +3368,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>676</v>
+        <v>426</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2975,7 +3380,10 @@
         <v>282</v>
       </c>
       <c r="I11" t="s">
-        <v>632</v>
+        <v>183</v>
+      </c>
+      <c r="J11" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="12">
@@ -2992,7 +3400,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>677</v>
+        <v>810</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -3005,6 +3413,9 @@
       </c>
       <c r="I12" t="s">
         <v>632</v>
+      </c>
+      <c r="J12" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13">
@@ -3021,7 +3432,7 @@
         <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>678</v>
+        <v>428</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -3030,10 +3441,13 @@
         <v>268</v>
       </c>
       <c r="H13" t="s">
-        <v>287</v>
+        <v>714</v>
       </c>
       <c r="I13" t="s">
-        <v>632</v>
+        <v>183</v>
+      </c>
+      <c r="J13" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="14">
@@ -3050,7 +3464,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>679</v>
+        <v>811</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -3063,6 +3477,9 @@
       </c>
       <c r="I14" t="s">
         <v>632</v>
+      </c>
+      <c r="J14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="15">
@@ -3079,7 +3496,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>680</v>
+        <v>812</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -3092,6 +3509,9 @@
       </c>
       <c r="I15" t="s">
         <v>632</v>
+      </c>
+      <c r="J15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="16">
@@ -3108,7 +3528,7 @@
         <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>681</v>
+        <v>431</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -3120,7 +3540,10 @@
         <v>269</v>
       </c>
       <c r="I16" t="s">
-        <v>632</v>
+        <v>183</v>
+      </c>
+      <c r="J16" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="17">
@@ -3137,7 +3560,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>682</v>
+        <v>813</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -3150,6 +3573,9 @@
       </c>
       <c r="I17" t="s">
         <v>635</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="18">
@@ -3166,7 +3592,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>683</v>
+        <v>814</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -3179,6 +3605,9 @@
       </c>
       <c r="I18" t="s">
         <v>632</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="19">
@@ -3195,7 +3624,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>684</v>
+        <v>815</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3208,6 +3637,9 @@
       </c>
       <c r="I19" t="s">
         <v>635</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20">
@@ -3224,7 +3656,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>685</v>
+        <v>816</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -3237,6 +3669,9 @@
       </c>
       <c r="I20" t="s">
         <v>632</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21">
@@ -3253,7 +3688,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>686</v>
+        <v>817</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -3266,6 +3701,9 @@
       </c>
       <c r="I21" t="s">
         <v>632</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22">
@@ -3282,7 +3720,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>687</v>
+        <v>437</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -3291,10 +3729,13 @@
         <v>268</v>
       </c>
       <c r="H22" t="s">
-        <v>300</v>
+        <v>725</v>
       </c>
       <c r="I22" t="s">
-        <v>632</v>
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="23">
@@ -3311,7 +3752,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>688</v>
+        <v>818</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -3324,6 +3765,9 @@
       </c>
       <c r="I23" t="s">
         <v>632</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -3340,7 +3784,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>689</v>
+        <v>819</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -3353,6 +3797,9 @@
       </c>
       <c r="I24" t="s">
         <v>635</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
@@ -3369,7 +3816,7 @@
         <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>690</v>
+        <v>440</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -3381,7 +3828,10 @@
         <v>306</v>
       </c>
       <c r="I25" t="s">
-        <v>632</v>
+        <v>183</v>
+      </c>
+      <c r="J25" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="26">
@@ -3398,7 +3848,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>691</v>
+        <v>441</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -3410,7 +3860,10 @@
         <v>309</v>
       </c>
       <c r="I26" t="s">
-        <v>632</v>
+        <v>183</v>
+      </c>
+      <c r="J26" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="27">
@@ -3427,7 +3880,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>692</v>
+        <v>442</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3439,7 +3892,10 @@
         <v>312</v>
       </c>
       <c r="I27" t="s">
-        <v>632</v>
+        <v>183</v>
+      </c>
+      <c r="J27" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="28">
@@ -3456,7 +3912,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>693</v>
+        <v>443</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -3468,7 +3924,10 @@
         <v>315</v>
       </c>
       <c r="I28" t="s">
-        <v>632</v>
+        <v>183</v>
+      </c>
+      <c r="J28" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="29">
@@ -3485,7 +3944,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>694</v>
+        <v>820</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -3498,6 +3957,9 @@
       </c>
       <c r="I29" t="s">
         <v>632</v>
+      </c>
+      <c r="J29" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="30">
@@ -3514,7 +3976,7 @@
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>695</v>
+        <v>821</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -3523,10 +3985,13 @@
         <v>268</v>
       </c>
       <c r="H30" t="s">
-        <v>663</v>
+        <v>736</v>
       </c>
       <c r="I30" t="s">
         <v>183</v>
+      </c>
+      <c r="J30" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="31">
@@ -3543,7 +4008,7 @@
         <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>696</v>
+        <v>822</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3556,6 +4021,9 @@
       </c>
       <c r="I31" t="s">
         <v>632</v>
+      </c>
+      <c r="J31" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="32">
@@ -3572,7 +4040,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>697</v>
+        <v>823</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -3585,6 +4053,9 @@
       </c>
       <c r="I32" t="s">
         <v>632</v>
+      </c>
+      <c r="J32" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="33">
@@ -3601,7 +4072,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>698</v>
+        <v>446</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>
@@ -3613,7 +4084,10 @@
         <v>322</v>
       </c>
       <c r="I33" t="s">
-        <v>632</v>
+        <v>183</v>
+      </c>
+      <c r="J33" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/89.xlsx
+++ b/Covid_19_Dataset_and_References/References/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6143" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6671" uniqueCount="866">
   <si>
     <t>Doi</t>
   </si>
@@ -2740,6 +2740,132 @@
   </si>
   <si>
     <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                        Alaa%Boulad%coreGivesNoEmail%1,                        Anand%Irimpen%coreGivesNoEmail%1,                        Bradley%Deere%coreGivesNoEmail%1,                        Christopher%Westley%coreGivesNoEmail%1,                        Hassan%Baydoun%coreGivesNoEmail%1,                        Holly%Gonzales%coreGivesNoEmail%1,                        Indrajeet%Mahata%coreGivesNoEmail%1,                        John%C. Moscona%coreGivesNoEmail%1,                        Kapil%Yadav%coreGivesNoEmail%1,                        Matthew%N. Peters%coreGivesNoEmail%1,                        Patrick%Ters%coreGivesNoEmail%1,                        Paul%Katigbak%coreGivesNoEmail%1,                        Rohit%Maini%coreGivesNoEmail%1,                        Ryan%Nelson%coreGivesNoEmail%1,                        Sudesh%Srivastav%coreGivesNoEmail%1,                        Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                           Elsie%Yan%null%1,                           Sally%Jowett%null%1,                        Thanos%Karatzias%null%1,                        Elsie%Yan%null%1,                        Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                          Alan%Cohen%NULL%1,                          Josiane%Courteau%NULL%1,                          Patrick%Bergeron%NULL%1,                          Roxanne%Dault%NULL%1,                          Pierre%Gosselin%NULL%1,                          Claudia%Blais%NULL%1,                          Diane%Bélanger%NULL%1,                          Louis%Rochette%NULL%1,                          Fateh%Chebana%NULL%1,                          Jan%Semenza%NULL%2,                          Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                           Tony T.%Koshy%null%1,                           Joseph%Gilbert%null%1,                           Lauren K.%Burdine%null%1,                           Michael%Marmor%null%1,                           Xiaoxia%Han%null%1,                           Yongzhao%Shao%null%1,                           Claude%Chemtob%null%1,                           Teresa M.%Attina%null%1,                           Elaine M.%Urbina%null%1,                        Leonardo%Trasande%null%1,                        Tony T.%Koshy%null%1,                        Joseph%Gilbert%null%1,                        Lauren K.%Burdine%null%1,                        Michael%Marmor%null%1,                        Xiaoxia%Han%null%1,                        Yongzhao%Shao%null%1,                        Claude%Chemtob%null%1,                        Teresa M.%Attina%null%1,                        Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                          Elena N.%Naumova%NULL%1,                          Gitanjali%Singh%NULL%1,                          Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                          Steven D.%Stellman%NULL%1,                          Alfredo%Morabia%NULL%1,                          Sara A.%Miller‐Archie%NULL%1,                          Howard%Alper%NULL%1,                          Zoey%Laskaris%NULL%1,                          Robert M.%Brackbill%NULL%1,                          James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,                         Karen%A. Matthews%coreGivesNoEmail%1,                         Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,                 Chris%Houser%null%1,                 Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                           Socrates V.%Kakoulides%null%1,                           John%Moscona%null%1,                           Jabar%Whittier%null%1,                           Sudesh%Srivastav%null%1,                           Patrice%Delafontaine%null%2,                           Anand%Irimpen%null%1,                        Zhen%Jiao%null%1,                        Socrates V.%Kakoulides%null%1,                        John%Moscona%null%1,                        Jabar%Whittier%null%1,                        Sudesh%Srivastav%null%1,                        Patrice%Delafontaine%null%2,                        Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                           Shinya%Yumoto%null%1,                           Kazuhisa%Sakaguchi%null%1,                           Chiharu%Shudo%null%1,                           Shiro%Takino%null%1,                           Motohiro%Hashiyama%null%1,                           Yutaka%Kai%null%1,                           Yutaka%Kuroda%null%1,                           Hiroaki%Kawano%null%1,                           Hisao%Ogawa%null%1,                        Yasuhiro%Nagayoshi%null%1,                        Shinya%Yumoto%null%1,                        Kazuhisa%Sakaguchi%null%1,                        Chiharu%Shudo%null%1,                        Shiro%Takino%null%1,                        Motohiro%Hashiyama%null%1,                        Yutaka%Kai%null%1,                        Yutaka%Kuroda%null%1,                        Hiroaki%Kawano%null%1,                        Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                           Sara A.%Miller-Archie%null%1,                           James E.%Cone%null%1,                           Alfredo%Morabia%null%1,                           Steven D.%Stellman%null%1,                        Hannah T.%Jordan%null%1,                        Sara A.%Miller-Archie%null%1,                        James E.%Cone%null%1,                        Alfredo%Morabia%null%1,                        Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                          Hayden%Smith%NULL%1,                          Nitesh%Kuhadiya%NULL%1,                          Sharice M.%Leger%NULL%1,                          C. Lillian%Yau%NULL%1,                          Kristi%Reynolds%NULL%1,                          Lizheng%Shi%NULL%1,                          Roberta H.%McDuffie%NULL%1,                          Tina%Thethi%NULL%1,                          Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                           Ana Isabel%Casanegra%null%1,                           Alan%Shapiro%null%1,                           Minh%Phan%null%1,                           Beau%Hawkins%null%1,                           Ji%Li%null%1,                           Julie%Stoner%null%1,                           Alfonso%Tafur%null%1,                        Federico%Silva-Palacios%null%1,                        Ana Isabel%Casanegra%null%1,                        Alan%Shapiro%null%1,                        Minh%Phan%null%1,                        Beau%Hawkins%null%1,                        Ji%Li%null%1,                        Julie%Stoner%null%1,                        Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                          La Ngoc%Quang%NULL%1,                          Le Thi%Thanh Ha%NULL%1,                          Tran Thi%Duc Hanh%NULL%1,                          Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,                         Bouter%L M%coreGivesNoEmail%1,                         Bramsen%I%coreGivesNoEmail%1,                         Huizink%A C%coreGivesNoEmail%1,                         Slottje%P%coreGivesNoEmail%1,                         Smid%T%coreGivesNoEmail%1,                         Smidt%N%coreGivesNoEmail%1,                         Twisk%J W R%coreGivesNoEmail%1,                         van%der Ploeg H M%coreGivesNoEmail%1,                         van%Mechelen W%coreGivesNoEmail%1,                         Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                           Robert M%Brackbill%null%1,                           James E%Cone%null%1,                           Indira%Debchoudhury%null%1,                           Mark R%Farfel%null%1,                           Carolyn M%Greene%null%1,                           James L%Hadler%null%1,                           Joseph%Kennedy%null%1,                           Jiehui%Li%null%1,                           Jonathan%Liff%null%1,                           Leslie%Stayner%null%1,                           Steven D%Stellman%null%1,                        Hannah T%Jordan%null%1,                        Robert M%Brackbill%null%1,                        James E%Cone%null%1,                        Indira%Debchoudhury%null%1,                        Mark R%Farfel%null%1,                        Carolyn M%Greene%null%1,                        James L%Hadler%null%1,                        Joseph%Kennedy%null%1,                        Jiehui%Li%null%1,                        Jonathan%Liff%null%1,                        Leslie%Stayner%null%1,                        Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                           Morgan J.%Katz%null%1,                           John C.%Moscona%null%1,                           Mohi E.%Alkadri%null%1,                           Rashad H.%Khazi Syed%null%1,                           Thomas A.%Turnage%null%1,                           Vikram S.%Nijjar%null%1,                           Mohannad B.%Bisharat%null%1,                           Patrice%Delafontaine%null%0,                           Anand M.%Irimpen%null%1,                        Matthew N.%Peters%null%1,                        Morgan J.%Katz%null%1,                        John C.%Moscona%null%1,                        Mohi E.%Alkadri%null%1,                        Rashad H.%Khazi Syed%null%1,                        Thomas A.%Turnage%null%1,                        Vikram S.%Nijjar%null%1,                        Mohannad B.%Bisharat%null%1,                        Patrice%Delafontaine%null%0,                        Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                          Dena%Javadi%NULL%2,                          Dena%Javadi%NULL%0,                          Katrina%Hann%NULL%5,                          Anthony D%Harries%NULL%2,                          Anthony D%Harries%NULL%0,                          Francis%Smart%NULL%2,                          Francis%Smart%NULL%0,                          Thomas%Samba%NULL%1,                          Jeffery%Edwards%NULL%4,                          Jeffery%Edwards%NULL%0,                          Priyakanta%Nayak%NULL%2,                          Priyakanta%Nayak%NULL%0,                          Katrina%Hann%NULL%0,                          Katrina%Hann%NULL%0,                          Jeffery%Edwards%NULL%0,                          Jeffery%Edwards%NULL%0,                          Katrina%Hann%NULL%0,                          Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                           Renée%El-Gabalawy%null%1,                           Sarvesh%Logsetty%null%1,                           Jitender%Sareen%null%1,                        M. Natalie%Husarewycz%null%1,                        Renée%El-Gabalawy%null%1,                        Sarvesh%Logsetty%null%1,                        Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[J.%Ng%xref no email%1,      S. L.%Atkin%xref no email%1,      A. S.%Rigby%xref no email%1,      C.%Walton%xref no email%1,      E. S.%Kilpatrick%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,                 Eric%Jougla%null%1,                 Anne%Fouillet%null%1,                 Gérard%Pavillon%null%1,                 Pierre%Bessemoulin%null%1,                 Philippe%Frayssinet%null%1,                 Jacqueline%Clavel%null%1,                 Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                         Alaa%Boulad%coreGivesNoEmail%1,                         Anand%Irimpen%coreGivesNoEmail%1,                         Bradley%Deere%coreGivesNoEmail%1,                         Christopher%Westley%coreGivesNoEmail%1,                         Hassan%Baydoun%coreGivesNoEmail%1,                         Holly%Gonzales%coreGivesNoEmail%1,                         Indrajeet%Mahata%coreGivesNoEmail%1,                         John%C. Moscona%coreGivesNoEmail%1,                         Kapil%Yadav%coreGivesNoEmail%1,                         Matthew%N. Peters%coreGivesNoEmail%1,                         Patrick%Ters%coreGivesNoEmail%1,                         Paul%Katigbak%coreGivesNoEmail%1,                         Rohit%Maini%coreGivesNoEmail%1,                         Ryan%Nelson%coreGivesNoEmail%1,                         Sudesh%Srivastav%coreGivesNoEmail%1,                         Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Thanos%Karatzias%null%1,                            Elsie%Yan%null%1,                            Sally%Jowett%null%1,                         Thanos%Karatzias%null%1,                         Elsie%Yan%null%1,                         Sally%Jowett%null%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                           Alan%Cohen%NULL%1,                           Josiane%Courteau%NULL%1,                           Patrick%Bergeron%NULL%1,                           Roxanne%Dault%NULL%1,                           Pierre%Gosselin%NULL%1,                           Claudia%Blais%NULL%1,                           Diane%Bélanger%NULL%1,                           Louis%Rochette%NULL%1,                           Fateh%Chebana%NULL%1,                           Jan%Semenza%NULL%2,                           Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Leonardo%Trasande%null%1,                            Tony T.%Koshy%null%1,                            Joseph%Gilbert%null%1,                            Lauren K.%Burdine%null%1,                            Michael%Marmor%null%1,                            Xiaoxia%Han%null%1,                            Yongzhao%Shao%null%1,                            Claude%Chemtob%null%1,                            Teresa M.%Attina%null%1,                            Elaine M.%Urbina%null%1,                         Leonardo%Trasande%null%1,                         Tony T.%Koshy%null%1,                         Joseph%Gilbert%null%1,                         Lauren K.%Burdine%null%1,                         Michael%Marmor%null%1,                         Xiaoxia%Han%null%1,                         Yongzhao%Shao%null%1,                         Claude%Chemtob%null%1,                         Teresa M.%Attina%null%1,                         Elaine M.%Urbina%null%1]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                           Elena N.%Naumova%NULL%1,                           Gitanjali%Singh%NULL%1,                           Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                           Steven D.%Stellman%NULL%1,                           Alfredo%Morabia%NULL%1,                           Sara A.%Miller‐Archie%NULL%1,                           Howard%Alper%NULL%1,                           Zoey%Laskaris%NULL%1,                           Robert M.%Brackbill%NULL%1,                           James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hector%F. Myers%coreGivesNoEmail%1,                          Karen%A. Matthews%coreGivesNoEmail%1,                          Nataria%T. Joseph%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Nathan%McKinney%null%1,                  Chris%Houser%null%1,                  Klaus%Meyer-Arendt%null%1]</t>
+  </si>
+  <si>
+    <t>[ Zhen%Jiao%null%1,                            Socrates V.%Kakoulides%null%1,                            John%Moscona%null%1,                            Jabar%Whittier%null%1,                            Sudesh%Srivastav%null%1,                            Patrice%Delafontaine%null%2,                            Anand%Irimpen%null%1,                         Zhen%Jiao%null%1,                         Socrates V.%Kakoulides%null%1,                         John%Moscona%null%1,                         Jabar%Whittier%null%1,                         Sudesh%Srivastav%null%1,                         Patrice%Delafontaine%null%2,                         Anand%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[ Yasuhiro%Nagayoshi%null%1,                            Shinya%Yumoto%null%1,                            Kazuhisa%Sakaguchi%null%1,                            Chiharu%Shudo%null%1,                            Shiro%Takino%null%1,                            Motohiro%Hashiyama%null%1,                            Yutaka%Kai%null%1,                            Yutaka%Kuroda%null%1,                            Hiroaki%Kawano%null%1,                            Hisao%Ogawa%null%1,                         Yasuhiro%Nagayoshi%null%1,                         Shinya%Yumoto%null%1,                         Kazuhisa%Sakaguchi%null%1,                         Chiharu%Shudo%null%1,                         Shiro%Takino%null%1,                         Motohiro%Hashiyama%null%1,                         Yutaka%Kai%null%1,                         Yutaka%Kuroda%null%1,                         Hiroaki%Kawano%null%1,                         Hisao%Ogawa%null%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T.%Jordan%null%1,                            Sara A.%Miller-Archie%null%1,                            James E.%Cone%null%1,                            Alfredo%Morabia%null%1,                            Steven D.%Stellman%null%1,                         Hannah T.%Jordan%null%1,                         Sara A.%Miller-Archie%null%1,                         James E.%Cone%null%1,                         Alfredo%Morabia%null%1,                         Steven D.%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                           Hayden%Smith%NULL%1,                           Nitesh%Kuhadiya%NULL%1,                           Sharice M.%Leger%NULL%1,                           C. Lillian%Yau%NULL%1,                           Kristi%Reynolds%NULL%1,                           Lizheng%Shi%NULL%1,                           Roberta H.%McDuffie%NULL%1,                           Tina%Thethi%NULL%1,                           Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Federico%Silva-Palacios%null%1,                            Ana Isabel%Casanegra%null%1,                            Alan%Shapiro%null%1,                            Minh%Phan%null%1,                            Beau%Hawkins%null%1,                            Ji%Li%null%1,                            Julie%Stoner%null%1,                            Alfonso%Tafur%null%1,                         Federico%Silva-Palacios%null%1,                         Ana Isabel%Casanegra%null%1,                         Alan%Shapiro%null%1,                         Minh%Phan%null%1,                         Beau%Hawkins%null%1,                         Ji%Li%null%1,                         Julie%Stoner%null%1,                         Alfonso%Tafur%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                           La Ngoc%Quang%NULL%1,                           Le Thi%Thanh Ha%NULL%1,                           Tran Thi%Duc Hanh%NULL%1,                           Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bijlsma%J A%coreGivesNoEmail%1,                          Bouter%L M%coreGivesNoEmail%1,                          Bramsen%I%coreGivesNoEmail%1,                          Huizink%A C%coreGivesNoEmail%1,                          Slottje%P%coreGivesNoEmail%1,                          Smid%T%coreGivesNoEmail%1,                          Smidt%N%coreGivesNoEmail%1,                          Twisk%J W R%coreGivesNoEmail%1,                          van%der Ploeg H M%coreGivesNoEmail%1,                          van%Mechelen W%coreGivesNoEmail%1,                          Witteveen%A B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Hannah T%Jordan%null%1,                            Robert M%Brackbill%null%1,                            James E%Cone%null%1,                            Indira%Debchoudhury%null%1,                            Mark R%Farfel%null%1,                            Carolyn M%Greene%null%1,                            James L%Hadler%null%1,                            Joseph%Kennedy%null%1,                            Jiehui%Li%null%1,                            Jonathan%Liff%null%1,                            Leslie%Stayner%null%1,                            Steven D%Stellman%null%1,                         Hannah T%Jordan%null%1,                         Robert M%Brackbill%null%1,                         James E%Cone%null%1,                         Indira%Debchoudhury%null%1,                         Mark R%Farfel%null%1,                         Carolyn M%Greene%null%1,                         James L%Hadler%null%1,                         Joseph%Kennedy%null%1,                         Jiehui%Li%null%1,                         Jonathan%Liff%null%1,                         Leslie%Stayner%null%1,                         Steven D%Stellman%null%1]</t>
+  </si>
+  <si>
+    <t>[ Matthew N.%Peters%null%1,                            Morgan J.%Katz%null%1,                            John C.%Moscona%null%1,                            Mohi E.%Alkadri%null%1,                            Rashad H.%Khazi Syed%null%1,                            Thomas A.%Turnage%null%1,                            Vikram S.%Nijjar%null%1,                            Mohannad B.%Bisharat%null%1,                            Patrice%Delafontaine%null%0,                            Anand M.%Irimpen%null%1,                         Matthew N.%Peters%null%1,                         Morgan J.%Katz%null%1,                         John C.%Moscona%null%1,                         Mohi E.%Alkadri%null%1,                         Rashad H.%Khazi Syed%null%1,                         Thomas A.%Turnage%null%1,                         Vikram S.%Nijjar%null%1,                         Mohannad B.%Bisharat%null%1,                         Patrice%Delafontaine%null%0,                         Anand M.%Irimpen%null%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                           Dena%Javadi%NULL%2,                           Dena%Javadi%NULL%0,                           Katrina%Hann%NULL%5,                           Anthony D%Harries%NULL%2,                           Anthony D%Harries%NULL%0,                           Francis%Smart%NULL%2,                           Francis%Smart%NULL%0,                           Thomas%Samba%NULL%1,                           Jeffery%Edwards%NULL%4,                           Jeffery%Edwards%NULL%0,                           Priyakanta%Nayak%NULL%2,                           Priyakanta%Nayak%NULL%0,                           Katrina%Hann%NULL%0,                           Katrina%Hann%NULL%0,                           Jeffery%Edwards%NULL%0,                           Jeffery%Edwards%NULL%0,                           Katrina%Hann%NULL%0,                           Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ M. Natalie%Husarewycz%null%1,                            Renée%El-Gabalawy%null%1,                            Sarvesh%Logsetty%null%1,                            Jitender%Sareen%null%1,                         M. Natalie%Husarewycz%null%1,                         Renée%El-Gabalawy%null%1,                         Sarvesh%Logsetty%null%1,                         Jitender%Sareen%null%1]</t>
+  </si>
+  <si>
+    <t>[J.%Ng%xref no email%1,       S. L.%Atkin%xref no email%1,       A. S.%Rigby%xref no email%1,       C.%Walton%xref no email%1,       E. S.%Kilpatrick%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Grégoire%Rey%null%1,                  Eric%Jougla%null%1,                  Anne%Fouillet%null%1,                  Gérard%Pavillon%null%1,                  Pierre%Bessemoulin%null%1,                  Philippe%Frayssinet%null%1,                  Jacqueline%Clavel%null%1,                  Denis%Hémon%null%1]</t>
+  </si>
+  <si>
+    <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                          Alaa%Boulad%coreGivesNoEmail%1,                          Anand%Irimpen%coreGivesNoEmail%1,                          Bradley%Deere%coreGivesNoEmail%1,                          Christopher%Westley%coreGivesNoEmail%1,                          Hassan%Baydoun%coreGivesNoEmail%1,                          Holly%Gonzales%coreGivesNoEmail%1,                          Indrajeet%Mahata%coreGivesNoEmail%1,                          John%C. Moscona%coreGivesNoEmail%1,                          Kapil%Yadav%coreGivesNoEmail%1,                          Matthew%N. Peters%coreGivesNoEmail%1,                          Patrick%Ters%coreGivesNoEmail%1,                          Paul%Katigbak%coreGivesNoEmail%1,                          Rohit%Maini%coreGivesNoEmail%1,                          Ryan%Nelson%coreGivesNoEmail%1,                          Sudesh%Srivastav%coreGivesNoEmail%1,                          Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -3080,7 +3206,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>803</v>
+        <v>845</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -3112,7 +3238,7 @@
         <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3144,7 +3270,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -3176,7 +3302,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -3208,7 +3334,7 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -3240,7 +3366,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>807</v>
+        <v>849</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -3272,7 +3398,7 @@
         <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -3304,7 +3430,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -3336,7 +3462,7 @@
         <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -3368,7 +3494,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3400,7 +3526,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>810</v>
+        <v>852</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -3432,7 +3558,7 @@
         <v>285</v>
       </c>
       <c r="E13" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -3464,7 +3590,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>811</v>
+        <v>853</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -3496,7 +3622,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -3528,7 +3654,7 @@
         <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -3560,7 +3686,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -3592,7 +3718,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>814</v>
+        <v>856</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -3624,7 +3750,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3656,7 +3782,7 @@
         <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -3688,7 +3814,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -3720,7 +3846,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -3752,7 +3878,7 @@
         <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -3784,7 +3910,7 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -3816,7 +3942,7 @@
         <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -3848,7 +3974,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -3880,7 +4006,7 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -3912,7 +4038,7 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -3944,7 +4070,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -3976,7 +4102,7 @@
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>821</v>
+        <v>863</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -4008,7 +4134,7 @@
         <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>822</v>
+        <v>864</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -4040,7 +4166,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>823</v>
+        <v>865</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -4072,7 +4198,7 @@
         <v>320</v>
       </c>
       <c r="E33" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>
